--- a/data/p3d.xlsx
+++ b/data/p3d.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Semestre 3\Analyse démographique appliquée\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB520A8C-857E-497A-81B9-F61058FB9CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{79BB0936-64DD-4684-922E-1D268A07E2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4650" uniqueCount="224">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4656" uniqueCount="230">
   <si>
     <t xml:space="preserve">Espérance de vie </t>
   </si>
@@ -747,20 +747,53 @@
   <si>
     <t>DEP</t>
   </si>
+  <si>
+    <t>Groupe ICF</t>
+  </si>
+  <si>
+    <t>Groupe AgeMoy</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>CODDEP</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -839,6 +872,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1335,513 +1374,535 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1867,1752 +1928,121 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.7118110236220478E-2"/>
-          <c:y val="4.6712962962962963E-2"/>
-          <c:w val="0.91409711286089235"/>
-          <c:h val="0.89773148148148152"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bubbleChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ntm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2020'!$D$2:$D$97</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>31.3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>30.6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>31.2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>31.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>30.2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>31.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2020'!$B$2:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.91</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.81</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.78</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.0499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'2020'!$F$2:$F$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>261570</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>181410</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>183700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>214390</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>275830</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195530</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44390</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17270</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29350</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51650</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14820</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46550</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31040</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56710</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22440</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19540</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13850</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61810</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>134460</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65520</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42570</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23240</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>301450</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>152610</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53380</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93190</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>54330</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>68190</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15120</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>96970</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29980</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>117970</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>75360</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24580</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>30880</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>58430</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13810</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>161590</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>83840</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>29680</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55470</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>59160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50820</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78850</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>115480</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>64780</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30120</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>169700</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>34050</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28920</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>59500</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29310</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>49410</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>31460</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>40390</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>18640</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7580</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>32880</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11960</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>21780</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>158250</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14090</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12290</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>18970</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>32130</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>24490</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>32370</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73770</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>124110</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5250</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43290</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>68060</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>27540</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>51870</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>137910</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80500</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>242410</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42730</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>96800</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>25940</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10290</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18930</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>61750</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>13290</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>11570</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>112160</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>246700</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>102820</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>62310</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12860</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14010</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4F2-437E-B81C-E4E4D7E88D4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:bubbleScale val="10"/>
-        <c:showNegBubbles val="0"/>
-        <c:axId val="2094642927"/>
-        <c:axId val="1977648975"/>
-      </c:bubbleChart>
-      <c:valAx>
-        <c:axId val="2094642927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="34.5"/>
-          <c:min val="28"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25%"/>
-                <a:lumOff val="75%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1977648975"/>
-        <c:crossesAt val="1.7400000000000002"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1977648975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.4"/>
-          <c:min val="1.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2094642927"/>
-        <c:crossesAt val="30.4"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="269">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="75%"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="75%"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75%"/>
-          <a:lumOff val="25%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50%"/>
-            <a:lumOff val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>557310</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>479535</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>11167</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>131379</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11167</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+    <xdr:ext cx="16736761" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AB3EA3-0DCF-66EE-DA26-B85DBC56EAC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38D88C5-798D-8A32-2A7B-45FF0B2DAE10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10319845" y="551793"/>
+          <a:ext cx="16736761" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0%" g="0%" b="0%"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Codage pour classes : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1 = Calendrier</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t> tardif, fécondité du moment plus faible</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t>2 = Calendrier tardif, fécondité du moment plus forte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>3 = Calendrier tardif</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>et fécondité dans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t> la moyenne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t>4 = Calendrier précoce, fécondité du moment plus faible</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0%"/>
+            <a:t>5 = Calendrier précoce, fécondité du moment plus forte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0%"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>=SI(ET(F2="Faible fécondité";G2="Calendrier tardif");"1";SI(ET(F2="Faible fécondité";G2="Calendrier précoce");"2");SI(ET(G2="Calendrier tardif";F2="Dans la moyenne");"3";SI(ET(G2="Calendrier précoce";F2="Faible fécondité");"4";SI(ET(G2="Calendrier précoce";F2="Forte fécondité");"5";)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3940,20 +2370,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -6557,20 +4987,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -9222,14 +7652,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -9322,20 +7752,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -11987,14 +10417,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -12087,20 +10517,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -14752,14 +13182,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -14852,20 +13282,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -17517,14 +15947,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -17617,20 +16047,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -20282,14 +18712,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -20382,20 +18812,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -23047,14 +21477,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -23147,20 +21577,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -25812,14 +24242,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -25912,20 +24342,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -28577,14 +27007,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -28677,20 +27107,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -31342,14 +29772,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -31442,20 +29872,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -34107,14 +32537,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -34207,20 +32637,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -36824,20 +35254,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -39489,14 +37919,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -39588,20 +38018,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -42253,14 +40683,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -42352,20 +40782,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -45017,14 +43447,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -45090,14 +43520,14 @@
     </row>
     <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -47704,14 +46134,14 @@
     </row>
     <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -50308,14 +48738,14 @@
     </row>
     <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -52693,14 +51123,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="143" t="s">
+      <c r="A127" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
+      <c r="B127" s="150"/>
+      <c r="C127" s="150"/>
+      <c r="D127" s="150"/>
+      <c r="E127" s="150"/>
+      <c r="F127" s="150"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
@@ -52766,14 +51196,14 @@
     </row>
     <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -55151,14 +53581,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="143" t="s">
+      <c r="A127" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
+      <c r="B127" s="150"/>
+      <c r="C127" s="150"/>
+      <c r="D127" s="150"/>
+      <c r="E127" s="150"/>
+      <c r="F127" s="150"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
@@ -55224,14 +53654,14 @@
     </row>
     <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
@@ -57609,14 +56039,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="143" t="s">
+      <c r="A127" s="149" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
+      <c r="B127" s="150"/>
+      <c r="C127" s="150"/>
+      <c r="D127" s="150"/>
+      <c r="E127" s="150"/>
+      <c r="F127" s="150"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
@@ -57682,14 +56112,14 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148" t="s">
+      <c r="A4" s="151"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="155"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
@@ -60067,14 +58497,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="150" t="s">
+      <c r="A127" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="151"/>
-      <c r="C127" s="151"/>
-      <c r="D127" s="151"/>
-      <c r="E127" s="151"/>
-      <c r="F127" s="151"/>
+      <c r="B127" s="157"/>
+      <c r="C127" s="157"/>
+      <c r="D127" s="157"/>
+      <c r="E127" s="157"/>
+      <c r="F127" s="157"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="79" t="s">
@@ -60139,14 +58569,14 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155" t="s">
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="156"/>
+      <c r="F4" s="162"/>
     </row>
     <row r="5" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -62524,14 +60954,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="157" t="s">
+      <c r="A127" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="158"/>
-      <c r="C127" s="158"/>
-      <c r="D127" s="158"/>
-      <c r="E127" s="158"/>
-      <c r="F127" s="158"/>
+      <c r="B127" s="164"/>
+      <c r="C127" s="164"/>
+      <c r="D127" s="164"/>
+      <c r="E127" s="164"/>
+      <c r="F127" s="164"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="97" t="s">
@@ -62622,20 +61052,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -65207,14 +63637,14 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162" t="s">
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="163"/>
+      <c r="F3" s="169"/>
     </row>
     <row r="4" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
@@ -67592,14 +66022,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="164" t="s">
+      <c r="A126" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="B126" s="165"/>
-      <c r="C126" s="165"/>
-      <c r="D126" s="165"/>
-      <c r="E126" s="165"/>
-      <c r="F126" s="165"/>
+      <c r="B126" s="171"/>
+      <c r="C126" s="171"/>
+      <c r="D126" s="171"/>
+      <c r="E126" s="171"/>
+      <c r="F126" s="171"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="115" t="s">
@@ -67632,2059 +66062,3152 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" style="116" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="116" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="116" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="116" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="116"/>
+    <col min="1" max="1" width="9.109375" style="174"/>
+    <col min="2" max="2" width="34.44140625" style="116" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="116" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="116" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="116" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="116"/>
+    <col min="7" max="7" width="25.21875" style="116" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="116" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="139"/>
+    <col min="10" max="16384" width="9.109375" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="172" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="C1" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="D1" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="E1" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="F1" s="134" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="G1" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="173">
+        <v>1</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="122">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="123">
+        <v>59.2</v>
+      </c>
+      <c r="E2" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F2" s="133">
+        <v>6806</v>
+      </c>
+      <c r="G2" s="116" t="str">
+        <f>IF(C2&gt;1.9,"Forte fécondité",IF(C2&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H2" s="116" t="str">
+        <f>IF(E2&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I2" s="138" t="str">
+        <f>IF(AND(G2="Faible fécondité",H2="Calendrier tardif"),"1",IF(AND(G2="Forte fécondité",H2="Calendrier tardif"),"2",IF(AND(H2="Calendrier tardif",G2="Dans la moyenne"),"3",IF(AND(H2="Calendrier précoce",G2="Faible fécondité"),"4",IF(AND(H2="Calendrier précoce",G2="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="174">
+        <v>2</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="122">
+        <v>1.9</v>
+      </c>
+      <c r="D3" s="123">
+        <v>73.2</v>
+      </c>
+      <c r="E3" s="123">
+        <v>29.2</v>
+      </c>
+      <c r="F3" s="133">
+        <v>30145</v>
+      </c>
+      <c r="G3" s="116" t="str">
+        <f>IF(C3&gt;1.9,"Forte fécondité",IF(C3&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H3" s="116" t="str">
+        <f>IF(E3&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I3" s="138" t="str">
+        <f>IF(AND(G3="Faible fécondité",H3="Calendrier tardif"),"1",IF(AND(G3="Forte fécondité",H3="Calendrier tardif"),"2",IF(AND(H3="Calendrier tardif",G3="Dans la moyenne"),"3",IF(AND(H3="Calendrier précoce",G3="Faible fécondité"),"4",IF(AND(H3="Calendrier précoce",G3="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="174">
+        <v>3</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="122">
+        <v>1.73</v>
+      </c>
+      <c r="D4" s="123">
+        <v>73.3</v>
+      </c>
+      <c r="E4" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F4" s="133">
+        <v>2754</v>
+      </c>
+      <c r="G4" s="116" t="str">
+        <f>IF(C4&gt;1.9,"Forte fécondité",IF(C4&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H4" s="116" t="str">
+        <f>IF(E4&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I4" s="138" t="str">
+        <f>IF(AND(G4="Faible fécondité",H4="Calendrier tardif"),"1",IF(AND(G4="Forte fécondité",H4="Calendrier tardif"),"2",IF(AND(H4="Calendrier tardif",G4="Dans la moyenne"),"3",IF(AND(H4="Calendrier précoce",G4="Faible fécondité"),"4",IF(AND(H4="Calendrier précoce",G4="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="174">
+        <v>4</v>
+      </c>
+      <c r="B5" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="122">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="123">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E5" s="123">
+        <v>30.1</v>
+      </c>
+      <c r="F5" s="133">
+        <v>1329</v>
+      </c>
+      <c r="G5" s="116" t="str">
+        <f>IF(C5&gt;1.9,"Forte fécondité",IF(C5&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H5" s="116" t="str">
+        <f>IF(E5&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I5" s="138" t="str">
+        <f>IF(AND(G5="Faible fécondité",H5="Calendrier tardif"),"1",IF(AND(G5="Forte fécondité",H5="Calendrier tardif"),"2",IF(AND(H5="Calendrier tardif",G5="Dans la moyenne"),"3",IF(AND(H5="Calendrier précoce",G5="Faible fécondité"),"4",IF(AND(H5="Calendrier précoce",G5="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="174">
+        <v>6</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="122">
+        <v>1.82</v>
+      </c>
+      <c r="D6" s="123">
+        <v>55.6</v>
+      </c>
+      <c r="E6" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F6" s="133">
+        <v>11216</v>
+      </c>
+      <c r="G6" s="116" t="str">
+        <f>IF(C6&gt;1.9,"Forte fécondité",IF(C6&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H6" s="116" t="str">
+        <f>IF(E6&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I6" s="138" t="str">
+        <f>IF(AND(G6="Faible fécondité",H6="Calendrier tardif"),"1",IF(AND(G6="Forte fécondité",H6="Calendrier tardif"),"2",IF(AND(H6="Calendrier tardif",G6="Dans la moyenne"),"3",IF(AND(H6="Calendrier précoce",G6="Faible fécondité"),"4",IF(AND(H6="Calendrier précoce",G6="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="174">
+        <v>7</v>
+      </c>
+      <c r="B7" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="122">
+        <v>1.82</v>
+      </c>
+      <c r="D7" s="123">
+        <v>70</v>
+      </c>
+      <c r="E7" s="123">
+        <v>30.1</v>
+      </c>
+      <c r="F7" s="133">
+        <v>5187</v>
+      </c>
+      <c r="G7" s="116" t="str">
+        <f>IF(C7&gt;1.9,"Forte fécondité",IF(C7&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H7" s="116" t="str">
+        <f>IF(E7&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I7" s="138" t="str">
+        <f>IF(AND(G7="Faible fécondité",H7="Calendrier tardif"),"1",IF(AND(G7="Forte fécondité",H7="Calendrier tardif"),"2",IF(AND(H7="Calendrier tardif",G7="Dans la moyenne"),"3",IF(AND(H7="Calendrier précoce",G7="Faible fécondité"),"4",IF(AND(H7="Calendrier précoce",G7="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="174">
+        <v>8</v>
+      </c>
+      <c r="B8" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="122">
+        <v>1.79</v>
+      </c>
+      <c r="D8" s="123">
+        <v>71</v>
+      </c>
+      <c r="E8" s="123">
+        <v>29.1</v>
+      </c>
+      <c r="F8" s="133">
+        <v>6819</v>
+      </c>
+      <c r="G8" s="116" t="str">
+        <f>IF(C8&gt;1.9,"Forte fécondité",IF(C8&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H8" s="116" t="str">
+        <f>IF(E8&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I8" s="138" t="str">
+        <f>IF(AND(G8="Faible fécondité",H8="Calendrier tardif"),"1",IF(AND(G8="Forte fécondité",H8="Calendrier tardif"),"2",IF(AND(H8="Calendrier tardif",G8="Dans la moyenne"),"3",IF(AND(H8="Calendrier précoce",G8="Faible fécondité"),"4",IF(AND(H8="Calendrier précoce",G8="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="174">
+        <v>9</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="122">
+        <v>1.69</v>
+      </c>
+      <c r="D9" s="123">
+        <v>75.8</v>
+      </c>
+      <c r="E9" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F9" s="133">
+        <v>1196</v>
+      </c>
+      <c r="G9" s="116" t="str">
+        <f>IF(C9&gt;1.9,"Forte fécondité",IF(C9&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H9" s="116" t="str">
+        <f>IF(E9&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I9" s="138" t="str">
+        <f>IF(AND(G9="Faible fécondité",H9="Calendrier tardif"),"1",IF(AND(G9="Forte fécondité",H9="Calendrier tardif"),"2",IF(AND(H9="Calendrier tardif",G9="Dans la moyenne"),"3",IF(AND(H9="Calendrier précoce",G9="Faible fécondité"),"4",IF(AND(H9="Calendrier précoce",G9="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="173">
+        <v>10</v>
+      </c>
+      <c r="B10" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="123">
+        <v>69.7</v>
+      </c>
+      <c r="E10" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F10" s="133">
+        <v>1512</v>
+      </c>
+      <c r="G10" s="116" t="str">
+        <f>IF(C10&gt;1.9,"Forte fécondité",IF(C10&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H10" s="116" t="str">
+        <f>IF(E10&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I10" s="138" t="str">
+        <f>IF(AND(G10="Faible fécondité",H10="Calendrier tardif"),"1",IF(AND(G10="Forte fécondité",H10="Calendrier tardif"),"2",IF(AND(H10="Calendrier tardif",G10="Dans la moyenne"),"3",IF(AND(H10="Calendrier précoce",G10="Faible fécondité"),"4",IF(AND(H10="Calendrier précoce",G10="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="174">
+        <v>11</v>
+      </c>
+      <c r="B11" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="122">
+        <v>1.82</v>
+      </c>
+      <c r="D11" s="123">
+        <v>70.3</v>
+      </c>
+      <c r="E11" s="123">
+        <v>29.9</v>
+      </c>
+      <c r="F11" s="133">
+        <v>2178</v>
+      </c>
+      <c r="G11" s="116" t="str">
+        <f>IF(C11&gt;1.9,"Forte fécondité",IF(C11&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H11" s="116" t="str">
+        <f>IF(E11&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I11" s="138" t="str">
+        <f>IF(AND(G11="Faible fécondité",H11="Calendrier tardif"),"1",IF(AND(G11="Forte fécondité",H11="Calendrier tardif"),"2",IF(AND(H11="Calendrier tardif",G11="Dans la moyenne"),"3",IF(AND(H11="Calendrier précoce",G11="Faible fécondité"),"4",IF(AND(H11="Calendrier précoce",G11="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="174">
+        <f>A11+1</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="122">
+        <v>1.76</v>
+      </c>
+      <c r="D12" s="123">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E12" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F12" s="133">
+        <v>15825</v>
+      </c>
+      <c r="G12" s="116" t="str">
+        <f>IF(C12&gt;1.9,"Forte fécondité",IF(C12&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H12" s="116" t="str">
+        <f>IF(E12&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I12" s="138" t="str">
+        <f>IF(AND(G12="Faible fécondité",H12="Calendrier tardif"),"1",IF(AND(G12="Forte fécondité",H12="Calendrier tardif"),"2",IF(AND(H12="Calendrier tardif",G12="Dans la moyenne"),"3",IF(AND(H12="Calendrier précoce",G12="Faible fécondité"),"4",IF(AND(H12="Calendrier précoce",G12="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="174">
+        <v>67</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="122">
+        <v>1.6</v>
+      </c>
+      <c r="D13" s="123">
+        <v>53.7</v>
+      </c>
+      <c r="E13" s="123">
+        <v>31.1</v>
+      </c>
+      <c r="F13" s="133">
+        <v>3088</v>
+      </c>
+      <c r="G13" s="116" t="str">
+        <f>IF(C13&gt;1.9,"Forte fécondité",IF(C13&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H13" s="116" t="str">
+        <f>IF(E13&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I13" s="138" t="str">
+        <f>IF(AND(G13="Faible fécondité",H13="Calendrier tardif"),"1",IF(AND(G13="Forte fécondité",H13="Calendrier tardif"),"2",IF(AND(H13="Calendrier tardif",G13="Dans la moyenne"),"3",IF(AND(H13="Calendrier précoce",G13="Faible fécondité"),"4",IF(AND(H13="Calendrier précoce",G13="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="174">
         <v>13</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B14" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="122">
+        <v>1.95</v>
+      </c>
+      <c r="D14" s="123">
+        <v>60.6</v>
+      </c>
+      <c r="E14" s="123">
+        <v>31.1</v>
+      </c>
+      <c r="F14" s="133">
+        <v>24670</v>
+      </c>
+      <c r="G14" s="116" t="str">
+        <f>IF(C14&gt;1.9,"Forte fécondité",IF(C14&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H14" s="116" t="str">
+        <f>IF(E14&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I14" s="138" t="str">
+        <f>IF(AND(G14="Faible fécondité",H14="Calendrier tardif"),"1",IF(AND(G14="Forte fécondité",H14="Calendrier tardif"),"2",IF(AND(H14="Calendrier tardif",G14="Dans la moyenne"),"3",IF(AND(H14="Calendrier précoce",G14="Faible fécondité"),"4",IF(AND(H14="Calendrier précoce",G14="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="174">
+        <v>14</v>
+      </c>
+      <c r="B15" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="122">
+        <v>1.66</v>
+      </c>
+      <c r="D15" s="123">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E15" s="123">
+        <v>30.7</v>
+      </c>
+      <c r="F15" s="133">
+        <v>6181</v>
+      </c>
+      <c r="G15" s="116" t="str">
+        <f>IF(C15&gt;1.9,"Forte fécondité",IF(C15&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H15" s="116" t="str">
+        <f>IF(E15&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I15" s="138" t="str">
+        <f>IF(AND(G15="Faible fécondité",H15="Calendrier tardif"),"1",IF(AND(G15="Forte fécondité",H15="Calendrier tardif"),"2",IF(AND(H15="Calendrier tardif",G15="Dans la moyenne"),"3",IF(AND(H15="Calendrier précoce",G15="Faible fécondité"),"4",IF(AND(H15="Calendrier précoce",G15="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="174">
+        <f t="shared" ref="A15:A37" si="0">A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="122">
+        <v>1.66</v>
+      </c>
+      <c r="D16" s="123">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E16" s="123">
+        <v>29.9</v>
+      </c>
+      <c r="F16" s="133">
+        <v>13791</v>
+      </c>
+      <c r="G16" s="116" t="str">
+        <f>IF(C16&gt;1.9,"Forte fécondité",IF(C16&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H16" s="116" t="str">
+        <f>IF(E16&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I16" s="138" t="str">
+        <f>IF(AND(G16="Faible fécondité",H16="Calendrier tardif"),"1",IF(AND(G16="Forte fécondité",H16="Calendrier tardif"),"2",IF(AND(H16="Calendrier tardif",G16="Dans la moyenne"),"3",IF(AND(H16="Calendrier précoce",G16="Faible fécondité"),"4",IF(AND(H16="Calendrier précoce",G16="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="174">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="122">
+        <v>1.71</v>
+      </c>
+      <c r="D17" s="123">
+        <v>72.7</v>
+      </c>
+      <c r="E17" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F17" s="133">
+        <v>3012</v>
+      </c>
+      <c r="G17" s="116" t="str">
+        <f>IF(C17&gt;1.9,"Forte fécondité",IF(C17&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H17" s="116" t="str">
+        <f>IF(E17&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I17" s="138" t="str">
+        <f>IF(AND(G17="Faible fécondité",H17="Calendrier tardif"),"1",IF(AND(G17="Forte fécondité",H17="Calendrier tardif"),"2",IF(AND(H17="Calendrier tardif",G17="Dans la moyenne"),"3",IF(AND(H17="Calendrier précoce",G17="Faible fécondité"),"4",IF(AND(H17="Calendrier précoce",G17="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="174">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="122">
+        <v>1.63</v>
+      </c>
+      <c r="D18" s="123">
+        <v>75</v>
+      </c>
+      <c r="E18" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F18" s="133">
+        <v>16970</v>
+      </c>
+      <c r="G18" s="116" t="str">
+        <f>IF(C18&gt;1.9,"Forte fécondité",IF(C18&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H18" s="116" t="str">
+        <f>IF(E18&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I18" s="138" t="str">
+        <f>IF(AND(G18="Faible fécondité",H18="Calendrier tardif"),"1",IF(AND(G18="Forte fécondité",H18="Calendrier tardif"),"2",IF(AND(H18="Calendrier tardif",G18="Dans la moyenne"),"3",IF(AND(H18="Calendrier précoce",G18="Faible fécondité"),"4",IF(AND(H18="Calendrier précoce",G18="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="174">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="122">
+        <v>1.82</v>
+      </c>
+      <c r="D19" s="123">
+        <v>71.8</v>
+      </c>
+      <c r="E19" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F19" s="133">
+        <v>2601</v>
+      </c>
+      <c r="G19" s="116" t="str">
+        <f>IF(C19&gt;1.9,"Forte fécondité",IF(C19&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H19" s="116" t="str">
+        <f>IF(E19&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I19" s="138" t="str">
+        <f>IF(AND(G19="Faible fécondité",H19="Calendrier tardif"),"1",IF(AND(G19="Forte fécondité",H19="Calendrier tardif"),"2",IF(AND(H19="Calendrier tardif",G19="Dans la moyenne"),"3",IF(AND(H19="Calendrier précoce",G19="Faible fécondité"),"4",IF(AND(H19="Calendrier précoce",G19="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="174">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="122">
+        <v>1.75</v>
+      </c>
+      <c r="D20" s="123">
+        <v>72.7</v>
+      </c>
+      <c r="E20" s="123">
+        <v>29.9</v>
+      </c>
+      <c r="F20" s="133">
+        <v>3405</v>
+      </c>
+      <c r="G20" s="116" t="str">
+        <f>IF(C20&gt;1.9,"Forte fécondité",IF(C20&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H20" s="116" t="str">
+        <f>IF(E20&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I20" s="138" t="str">
+        <f>IF(AND(G20="Faible fécondité",H20="Calendrier tardif"),"1",IF(AND(G20="Forte fécondité",H20="Calendrier tardif"),"2",IF(AND(H20="Calendrier tardif",G20="Dans la moyenne"),"3",IF(AND(H20="Calendrier précoce",G20="Faible fécondité"),"4",IF(AND(H20="Calendrier précoce",G20="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="122">
+        <v>1.41</v>
+      </c>
+      <c r="D21" s="123">
+        <v>62.5</v>
+      </c>
+      <c r="E21" s="123">
+        <v>30.7</v>
+      </c>
+      <c r="F21" s="133">
+        <v>1286</v>
+      </c>
+      <c r="G21" s="116" t="str">
+        <f>IF(C21&gt;1.9,"Forte fécondité",IF(C21&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H21" s="116" t="str">
+        <f>IF(E21&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I21" s="138" t="str">
+        <f>IF(AND(G21="Faible fécondité",H21="Calendrier tardif"),"1",IF(AND(G21="Forte fécondité",H21="Calendrier tardif"),"2",IF(AND(H21="Calendrier tardif",G21="Dans la moyenne"),"3",IF(AND(H21="Calendrier précoce",G21="Faible fécondité"),"4",IF(AND(H21="Calendrier précoce",G21="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="174">
+        <v>21</v>
+      </c>
+      <c r="B22" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="122">
+        <v>1.63</v>
+      </c>
+      <c r="D22" s="123">
+        <v>65.3</v>
+      </c>
+      <c r="E22" s="123">
+        <v>31</v>
+      </c>
+      <c r="F22" s="133">
+        <v>5165</v>
+      </c>
+      <c r="G22" s="116" t="str">
+        <f>IF(C22&gt;1.9,"Forte fécondité",IF(C22&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H22" s="116" t="str">
+        <f>IF(E22&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I22" s="138" t="str">
+        <f>IF(AND(G22="Faible fécondité",H22="Calendrier tardif"),"1",IF(AND(G22="Forte fécondité",H22="Calendrier tardif"),"2",IF(AND(H22="Calendrier tardif",G22="Dans la moyenne"),"3",IF(AND(H22="Calendrier précoce",G22="Faible fécondité"),"4",IF(AND(H22="Calendrier précoce",G22="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="174">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="122">
+        <v>1.87</v>
+      </c>
+      <c r="D23" s="123">
+        <v>75.2</v>
+      </c>
+      <c r="E23" s="123">
+        <v>30.1</v>
+      </c>
+      <c r="F23" s="133">
+        <v>5082</v>
+      </c>
+      <c r="G23" s="116" t="str">
+        <f>IF(C23&gt;1.9,"Forte fécondité",IF(C23&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H23" s="116" t="str">
+        <f>IF(E23&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I23" s="138" t="str">
+        <f>IF(AND(G23="Faible fécondité",H23="Calendrier tardif"),"1",IF(AND(G23="Forte fécondité",H23="Calendrier tardif"),"2",IF(AND(H23="Calendrier tardif",G23="Dans la moyenne"),"3",IF(AND(H23="Calendrier précoce",G23="Faible fécondité"),"4",IF(AND(H23="Calendrier précoce",G23="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="174">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="122">
+        <v>1.65</v>
+      </c>
+      <c r="D24" s="123">
+        <v>76.8</v>
+      </c>
+      <c r="E24" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F24" s="133">
+        <v>2892</v>
+      </c>
+      <c r="G24" s="116" t="str">
+        <f>IF(C24&gt;1.9,"Forte fécondité",IF(C24&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H24" s="116" t="str">
+        <f>IF(E24&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I24" s="138" t="str">
+        <f>IF(AND(G24="Faible fécondité",H24="Calendrier tardif"),"1",IF(AND(G24="Forte fécondité",H24="Calendrier tardif"),"2",IF(AND(H24="Calendrier tardif",G24="Dans la moyenne"),"3",IF(AND(H24="Calendrier précoce",G24="Faible fécondité"),"4",IF(AND(H24="Calendrier précoce",G24="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="174">
+        <v>79</v>
+      </c>
+      <c r="B25" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="122">
+        <v>1.77</v>
+      </c>
+      <c r="D25" s="123">
+        <v>74.5</v>
+      </c>
+      <c r="E25" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F25" s="133">
+        <v>1864</v>
+      </c>
+      <c r="G25" s="116" t="str">
+        <f>IF(C25&gt;1.9,"Forte fécondité",IF(C25&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H25" s="116" t="str">
+        <f>IF(E25&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I25" s="138" t="str">
+        <f>IF(AND(G25="Faible fécondité",H25="Calendrier tardif"),"1",IF(AND(G25="Forte fécondité",H25="Calendrier tardif"),"2",IF(AND(H25="Calendrier tardif",G25="Dans la moyenne"),"3",IF(AND(H25="Calendrier précoce",G25="Faible fécondité"),"4",IF(AND(H25="Calendrier précoce",G25="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="174">
+        <v>24</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="122">
+        <v>1.71</v>
+      </c>
+      <c r="D26" s="123">
+        <v>75.5</v>
+      </c>
+      <c r="E26" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F26" s="133">
+        <v>5950</v>
+      </c>
+      <c r="G26" s="116" t="str">
+        <f>IF(C26&gt;1.9,"Forte fécondité",IF(C26&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H26" s="116" t="str">
+        <f>IF(E26&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I26" s="138" t="str">
+        <f>IF(AND(G26="Faible fécondité",H26="Calendrier tardif"),"1",IF(AND(G26="Forte fécondité",H26="Calendrier tardif"),"2",IF(AND(H26="Calendrier tardif",G26="Dans la moyenne"),"3",IF(AND(H26="Calendrier précoce",G26="Faible fécondité"),"4",IF(AND(H26="Calendrier précoce",G26="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="174">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="122">
+        <v>1.73</v>
+      </c>
+      <c r="D27" s="123">
+        <v>61.1</v>
+      </c>
+      <c r="E27" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F27" s="133">
+        <v>1482</v>
+      </c>
+      <c r="G27" s="116" t="str">
+        <f>IF(C27&gt;1.9,"Forte fécondité",IF(C27&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H27" s="116" t="str">
+        <f>IF(E27&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I27" s="138" t="str">
+        <f>IF(AND(G27="Faible fécondité",H27="Calendrier tardif"),"1",IF(AND(G27="Forte fécondité",H27="Calendrier tardif"),"2",IF(AND(H27="Calendrier tardif",G27="Dans la moyenne"),"3",IF(AND(H27="Calendrier précoce",G27="Faible fécondité"),"4",IF(AND(H27="Calendrier précoce",G27="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="174">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="122">
+        <v>1.87</v>
+      </c>
+      <c r="D28" s="123">
+        <v>62</v>
+      </c>
+      <c r="E28" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F28" s="133">
+        <v>8050</v>
+      </c>
+      <c r="G28" s="116" t="str">
+        <f>IF(C28&gt;1.9,"Forte fécondité",IF(C28&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H28" s="116" t="str">
+        <f>IF(E28&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I28" s="138" t="str">
+        <f>IF(AND(G28="Faible fécondité",H28="Calendrier tardif"),"1",IF(AND(G28="Forte fécondité",H28="Calendrier tardif"),"2",IF(AND(H28="Calendrier tardif",G28="Dans la moyenne"),"3",IF(AND(H28="Calendrier précoce",G28="Faible fécondité"),"4",IF(AND(H28="Calendrier précoce",G28="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="174">
+        <v>91</v>
+      </c>
+      <c r="B29" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="122">
+        <v>2.16</v>
+      </c>
+      <c r="D29" s="123">
+        <v>55.4</v>
+      </c>
+      <c r="E29" s="123">
+        <v>31.1</v>
+      </c>
+      <c r="F29" s="133">
+        <v>18370</v>
+      </c>
+      <c r="G29" s="116" t="str">
+        <f>IF(C29&gt;1.9,"Forte fécondité",IF(C29&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H29" s="116" t="str">
+        <f>IF(E29&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I29" s="138" t="str">
+        <f>IF(AND(G29="Faible fécondité",H29="Calendrier tardif"),"1",IF(AND(G29="Forte fécondité",H29="Calendrier tardif"),"2",IF(AND(H29="Calendrier tardif",G29="Dans la moyenne"),"3",IF(AND(H29="Calendrier précoce",G29="Faible fécondité"),"4",IF(AND(H29="Calendrier précoce",G29="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="174">
+        <v>27</v>
+      </c>
+      <c r="B30" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="122">
+        <v>1.94</v>
+      </c>
+      <c r="D30" s="123">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E30" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F30" s="133">
+        <v>13446</v>
+      </c>
+      <c r="G30" s="116" t="str">
+        <f>IF(C30&gt;1.9,"Forte fécondité",IF(C30&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H30" s="116" t="str">
+        <f>IF(E30&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I30" s="138" t="str">
+        <f>IF(AND(G30="Faible fécondité",H30="Calendrier tardif"),"1",IF(AND(G30="Forte fécondité",H30="Calendrier tardif"),"2",IF(AND(H30="Calendrier tardif",G30="Dans la moyenne"),"3",IF(AND(H30="Calendrier précoce",G30="Faible fécondité"),"4",IF(AND(H30="Calendrier précoce",G30="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="174">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="122">
+        <v>1.95</v>
+      </c>
+      <c r="D31" s="123">
+        <v>62.6</v>
+      </c>
+      <c r="E31" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F31" s="133">
+        <v>4439</v>
+      </c>
+      <c r="G31" s="116" t="str">
+        <f>IF(C31&gt;1.9,"Forte fécondité",IF(C31&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H31" s="116" t="str">
+        <f>IF(E31&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I31" s="138" t="str">
+        <f>IF(AND(G31="Faible fécondité",H31="Calendrier tardif"),"1",IF(AND(G31="Forte fécondité",H31="Calendrier tardif"),"2",IF(AND(H31="Calendrier tardif",G31="Dans la moyenne"),"3",IF(AND(H31="Calendrier précoce",G31="Faible fécondité"),"4",IF(AND(H31="Calendrier précoce",G31="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="174">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="D32" s="123">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E32" s="123">
+        <v>30.7</v>
+      </c>
+      <c r="F32" s="133">
+        <v>7885</v>
+      </c>
+      <c r="G32" s="116" t="str">
+        <f>IF(C32&gt;1.9,"Forte fécondité",IF(C32&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H32" s="116" t="str">
+        <f>IF(E32&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I32" s="138" t="str">
+        <f>IF(AND(G32="Faible fécondité",H32="Calendrier tardif"),"1",IF(AND(G32="Forte fécondité",H32="Calendrier tardif"),"2",IF(AND(H32="Calendrier tardif",G32="Dans la moyenne"),"3",IF(AND(H32="Calendrier précoce",G32="Faible fécondité"),"4",IF(AND(H32="Calendrier précoce",G32="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="174">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="122">
+        <v>1.92</v>
+      </c>
+      <c r="D33" s="123">
+        <v>63.3</v>
+      </c>
+      <c r="E33" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F33" s="133">
+        <v>1409</v>
+      </c>
+      <c r="G33" s="116" t="str">
+        <f>IF(C33&gt;1.9,"Forte fécondité",IF(C33&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H33" s="116" t="str">
+        <f>IF(E33&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I33" s="138" t="str">
+        <f>IF(AND(G33="Faible fécondité",H33="Calendrier tardif"),"1",IF(AND(G33="Forte fécondité",H33="Calendrier tardif"),"2",IF(AND(H33="Calendrier tardif",G33="Dans la moyenne"),"3",IF(AND(H33="Calendrier précoce",G33="Faible fécondité"),"4",IF(AND(H33="Calendrier précoce",G33="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="174">
+        <v>32</v>
+      </c>
+      <c r="B34" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="122">
+        <v>1.72</v>
+      </c>
+      <c r="D34" s="123">
+        <v>71.5</v>
+      </c>
+      <c r="E34" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F34" s="133">
+        <v>1897</v>
+      </c>
+      <c r="G34" s="116" t="str">
+        <f>IF(C34&gt;1.9,"Forte fécondité",IF(C34&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H34" s="116" t="str">
+        <f>IF(E34&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I34" s="138" t="str">
+        <f>IF(AND(G34="Faible fécondité",H34="Calendrier tardif"),"1",IF(AND(G34="Forte fécondité",H34="Calendrier tardif"),"2",IF(AND(H34="Calendrier tardif",G34="Dans la moyenne"),"3",IF(AND(H34="Calendrier précoce",G34="Faible fécondité"),"4",IF(AND(H34="Calendrier précoce",G34="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="174">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="122">
+        <v>1.6</v>
+      </c>
+      <c r="D35" s="123">
+        <v>66.2</v>
+      </c>
+      <c r="E35" s="123">
+        <v>31.4</v>
+      </c>
+      <c r="F35" s="133">
+        <v>2931</v>
+      </c>
+      <c r="G35" s="116" t="str">
+        <f>IF(C35&gt;1.9,"Forte fécondité",IF(C35&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H35" s="116" t="str">
+        <f>IF(E35&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I35" s="138" t="str">
+        <f>IF(AND(G35="Faible fécondité",H35="Calendrier tardif"),"1",IF(AND(G35="Forte fécondité",H35="Calendrier tardif"),"2",IF(AND(H35="Calendrier tardif",G35="Dans la moyenne"),"3",IF(AND(H35="Calendrier précoce",G35="Faible fécondité"),"4",IF(AND(H35="Calendrier précoce",G35="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="122">
+        <v>1.3</v>
+      </c>
+      <c r="D36" s="123">
+        <v>59.7</v>
+      </c>
+      <c r="E36" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F36" s="133">
+        <v>1401</v>
+      </c>
+      <c r="G36" s="116" t="str">
+        <f>IF(C36&gt;1.9,"Forte fécondité",IF(C36&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H36" s="116" t="str">
+        <f>IF(E36&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I36" s="138" t="str">
+        <f>IF(AND(G36="Faible fécondité",H36="Calendrier tardif"),"1",IF(AND(G36="Forte fécondité",H36="Calendrier tardif"),"2",IF(AND(H36="Calendrier tardif",G36="Dans la moyenne"),"3",IF(AND(H36="Calendrier précoce",G36="Faible fécondité"),"4",IF(AND(H36="Calendrier précoce",G36="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="173">
+        <v>31</v>
+      </c>
+      <c r="B37" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="122">
+        <v>1.58</v>
+      </c>
+      <c r="D37" s="123">
+        <v>62</v>
+      </c>
+      <c r="E37" s="123">
+        <v>31.8</v>
+      </c>
+      <c r="F37" s="133">
+        <v>1229</v>
+      </c>
+      <c r="G37" s="116" t="str">
+        <f>IF(C37&gt;1.9,"Forte fécondité",IF(C37&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H37" s="116" t="str">
+        <f>IF(E37&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I37" s="138" t="str">
+        <f>IF(AND(G37="Faible fécondité",H37="Calendrier tardif"),"1",IF(AND(G37="Forte fécondité",H37="Calendrier tardif"),"2",IF(AND(H37="Calendrier tardif",G37="Dans la moyenne"),"3",IF(AND(H37="Calendrier précoce",G37="Faible fécondité"),"4",IF(AND(H37="Calendrier précoce",G37="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="174">
+        <v>43</v>
+      </c>
+      <c r="B38" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="122">
+        <v>1.81</v>
+      </c>
+      <c r="D38" s="123">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E38" s="123">
+        <v>30.1</v>
+      </c>
+      <c r="F38" s="133">
+        <v>9680</v>
+      </c>
+      <c r="G38" s="116" t="str">
+        <f>IF(C38&gt;1.9,"Forte fécondité",IF(C38&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H38" s="116" t="str">
+        <f>IF(E38&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I38" s="138" t="str">
+        <f>IF(AND(G38="Faible fécondité",H38="Calendrier tardif"),"1",IF(AND(G38="Forte fécondité",H38="Calendrier tardif"),"2",IF(AND(H38="Calendrier tardif",G38="Dans la moyenne"),"3",IF(AND(H38="Calendrier précoce",G38="Faible fécondité"),"4",IF(AND(H38="Calendrier précoce",G38="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="174">
+        <v>52</v>
+      </c>
+      <c r="B39" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="D39" s="123">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E39" s="123">
+        <v>29.1</v>
+      </c>
+      <c r="F39" s="133">
+        <v>2998</v>
+      </c>
+      <c r="G39" s="116" t="str">
+        <f>IF(C39&gt;1.9,"Forte fécondité",IF(C39&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H39" s="116" t="str">
+        <f>IF(E39&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I39" s="138" t="str">
+        <f>IF(AND(G39="Faible fécondité",H39="Calendrier tardif"),"1",IF(AND(G39="Forte fécondité",H39="Calendrier tardif"),"2",IF(AND(H39="Calendrier tardif",G39="Dans la moyenne"),"3",IF(AND(H39="Calendrier précoce",G39="Faible fécondité"),"4",IF(AND(H39="Calendrier précoce",G39="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="174">
+        <v>5</v>
+      </c>
+      <c r="B40" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="122">
+        <v>1.71</v>
+      </c>
+      <c r="D40" s="123">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E40" s="123">
+        <v>30.6</v>
+      </c>
+      <c r="F40" s="133">
+        <v>1157</v>
+      </c>
+      <c r="G40" s="116" t="str">
+        <f>IF(C40&gt;1.9,"Forte fécondité",IF(C40&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H40" s="116" t="str">
+        <f>IF(E40&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I40" s="138" t="str">
+        <f>IF(AND(G40="Faible fécondité",H40="Calendrier tardif"),"1",IF(AND(G40="Forte fécondité",H40="Calendrier tardif"),"2",IF(AND(H40="Calendrier tardif",G40="Dans la moyenne"),"3",IF(AND(H40="Calendrier précoce",G40="Faible fécondité"),"4",IF(AND(H40="Calendrier précoce",G40="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="174">
+        <v>70</v>
+      </c>
+      <c r="B41" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="122">
+        <v>1.76</v>
+      </c>
+      <c r="D41" s="123">
+        <v>67.5</v>
+      </c>
+      <c r="E41" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F41" s="133">
+        <v>5671</v>
+      </c>
+      <c r="G41" s="116" t="str">
+        <f>IF(C41&gt;1.9,"Forte fécondité",IF(C41&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H41" s="116" t="str">
+        <f>IF(E41&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I41" s="138" t="str">
+        <f>IF(AND(G41="Faible fécondité",H41="Calendrier tardif"),"1",IF(AND(G41="Forte fécondité",H41="Calendrier tardif"),"2",IF(AND(H41="Calendrier tardif",G41="Dans la moyenne"),"3",IF(AND(H41="Calendrier précoce",G41="Faible fécondité"),"4",IF(AND(H41="Calendrier précoce",G41="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="174">
+        <v>74</v>
+      </c>
+      <c r="B42" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="122">
+        <v>1.78</v>
+      </c>
+      <c r="D42" s="123">
+        <v>57.3</v>
+      </c>
+      <c r="E42" s="123">
+        <v>30.9</v>
+      </c>
+      <c r="F42" s="133">
+        <v>6175</v>
+      </c>
+      <c r="G42" s="116" t="str">
+        <f>IF(C42&gt;1.9,"Forte fécondité",IF(C42&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H42" s="116" t="str">
+        <f>IF(E42&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I42" s="138" t="str">
+        <f>IF(AND(G42="Faible fécondité",H42="Calendrier tardif"),"1",IF(AND(G42="Forte fécondité",H42="Calendrier tardif"),"2",IF(AND(H42="Calendrier tardif",G42="Dans la moyenne"),"3",IF(AND(H42="Calendrier précoce",G42="Faible fécondité"),"4",IF(AND(H42="Calendrier précoce",G42="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="174">
+        <v>65</v>
+      </c>
+      <c r="B43" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="122">
+        <v>1.75</v>
+      </c>
+      <c r="D43" s="123">
+        <v>72.3</v>
+      </c>
+      <c r="E43" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F43" s="133">
+        <v>7377</v>
+      </c>
+      <c r="G43" s="116" t="str">
+        <f>IF(C43&gt;1.9,"Forte fécondité",IF(C43&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H43" s="116" t="str">
+        <f>IF(E43&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I43" s="138" t="str">
+        <f>IF(AND(G43="Faible fécondité",H43="Calendrier tardif"),"1",IF(AND(G43="Forte fécondité",H43="Calendrier tardif"),"2",IF(AND(H43="Calendrier tardif",G43="Dans la moyenne"),"3",IF(AND(H43="Calendrier précoce",G43="Faible fécondité"),"4",IF(AND(H43="Calendrier précoce",G43="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="174">
+        <v>87</v>
+      </c>
+      <c r="B44" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="122">
+        <v>1.65</v>
+      </c>
+      <c r="D44" s="123">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E44" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F44" s="133">
+        <v>3288</v>
+      </c>
+      <c r="G44" s="116" t="str">
+        <f>IF(C44&gt;1.9,"Forte fécondité",IF(C44&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H44" s="116" t="str">
+        <f>IF(E44&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I44" s="138" t="str">
+        <f>IF(AND(G44="Faible fécondité",H44="Calendrier tardif"),"1",IF(AND(G44="Forte fécondité",H44="Calendrier tardif"),"2",IF(AND(H44="Calendrier tardif",G44="Dans la moyenne"),"3",IF(AND(H44="Calendrier précoce",G44="Faible fécondité"),"4",IF(AND(H44="Calendrier précoce",G44="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="174">
+        <v>68</v>
+      </c>
+      <c r="B45" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="122">
+        <v>1.73</v>
+      </c>
+      <c r="D45" s="123">
+        <v>53.1</v>
+      </c>
+      <c r="E45" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F45" s="133">
+        <v>5843</v>
+      </c>
+      <c r="G45" s="116" t="str">
+        <f>IF(C45&gt;1.9,"Forte fécondité",IF(C45&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H45" s="116" t="str">
+        <f>IF(E45&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I45" s="138" t="str">
+        <f>IF(AND(G45="Faible fécondité",H45="Calendrier tardif"),"1",IF(AND(G45="Forte fécondité",H45="Calendrier tardif"),"2",IF(AND(H45="Calendrier tardif",G45="Dans la moyenne"),"3",IF(AND(H45="Calendrier précoce",G45="Faible fécondité"),"4",IF(AND(H45="Calendrier précoce",G45="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="174">
+        <v>92</v>
+      </c>
+      <c r="B46" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="122">
+        <v>1.74</v>
+      </c>
+      <c r="D46" s="123">
+        <v>41.1</v>
+      </c>
+      <c r="E46" s="123">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F46" s="133">
+        <v>21439</v>
+      </c>
+      <c r="G46" s="116" t="str">
+        <f>IF(C46&gt;1.9,"Forte fécondité",IF(C46&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H46" s="116" t="str">
+        <f>IF(E46&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I46" s="138" t="str">
+        <f>IF(AND(G46="Faible fécondité",H46="Calendrier tardif"),"1",IF(AND(G46="Forte fécondité",H46="Calendrier tardif"),"2",IF(AND(H46="Calendrier tardif",G46="Dans la moyenne"),"3",IF(AND(H46="Calendrier précoce",G46="Faible fécondité"),"4",IF(AND(H46="Calendrier précoce",G46="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="174">
+        <v>34</v>
+      </c>
+      <c r="B47" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="122">
+        <v>1.68</v>
+      </c>
+      <c r="D47" s="123">
+        <v>61.9</v>
+      </c>
+      <c r="E47" s="123">
+        <v>31.3</v>
+      </c>
+      <c r="F47" s="133">
+        <v>3213</v>
+      </c>
+      <c r="G47" s="116" t="str">
+        <f>IF(C47&gt;1.9,"Forte fécondité",IF(C47&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H47" s="116" t="str">
+        <f>IF(E47&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I47" s="138" t="str">
+        <f>IF(AND(G47="Faible fécondité",H47="Calendrier tardif"),"1",IF(AND(G47="Forte fécondité",H47="Calendrier tardif"),"2",IF(AND(H47="Calendrier tardif",G47="Dans la moyenne"),"3",IF(AND(H47="Calendrier précoce",G47="Faible fécondité"),"4",IF(AND(H47="Calendrier précoce",G47="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="174">
+        <v>35</v>
+      </c>
+      <c r="B48" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="D48" s="123">
+        <v>69</v>
+      </c>
+      <c r="E48" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F48" s="133">
+        <v>11548</v>
+      </c>
+      <c r="G48" s="116" t="str">
+        <f>IF(C48&gt;1.9,"Forte fécondité",IF(C48&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H48" s="116" t="str">
+        <f>IF(E48&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I48" s="138" t="str">
+        <f>IF(AND(G48="Faible fécondité",H48="Calendrier tardif"),"1",IF(AND(G48="Forte fécondité",H48="Calendrier tardif"),"2",IF(AND(H48="Calendrier tardif",G48="Dans la moyenne"),"3",IF(AND(H48="Calendrier précoce",G48="Faible fécondité"),"4",IF(AND(H48="Calendrier précoce",G48="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="174">
+        <v>36</v>
+      </c>
+      <c r="B49" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="122">
+        <v>1.79</v>
+      </c>
+      <c r="D49" s="123">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E49" s="123">
+        <v>29.8</v>
+      </c>
+      <c r="F49" s="133">
+        <v>1727</v>
+      </c>
+      <c r="G49" s="116" t="str">
+        <f>IF(C49&gt;1.9,"Forte fécondité",IF(C49&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H49" s="116" t="str">
+        <f>IF(E49&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I49" s="138" t="str">
+        <f>IF(AND(G49="Faible fécondité",H49="Calendrier tardif"),"1",IF(AND(G49="Forte fécondité",H49="Calendrier tardif"),"2",IF(AND(H49="Calendrier tardif",G49="Dans la moyenne"),"3",IF(AND(H49="Calendrier précoce",G49="Faible fécondité"),"4",IF(AND(H49="Calendrier précoce",G49="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="174">
+        <v>37</v>
+      </c>
+      <c r="B50" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="D50" s="123">
+        <v>66</v>
+      </c>
+      <c r="E50" s="123">
+        <v>31</v>
+      </c>
+      <c r="F50" s="133">
+        <v>6020</v>
+      </c>
+      <c r="G50" s="116" t="str">
+        <f>IF(C50&gt;1.9,"Forte fécondité",IF(C50&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H50" s="116" t="str">
+        <f>IF(E50&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I50" s="138" t="str">
+        <f>IF(AND(G50="Faible fécondité",H50="Calendrier tardif"),"1",IF(AND(G50="Forte fécondité",H50="Calendrier tardif"),"2",IF(AND(H50="Calendrier tardif",G50="Dans la moyenne"),"3",IF(AND(H50="Calendrier précoce",G50="Faible fécondité"),"4",IF(AND(H50="Calendrier précoce",G50="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="174">
+        <v>38</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="122">
+        <v>1.83</v>
+      </c>
+      <c r="D51" s="123">
+        <v>58.3</v>
+      </c>
+      <c r="E51" s="123">
+        <v>30.8</v>
+      </c>
+      <c r="F51" s="133">
+        <v>24241</v>
+      </c>
+      <c r="G51" s="116" t="str">
+        <f>IF(C51&gt;1.9,"Forte fécondité",IF(C51&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H51" s="116" t="str">
+        <f>IF(E51&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I51" s="138" t="str">
+        <f>IF(AND(G51="Faible fécondité",H51="Calendrier tardif"),"1",IF(AND(G51="Forte fécondité",H51="Calendrier tardif"),"2",IF(AND(H51="Calendrier tardif",G51="Dans la moyenne"),"3",IF(AND(H51="Calendrier précoce",G51="Faible fécondité"),"4",IF(AND(H51="Calendrier précoce",G51="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="174">
+        <v>39</v>
+      </c>
+      <c r="B52" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="122">
+        <v>1.79</v>
+      </c>
+      <c r="D52" s="123">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E52" s="123">
+        <v>30</v>
+      </c>
+      <c r="F52" s="133">
+        <v>4655</v>
+      </c>
+      <c r="G52" s="116" t="str">
+        <f>IF(C52&gt;1.9,"Forte fécondité",IF(C52&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H52" s="116" t="str">
+        <f>IF(E52&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I52" s="138" t="str">
+        <f>IF(AND(G52="Faible fécondité",H52="Calendrier tardif"),"1",IF(AND(G52="Forte fécondité",H52="Calendrier tardif"),"2",IF(AND(H52="Calendrier tardif",G52="Dans la moyenne"),"3",IF(AND(H52="Calendrier précoce",G52="Faible fécondité"),"4",IF(AND(H52="Calendrier précoce",G52="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="174">
+        <v>40</v>
+      </c>
+      <c r="B53" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="122">
+        <v>1.73</v>
+      </c>
+      <c r="D53" s="123">
+        <v>74.5</v>
+      </c>
+      <c r="E53" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F53" s="133">
+        <v>4941</v>
+      </c>
+      <c r="G53" s="116" t="str">
+        <f>IF(C53&gt;1.9,"Forte fécondité",IF(C53&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H53" s="116" t="str">
+        <f>IF(E53&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I53" s="138" t="str">
+        <f>IF(AND(G53="Faible fécondité",H53="Calendrier tardif"),"1",IF(AND(G53="Forte fécondité",H53="Calendrier tardif"),"2",IF(AND(H53="Calendrier tardif",G53="Dans la moyenne"),"3",IF(AND(H53="Calendrier précoce",G53="Faible fécondité"),"4",IF(AND(H53="Calendrier précoce",G53="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="174">
+        <v>42</v>
+      </c>
+      <c r="B54" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="122">
+        <v>1.94</v>
+      </c>
+      <c r="D54" s="123">
+        <v>58.1</v>
+      </c>
+      <c r="E54" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F54" s="133">
+        <v>4273</v>
+      </c>
+      <c r="G54" s="116" t="str">
+        <f>IF(C54&gt;1.9,"Forte fécondité",IF(C54&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H54" s="116" t="str">
+        <f>IF(E54&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I54" s="138" t="str">
+        <f>IF(AND(G54="Faible fécondité",H54="Calendrier tardif"),"1",IF(AND(G54="Forte fécondité",H54="Calendrier tardif"),"2",IF(AND(H54="Calendrier tardif",G54="Dans la moyenne"),"3",IF(AND(H54="Calendrier précoce",G54="Faible fécondité"),"4",IF(AND(H54="Calendrier précoce",G54="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="174">
+        <v>44</v>
+      </c>
+      <c r="B55" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D55" s="123">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="E55" s="123">
+        <v>31.1</v>
+      </c>
+      <c r="F55" s="133">
+        <v>16159</v>
+      </c>
+      <c r="G55" s="116" t="str">
+        <f>IF(C55&gt;1.9,"Forte fécondité",IF(C55&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H55" s="116" t="str">
+        <f>IF(E55&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I55" s="138" t="str">
+        <f>IF(AND(G55="Faible fécondité",H55="Calendrier tardif"),"1",IF(AND(G55="Forte fécondité",H55="Calendrier tardif"),"2",IF(AND(H55="Calendrier tardif",G55="Dans la moyenne"),"3",IF(AND(H55="Calendrier précoce",G55="Faible fécondité"),"4",IF(AND(H55="Calendrier précoce",G55="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="174">
+        <v>45</v>
+      </c>
+      <c r="B56" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="122">
+        <v>1.95</v>
+      </c>
+      <c r="D56" s="123">
+        <v>62.1</v>
+      </c>
+      <c r="E56" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F56" s="133">
+        <v>7615</v>
+      </c>
+      <c r="G56" s="116" t="str">
+        <f>IF(C56&gt;1.9,"Forte fécondité",IF(C56&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H56" s="116" t="str">
+        <f>IF(E56&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I56" s="138" t="str">
+        <f>IF(AND(G56="Faible fécondité",H56="Calendrier tardif"),"1",IF(AND(G56="Forte fécondité",H56="Calendrier tardif"),"2",IF(AND(H56="Calendrier tardif",G56="Dans la moyenne"),"3",IF(AND(H56="Calendrier précoce",G56="Faible fécondité"),"4",IF(AND(H56="Calendrier précoce",G56="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="174">
+        <v>41</v>
+      </c>
+      <c r="B57" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="122">
+        <v>1.89</v>
+      </c>
+      <c r="D57" s="123">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E57" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F57" s="133">
+        <v>2935</v>
+      </c>
+      <c r="G57" s="116" t="str">
+        <f>IF(C57&gt;1.9,"Forte fécondité",IF(C57&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H57" s="116" t="str">
+        <f>IF(E57&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I57" s="138" t="str">
+        <f>IF(AND(G57="Faible fécondité",H57="Calendrier tardif"),"1",IF(AND(G57="Forte fécondité",H57="Calendrier tardif"),"2",IF(AND(H57="Calendrier tardif",G57="Dans la moyenne"),"3",IF(AND(H57="Calendrier précoce",G57="Faible fécondité"),"4",IF(AND(H57="Calendrier précoce",G57="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="174">
+        <v>46</v>
+      </c>
+      <c r="B58" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="122">
+        <v>1.69</v>
+      </c>
+      <c r="D58" s="123">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E58" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F58" s="133">
+        <v>2449</v>
+      </c>
+      <c r="G58" s="116" t="str">
+        <f>IF(C58&gt;1.9,"Forte fécondité",IF(C58&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H58" s="116" t="str">
+        <f>IF(E58&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I58" s="138" t="str">
+        <f>IF(AND(G58="Faible fécondité",H58="Calendrier tardif"),"1",IF(AND(G58="Forte fécondité",H58="Calendrier tardif"),"2",IF(AND(H58="Calendrier tardif",G58="Dans la moyenne"),"3",IF(AND(H58="Calendrier précoce",G58="Faible fécondité"),"4",IF(AND(H58="Calendrier précoce",G58="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="174">
+        <v>47</v>
+      </c>
+      <c r="B59" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="122">
+        <v>1.83</v>
+      </c>
+      <c r="D59" s="123">
+        <v>68</v>
+      </c>
+      <c r="E59" s="123">
+        <v>30.1</v>
+      </c>
+      <c r="F59" s="133">
+        <v>3146</v>
+      </c>
+      <c r="G59" s="116" t="str">
+        <f>IF(C59&gt;1.9,"Forte fécondité",IF(C59&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H59" s="116" t="str">
+        <f>IF(E59&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I59" s="138" t="str">
+        <f>IF(AND(G59="Faible fécondité",H59="Calendrier tardif"),"1",IF(AND(G59="Forte fécondité",H59="Calendrier tardif"),"2",IF(AND(H59="Calendrier tardif",G59="Dans la moyenne"),"3",IF(AND(H59="Calendrier précoce",G59="Faible fécondité"),"4",IF(AND(H59="Calendrier précoce",G59="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="174">
+        <v>48</v>
+      </c>
+      <c r="B60" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="122">
         <v>1.46</v>
       </c>
-      <c r="C2" s="123">
+      <c r="D60" s="123">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E60" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F60" s="133">
+        <v>3237</v>
+      </c>
+      <c r="G60" s="116" t="str">
+        <f>IF(C60&gt;1.9,"Forte fécondité",IF(C60&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H60" s="116" t="str">
+        <f>IF(E60&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I60" s="138" t="str">
+        <f>IF(AND(G60="Faible fécondité",H60="Calendrier tardif"),"1",IF(AND(G60="Forte fécondité",H60="Calendrier tardif"),"2",IF(AND(H60="Calendrier tardif",G60="Dans la moyenne"),"3",IF(AND(H60="Calendrier précoce",G60="Faible fécondité"),"4",IF(AND(H60="Calendrier précoce",G60="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="174">
+        <v>49</v>
+      </c>
+      <c r="B61" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="122">
+        <v>1.81</v>
+      </c>
+      <c r="D61" s="123">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E61" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F61" s="133">
+        <v>8384</v>
+      </c>
+      <c r="G61" s="116" t="str">
+        <f>IF(C61&gt;1.9,"Forte fécondité",IF(C61&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H61" s="116" t="str">
+        <f>IF(E61&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I61" s="138" t="str">
+        <f>IF(AND(G61="Faible fécondité",H61="Calendrier tardif"),"1",IF(AND(G61="Forte fécondité",H61="Calendrier tardif"),"2",IF(AND(H61="Calendrier tardif",G61="Dans la moyenne"),"3",IF(AND(H61="Calendrier précoce",G61="Faible fécondité"),"4",IF(AND(H61="Calendrier précoce",G61="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="174">
+        <v>50</v>
+      </c>
+      <c r="B62" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="122">
+        <v>1.79</v>
+      </c>
+      <c r="D62" s="123">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E62" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F62" s="133">
+        <v>6552</v>
+      </c>
+      <c r="G62" s="116" t="str">
+        <f>IF(C62&gt;1.9,"Forte fécondité",IF(C62&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H62" s="116" t="str">
+        <f>IF(E62&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I62" s="138" t="str">
+        <f>IF(AND(G62="Faible fécondité",H62="Calendrier tardif"),"1",IF(AND(G62="Forte fécondité",H62="Calendrier tardif"),"2",IF(AND(H62="Calendrier tardif",G62="Dans la moyenne"),"3",IF(AND(H62="Calendrier précoce",G62="Faible fécondité"),"4",IF(AND(H62="Calendrier précoce",G62="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="174">
+        <v>51</v>
+      </c>
+      <c r="B63" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="122">
+        <v>1.7</v>
+      </c>
+      <c r="D63" s="123">
+        <v>67.2</v>
+      </c>
+      <c r="E63" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F63" s="133">
+        <v>9697</v>
+      </c>
+      <c r="G63" s="116" t="str">
+        <f>IF(C63&gt;1.9,"Forte fécondité",IF(C63&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H63" s="116" t="str">
+        <f>IF(E63&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I63" s="138" t="str">
+        <f>IF(AND(G63="Faible fécondité",H63="Calendrier tardif"),"1",IF(AND(G63="Forte fécondité",H63="Calendrier tardif"),"2",IF(AND(H63="Calendrier tardif",G63="Dans la moyenne"),"3",IF(AND(H63="Calendrier précoce",G63="Faible fécondité"),"4",IF(AND(H63="Calendrier précoce",G63="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="174">
+        <v>53</v>
+      </c>
+      <c r="B64" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="122">
+        <v>1.98</v>
+      </c>
+      <c r="D64" s="123">
+        <v>73.3</v>
+      </c>
+      <c r="E64" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F64" s="133">
+        <v>2968</v>
+      </c>
+      <c r="G64" s="116" t="str">
+        <f>IF(C64&gt;1.9,"Forte fécondité",IF(C64&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H64" s="116" t="str">
+        <f>IF(E64&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I64" s="138" t="str">
+        <f>IF(AND(G64="Faible fécondité",H64="Calendrier tardif"),"1",IF(AND(G64="Forte fécondité",H64="Calendrier tardif"),"2",IF(AND(H64="Calendrier tardif",G64="Dans la moyenne"),"3",IF(AND(H64="Calendrier précoce",G64="Faible fécondité"),"4",IF(AND(H64="Calendrier précoce",G64="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="174">
+        <v>54</v>
+      </c>
+      <c r="B65" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="122">
+        <v>1.51</v>
+      </c>
+      <c r="D65" s="123">
+        <v>64.3</v>
+      </c>
+      <c r="E65" s="123">
+        <v>30.7</v>
+      </c>
+      <c r="F65" s="133">
+        <v>11797</v>
+      </c>
+      <c r="G65" s="116" t="str">
+        <f>IF(C65&gt;1.9,"Forte fécondité",IF(C65&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H65" s="116" t="str">
+        <f>IF(E65&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I65" s="138" t="str">
+        <f>IF(AND(G65="Faible fécondité",H65="Calendrier tardif"),"1",IF(AND(G65="Forte fécondité",H65="Calendrier tardif"),"2",IF(AND(H65="Calendrier tardif",G65="Dans la moyenne"),"3",IF(AND(H65="Calendrier précoce",G65="Faible fécondité"),"4",IF(AND(H65="Calendrier précoce",G65="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="174">
+        <v>55</v>
+      </c>
+      <c r="B66" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="122">
+        <v>1.71</v>
+      </c>
+      <c r="D66" s="123">
+        <v>74.3</v>
+      </c>
+      <c r="E66" s="123">
+        <v>29.1</v>
+      </c>
+      <c r="F66" s="133">
+        <v>7536</v>
+      </c>
+      <c r="G66" s="116" t="str">
+        <f>IF(C66&gt;1.9,"Forte fécondité",IF(C66&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H66" s="116" t="str">
+        <f>IF(E66&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I66" s="138" t="str">
+        <f>IF(AND(G66="Faible fécondité",H66="Calendrier tardif"),"1",IF(AND(G66="Forte fécondité",H66="Calendrier tardif"),"2",IF(AND(H66="Calendrier tardif",G66="Dans la moyenne"),"3",IF(AND(H66="Calendrier précoce",G66="Faible fécondité"),"4",IF(AND(H66="Calendrier précoce",G66="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="174">
+        <v>56</v>
+      </c>
+      <c r="B67" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D67" s="123">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E67" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F67" s="133">
+        <v>6478</v>
+      </c>
+      <c r="G67" s="116" t="str">
+        <f>IF(C67&gt;1.9,"Forte fécondité",IF(C67&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H67" s="116" t="str">
+        <f>IF(E67&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I67" s="138" t="str">
+        <f>IF(AND(G67="Faible fécondité",H67="Calendrier tardif"),"1",IF(AND(G67="Forte fécondité",H67="Calendrier tardif"),"2",IF(AND(H67="Calendrier tardif",G67="Dans la moyenne"),"3",IF(AND(H67="Calendrier précoce",G67="Faible fécondité"),"4",IF(AND(H67="Calendrier précoce",G67="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="174">
+        <v>57</v>
+      </c>
+      <c r="B68" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="122">
+        <v>1.58</v>
+      </c>
+      <c r="D68" s="123">
+        <v>57.3</v>
+      </c>
+      <c r="E68" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F68" s="133">
+        <v>2458</v>
+      </c>
+      <c r="G68" s="116" t="str">
+        <f>IF(C68&gt;1.9,"Forte fécondité",IF(C68&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H68" s="116" t="str">
+        <f>IF(E68&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I68" s="138" t="str">
+        <f>IF(AND(G68="Faible fécondité",H68="Calendrier tardif"),"1",IF(AND(G68="Forte fécondité",H68="Calendrier tardif"),"2",IF(AND(H68="Calendrier tardif",G68="Dans la moyenne"),"3",IF(AND(H68="Calendrier précoce",G68="Faible fécondité"),"4",IF(AND(H68="Calendrier précoce",G68="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="174">
+        <v>58</v>
+      </c>
+      <c r="B69" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="122">
+        <v>1.74</v>
+      </c>
+      <c r="D69" s="123">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E69" s="123">
+        <v>29.3</v>
+      </c>
+      <c r="F69" s="133">
+        <v>3104</v>
+      </c>
+      <c r="G69" s="116" t="str">
+        <f>IF(C69&gt;1.9,"Forte fécondité",IF(C69&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H69" s="116" t="str">
+        <f>IF(E69&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I69" s="138" t="str">
+        <f>IF(AND(G69="Faible fécondité",H69="Calendrier tardif"),"1",IF(AND(G69="Forte fécondité",H69="Calendrier tardif"),"2",IF(AND(H69="Calendrier tardif",G69="Dans la moyenne"),"3",IF(AND(H69="Calendrier précoce",G69="Faible fécondité"),"4",IF(AND(H69="Calendrier précoce",G69="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="174">
+        <v>59</v>
+      </c>
+      <c r="B70" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D70" s="123">
+        <v>62.2</v>
+      </c>
+      <c r="E70" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F70" s="133">
+        <v>15261</v>
+      </c>
+      <c r="G70" s="116" t="str">
+        <f>IF(C70&gt;1.9,"Forte fécondité",IF(C70&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H70" s="116" t="str">
+        <f>IF(E70&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I70" s="138" t="str">
+        <f>IF(AND(G70="Faible fécondité",H70="Calendrier tardif"),"1",IF(AND(G70="Forte fécondité",H70="Calendrier tardif"),"2",IF(AND(H70="Calendrier tardif",G70="Dans la moyenne"),"3",IF(AND(H70="Calendrier précoce",G70="Faible fécondité"),"4",IF(AND(H70="Calendrier précoce",G70="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="174">
+        <v>60</v>
+      </c>
+      <c r="B71" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="122">
+        <v>1.91</v>
+      </c>
+      <c r="D71" s="123">
+        <v>62.8</v>
+      </c>
+      <c r="E71" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F71" s="133">
+        <v>5338</v>
+      </c>
+      <c r="G71" s="116" t="str">
+        <f>IF(C71&gt;1.9,"Forte fécondité",IF(C71&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H71" s="116" t="str">
+        <f>IF(E71&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I71" s="138" t="str">
+        <f>IF(AND(G71="Faible fécondité",H71="Calendrier tardif"),"1",IF(AND(G71="Forte fécondité",H71="Calendrier tardif"),"2",IF(AND(H71="Calendrier tardif",G71="Dans la moyenne"),"3",IF(AND(H71="Calendrier précoce",G71="Faible fécondité"),"4",IF(AND(H71="Calendrier précoce",G71="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="174">
+        <v>61</v>
+      </c>
+      <c r="B72" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="122">
+        <v>1.84</v>
+      </c>
+      <c r="D72" s="123">
+        <v>73.8</v>
+      </c>
+      <c r="E72" s="123">
+        <v>29.5</v>
+      </c>
+      <c r="F72" s="133">
+        <v>4257</v>
+      </c>
+      <c r="G72" s="116" t="str">
+        <f>IF(C72&gt;1.9,"Forte fécondité",IF(C72&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H72" s="116" t="str">
+        <f>IF(E72&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I72" s="138" t="str">
+        <f>IF(AND(G72="Faible fécondité",H72="Calendrier tardif"),"1",IF(AND(G72="Forte fécondité",H72="Calendrier tardif"),"2",IF(AND(H72="Calendrier tardif",G72="Dans la moyenne"),"3",IF(AND(H72="Calendrier précoce",G72="Faible fécondité"),"4",IF(AND(H72="Calendrier précoce",G72="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="174">
+        <v>75</v>
+      </c>
+      <c r="B73" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="122">
+        <v>1.46</v>
+      </c>
+      <c r="D73" s="123">
         <v>48.8</v>
       </c>
-      <c r="D2" s="123">
+      <c r="E73" s="123">
         <v>34</v>
       </c>
-      <c r="E2" s="133">
+      <c r="F73" s="133">
         <v>26157</v>
       </c>
-      <c r="F2" s="116">
-        <f>E2*10</f>
-        <v>261570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="G73" s="116" t="str">
+        <f>IF(C73&gt;1.9,"Forte fécondité",IF(C73&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H73" s="116" t="str">
+        <f>IF(E73&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I73" s="138" t="str">
+        <f>IF(AND(G73="Faible fécondité",H73="Calendrier tardif"),"1",IF(AND(G73="Forte fécondité",H73="Calendrier tardif"),"2",IF(AND(H73="Calendrier tardif",G73="Dans la moyenne"),"3",IF(AND(H73="Calendrier précoce",G73="Faible fécondité"),"4",IF(AND(H73="Calendrier précoce",G73="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="174">
+        <v>62</v>
+      </c>
+      <c r="B74" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="122">
+        <v>1.86</v>
+      </c>
+      <c r="D74" s="123">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E74" s="123">
+        <v>29.3</v>
+      </c>
+      <c r="F74" s="133">
+        <v>9319</v>
+      </c>
+      <c r="G74" s="116" t="str">
+        <f>IF(C74&gt;1.9,"Forte fécondité",IF(C74&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H74" s="116" t="str">
+        <f>IF(E74&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I74" s="138" t="str">
+        <f>IF(AND(G74="Faible fécondité",H74="Calendrier tardif"),"1",IF(AND(G74="Forte fécondité",H74="Calendrier tardif"),"2",IF(AND(H74="Calendrier tardif",G74="Dans la moyenne"),"3",IF(AND(H74="Calendrier précoce",G74="Faible fécondité"),"4",IF(AND(H74="Calendrier précoce",G74="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="174">
+        <v>63</v>
+      </c>
+      <c r="B75" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="122">
+        <v>1.62</v>
+      </c>
+      <c r="D75" s="123">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E75" s="123">
+        <v>30.8</v>
+      </c>
+      <c r="F75" s="133">
+        <v>2594</v>
+      </c>
+      <c r="G75" s="116" t="str">
+        <f>IF(C75&gt;1.9,"Forte fécondité",IF(C75&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H75" s="116" t="str">
+        <f>IF(E75&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I75" s="138" t="str">
+        <f>IF(AND(G75="Faible fécondité",H75="Calendrier tardif"),"1",IF(AND(G75="Forte fécondité",H75="Calendrier tardif"),"2",IF(AND(H75="Calendrier tardif",G75="Dans la moyenne"),"3",IF(AND(H75="Calendrier précoce",G75="Faible fécondité"),"4",IF(AND(H75="Calendrier précoce",G75="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="174">
+        <v>64</v>
+      </c>
+      <c r="B76" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="122">
+        <v>1.62</v>
+      </c>
+      <c r="D76" s="123">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E76" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F76" s="133">
+        <v>4039</v>
+      </c>
+      <c r="G76" s="116" t="str">
+        <f>IF(C76&gt;1.9,"Forte fécondité",IF(C76&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H76" s="116" t="str">
+        <f>IF(E76&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I76" s="138" t="str">
+        <f>IF(AND(G76="Faible fécondité",H76="Calendrier tardif"),"1",IF(AND(G76="Forte fécondité",H76="Calendrier tardif"),"2",IF(AND(H76="Calendrier tardif",G76="Dans la moyenne"),"3",IF(AND(H76="Calendrier précoce",G76="Faible fécondité"),"4",IF(AND(H76="Calendrier précoce",G76="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="174">
+        <v>66</v>
+      </c>
+      <c r="B77" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D77" s="123">
+        <v>72.3</v>
+      </c>
+      <c r="E77" s="123">
+        <v>30</v>
+      </c>
+      <c r="F77" s="133">
+        <v>12411</v>
+      </c>
+      <c r="G77" s="116" t="str">
+        <f>IF(C77&gt;1.9,"Forte fécondité",IF(C77&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H77" s="116" t="str">
+        <f>IF(E77&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I77" s="138" t="str">
+        <f>IF(AND(G77="Faible fécondité",H77="Calendrier tardif"),"1",IF(AND(G77="Forte fécondité",H77="Calendrier tardif"),"2",IF(AND(H77="Calendrier tardif",G77="Dans la moyenne"),"3",IF(AND(H77="Calendrier précoce",G77="Faible fécondité"),"4",IF(AND(H77="Calendrier précoce",G77="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="174">
+        <v>69</v>
+      </c>
+      <c r="B78" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="122">
+        <v>1.81</v>
+      </c>
+      <c r="D78" s="123">
+        <v>50</v>
+      </c>
+      <c r="E78" s="123">
+        <v>31.9</v>
+      </c>
+      <c r="F78" s="133">
+        <v>1029</v>
+      </c>
+      <c r="G78" s="116" t="str">
+        <f>IF(C78&gt;1.9,"Forte fécondité",IF(C78&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H78" s="116" t="str">
+        <f>IF(E78&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I78" s="138" t="str">
+        <f>IF(AND(G78="Faible fécondité",H78="Calendrier tardif"),"1",IF(AND(G78="Forte fécondité",H78="Calendrier tardif"),"2",IF(AND(H78="Calendrier tardif",G78="Dans la moyenne"),"3",IF(AND(H78="Calendrier précoce",G78="Faible fécondité"),"4",IF(AND(H78="Calendrier précoce",G78="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="174">
+        <v>71</v>
+      </c>
+      <c r="B79" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="122">
+        <v>1.84</v>
+      </c>
+      <c r="D79" s="123">
+        <v>65.7</v>
+      </c>
+      <c r="E79" s="123">
+        <v>29.8</v>
+      </c>
+      <c r="F79" s="133">
+        <v>2244</v>
+      </c>
+      <c r="G79" s="116" t="str">
+        <f>IF(C79&gt;1.9,"Forte fécondité",IF(C79&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H79" s="116" t="str">
+        <f>IF(E79&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I79" s="138" t="str">
+        <f>IF(AND(G79="Faible fécondité",H79="Calendrier tardif"),"1",IF(AND(G79="Forte fécondité",H79="Calendrier tardif"),"2",IF(AND(H79="Calendrier tardif",G79="Dans la moyenne"),"3",IF(AND(H79="Calendrier précoce",G79="Faible fécondité"),"4",IF(AND(H79="Calendrier précoce",G79="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="174">
+        <v>72</v>
+      </c>
+      <c r="B80" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="122">
+        <v>1.87</v>
+      </c>
+      <c r="D80" s="123">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E80" s="123">
+        <v>29.9</v>
+      </c>
+      <c r="F80" s="133">
+        <v>5547</v>
+      </c>
+      <c r="G80" s="116" t="str">
+        <f>IF(C80&gt;1.9,"Forte fécondité",IF(C80&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H80" s="116" t="str">
+        <f>IF(E80&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I80" s="138" t="str">
+        <f>IF(AND(G80="Faible fécondité",H80="Calendrier tardif"),"1",IF(AND(G80="Forte fécondité",H80="Calendrier tardif"),"2",IF(AND(H80="Calendrier tardif",G80="Dans la moyenne"),"3",IF(AND(H80="Calendrier précoce",G80="Faible fécondité"),"4",IF(AND(H80="Calendrier précoce",G80="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="174">
+        <v>73</v>
+      </c>
+      <c r="B81" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="122">
+        <v>1.72</v>
+      </c>
+      <c r="D81" s="123">
+        <v>62.6</v>
+      </c>
+      <c r="E81" s="123">
+        <v>30.9</v>
+      </c>
+      <c r="F81" s="133">
+        <v>1893</v>
+      </c>
+      <c r="G81" s="116" t="str">
+        <f>IF(C81&gt;1.9,"Forte fécondité",IF(C81&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H81" s="116" t="str">
+        <f>IF(E81&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I81" s="138" t="str">
+        <f>IF(AND(G81="Faible fécondité",H81="Calendrier tardif"),"1",IF(AND(G81="Forte fécondité",H81="Calendrier tardif"),"2",IF(AND(H81="Calendrier tardif",G81="Dans la moyenne"),"3",IF(AND(H81="Calendrier précoce",G81="Faible fécondité"),"4",IF(AND(H81="Calendrier précoce",G81="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="174">
+        <v>77</v>
+      </c>
+      <c r="B82" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="122">
+      <c r="C82" s="122">
         <v>1.96</v>
       </c>
-      <c r="C3" s="123">
+      <c r="D82" s="123">
         <v>59.6</v>
       </c>
-      <c r="D3" s="123">
+      <c r="E82" s="123">
         <v>31</v>
       </c>
-      <c r="E3" s="133">
+      <c r="F82" s="133">
         <v>18212</v>
       </c>
-      <c r="F3" s="116">
-        <f t="shared" ref="F3:F66" si="0">E3*10</f>
-        <v>182120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
+      <c r="G82" s="116" t="str">
+        <f>IF(C82&gt;1.9,"Forte fécondité",IF(C82&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H82" s="116" t="str">
+        <f>IF(E82&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I82" s="138" t="str">
+        <f>IF(AND(G82="Faible fécondité",H82="Calendrier tardif"),"1",IF(AND(G82="Forte fécondité",H82="Calendrier tardif"),"2",IF(AND(H82="Calendrier tardif",G82="Dans la moyenne"),"3",IF(AND(H82="Calendrier précoce",G82="Faible fécondité"),"4",IF(AND(H82="Calendrier précoce",G82="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="174">
+        <v>76</v>
+      </c>
+      <c r="B83" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="122">
+        <v>1.8</v>
+      </c>
+      <c r="D83" s="123">
+        <v>66.7</v>
+      </c>
+      <c r="E83" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F83" s="133">
+        <v>2324</v>
+      </c>
+      <c r="G83" s="116" t="str">
+        <f>IF(C83&gt;1.9,"Forte fécondité",IF(C83&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H83" s="116" t="str">
+        <f>IF(E83&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I83" s="138" t="str">
+        <f>IF(AND(G83="Faible fécondité",H83="Calendrier tardif"),"1",IF(AND(G83="Forte fécondité",H83="Calendrier tardif"),"2",IF(AND(H83="Calendrier tardif",G83="Dans la moyenne"),"3",IF(AND(H83="Calendrier précoce",G83="Faible fécondité"),"4",IF(AND(H83="Calendrier précoce",G83="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="174">
+        <v>93</v>
+      </c>
+      <c r="B84" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="122">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D84" s="123">
+        <v>46</v>
+      </c>
+      <c r="E84" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F84" s="133">
+        <v>27583</v>
+      </c>
+      <c r="G84" s="116" t="str">
+        <f>IF(C84&gt;1.9,"Forte fécondité",IF(C84&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H84" s="116" t="str">
+        <f>IF(E84&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I84" s="138" t="str">
+        <f>IF(AND(G84="Faible fécondité",H84="Calendrier tardif"),"1",IF(AND(G84="Forte fécondité",H84="Calendrier tardif"),"2",IF(AND(H84="Calendrier tardif",G84="Dans la moyenne"),"3",IF(AND(H84="Calendrier précoce",G84="Faible fécondité"),"4",IF(AND(H84="Calendrier précoce",G84="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="174">
+        <v>80</v>
+      </c>
+      <c r="B85" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="122">
+        <v>1.63</v>
+      </c>
+      <c r="D85" s="123">
+        <v>72.5</v>
+      </c>
+      <c r="E85" s="123">
+        <v>30</v>
+      </c>
+      <c r="F85" s="133">
+        <v>5433</v>
+      </c>
+      <c r="G85" s="116" t="str">
+        <f>IF(C85&gt;1.9,"Forte fécondité",IF(C85&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H85" s="116" t="str">
+        <f>IF(E85&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I85" s="138" t="str">
+        <f>IF(AND(G85="Faible fécondité",H85="Calendrier tardif"),"1",IF(AND(G85="Forte fécondité",H85="Calendrier tardif"),"2",IF(AND(H85="Calendrier tardif",G85="Dans la moyenne"),"3",IF(AND(H85="Calendrier précoce",G85="Faible fécondité"),"4",IF(AND(H85="Calendrier précoce",G85="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="174">
+        <v>81</v>
+      </c>
+      <c r="B86" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="122">
+        <v>1.72</v>
+      </c>
+      <c r="D86" s="123">
+        <v>71.3</v>
+      </c>
+      <c r="E86" s="123">
+        <v>30.4</v>
+      </c>
+      <c r="F86" s="133">
+        <v>525</v>
+      </c>
+      <c r="G86" s="116" t="str">
+        <f>IF(C86&gt;1.9,"Forte fécondité",IF(C86&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H86" s="116" t="str">
+        <f>IF(E86&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I86" s="138" t="str">
+        <f>IF(AND(G86="Faible fécondité",H86="Calendrier tardif"),"1",IF(AND(G86="Forte fécondité",H86="Calendrier tardif"),"2",IF(AND(H86="Calendrier tardif",G86="Dans la moyenne"),"3",IF(AND(H86="Calendrier précoce",G86="Faible fécondité"),"4",IF(AND(H86="Calendrier précoce",G86="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="174">
+        <v>82</v>
+      </c>
+      <c r="B87" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="122">
+        <v>1.89</v>
+      </c>
+      <c r="D87" s="123">
+        <v>67.3</v>
+      </c>
+      <c r="E87" s="123">
+        <v>29.7</v>
+      </c>
+      <c r="F87" s="133">
+        <v>4329</v>
+      </c>
+      <c r="G87" s="116" t="str">
+        <f>IF(C87&gt;1.9,"Forte fécondité",IF(C87&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H87" s="116" t="str">
+        <f>IF(E87&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I87" s="138" t="str">
+        <f>IF(AND(G87="Faible fécondité",H87="Calendrier tardif"),"1",IF(AND(G87="Forte fécondité",H87="Calendrier tardif"),"2",IF(AND(H87="Calendrier tardif",G87="Dans la moyenne"),"3",IF(AND(H87="Calendrier précoce",G87="Faible fécondité"),"4",IF(AND(H87="Calendrier précoce",G87="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="174">
+        <v>90</v>
+      </c>
+      <c r="B88" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="122">
+        <v>1.81</v>
+      </c>
+      <c r="D88" s="123">
+        <v>54.9</v>
+      </c>
+      <c r="E88" s="123">
+        <v>30.3</v>
+      </c>
+      <c r="F88" s="133">
+        <v>1385</v>
+      </c>
+      <c r="G88" s="116" t="str">
+        <f>IF(C88&gt;1.9,"Forte fécondité",IF(C88&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H88" s="116" t="str">
+        <f>IF(E88&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I88" s="138" t="str">
+        <f>IF(AND(G88="Faible fécondité",H88="Calendrier tardif"),"1",IF(AND(G88="Forte fécondité",H88="Calendrier tardif"),"2",IF(AND(H88="Calendrier tardif",G88="Dans la moyenne"),"3",IF(AND(H88="Calendrier précoce",G88="Faible fécondité"),"4",IF(AND(H88="Calendrier précoce",G88="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="174">
+        <v>94</v>
+      </c>
+      <c r="B89" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="122">
+        <v>1.9</v>
+      </c>
+      <c r="D89" s="123">
+        <v>48.3</v>
+      </c>
+      <c r="E89" s="123">
+        <v>32</v>
+      </c>
+      <c r="F89" s="133">
+        <v>19553</v>
+      </c>
+      <c r="G89" s="116" t="str">
+        <f>IF(C89&gt;1.9,"Forte fécondité",IF(C89&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H89" s="116" t="str">
+        <f>IF(E89&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I89" s="138" t="str">
+        <f>IF(AND(G89="Faible fécondité",H89="Calendrier tardif"),"1",IF(AND(G89="Forte fécondité",H89="Calendrier tardif"),"2",IF(AND(H89="Calendrier tardif",G89="Dans la moyenne"),"3",IF(AND(H89="Calendrier précoce",G89="Faible fécondité"),"4",IF(AND(H89="Calendrier précoce",G89="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="174">
+        <v>95</v>
+      </c>
+      <c r="B90" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="122">
+        <v>2.23</v>
+      </c>
+      <c r="D90" s="123">
+        <v>47.3</v>
+      </c>
+      <c r="E90" s="123">
+        <v>31.2</v>
+      </c>
+      <c r="F90" s="133">
+        <v>19012</v>
+      </c>
+      <c r="G90" s="116" t="str">
+        <f>IF(C90&gt;1.9,"Forte fécondité",IF(C90&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H90" s="116" t="str">
+        <f>IF(E90&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I90" s="138" t="str">
+        <f>IF(AND(G90="Faible fécondité",H90="Calendrier tardif"),"1",IF(AND(G90="Forte fécondité",H90="Calendrier tardif"),"2",IF(AND(H90="Calendrier tardif",G90="Dans la moyenne"),"3",IF(AND(H90="Calendrier précoce",G90="Faible fécondité"),"4",IF(AND(H90="Calendrier précoce",G90="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="174">
+        <v>83</v>
+      </c>
+      <c r="B91" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="122">
+        <v>1.87</v>
+      </c>
+      <c r="D91" s="123">
+        <v>63</v>
+      </c>
+      <c r="E91" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F91" s="133">
+        <v>10282</v>
+      </c>
+      <c r="G91" s="116" t="str">
+        <f>IF(C91&gt;1.9,"Forte fécondité",IF(C91&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H91" s="116" t="str">
+        <f>IF(E91&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I91" s="138" t="str">
+        <f>IF(AND(G91="Faible fécondité",H91="Calendrier tardif"),"1",IF(AND(G91="Forte fécondité",H91="Calendrier tardif"),"2",IF(AND(H91="Calendrier tardif",G91="Dans la moyenne"),"3",IF(AND(H91="Calendrier précoce",G91="Faible fécondité"),"4",IF(AND(H91="Calendrier précoce",G91="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="174">
+        <v>84</v>
+      </c>
+      <c r="B92" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="122">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D92" s="123">
+        <v>55.7</v>
+      </c>
+      <c r="E92" s="123">
+        <v>30.2</v>
+      </c>
+      <c r="F92" s="133">
+        <v>6231</v>
+      </c>
+      <c r="G92" s="116" t="str">
+        <f>IF(C92&gt;1.9,"Forte fécondité",IF(C92&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H92" s="116" t="str">
+        <f>IF(E92&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I92" s="138" t="str">
+        <f>IF(AND(G92="Faible fécondité",H92="Calendrier tardif"),"1",IF(AND(G92="Forte fécondité",H92="Calendrier tardif"),"2",IF(AND(H92="Calendrier tardif",G92="Dans la moyenne"),"3",IF(AND(H92="Calendrier précoce",G92="Faible fécondité"),"4",IF(AND(H92="Calendrier précoce",G92="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="174">
+        <v>85</v>
+      </c>
+      <c r="B93" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="122">
+        <v>1.82</v>
+      </c>
+      <c r="D93" s="123">
+        <v>74.2</v>
+      </c>
+      <c r="E93" s="123">
+        <v>30</v>
+      </c>
+      <c r="F93" s="133">
+        <v>5916</v>
+      </c>
+      <c r="G93" s="116" t="str">
+        <f>IF(C93&gt;1.9,"Forte fécondité",IF(C93&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H93" s="116" t="str">
+        <f>IF(E93&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I93" s="138" t="str">
+        <f>IF(AND(G93="Faible fécondité",H93="Calendrier tardif"),"1",IF(AND(G93="Forte fécondité",H93="Calendrier tardif"),"2",IF(AND(H93="Calendrier tardif",G93="Dans la moyenne"),"3",IF(AND(H93="Calendrier précoce",G93="Faible fécondité"),"4",IF(AND(H93="Calendrier précoce",G93="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="174">
+        <v>86</v>
+      </c>
+      <c r="B94" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="122">
+        <v>1.6</v>
+      </c>
+      <c r="D94" s="123">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E94" s="123">
+        <v>30.5</v>
+      </c>
+      <c r="F94" s="133">
+        <v>758</v>
+      </c>
+      <c r="G94" s="116" t="str">
+        <f>IF(C94&gt;1.9,"Forte fécondité",IF(C94&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="H94" s="116" t="str">
+        <f>IF(E94&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I94" s="138" t="str">
+        <f>IF(AND(G94="Faible fécondité",H94="Calendrier tardif"),"1",IF(AND(G94="Forte fécondité",H94="Calendrier tardif"),"2",IF(AND(H94="Calendrier tardif",G94="Dans la moyenne"),"3",IF(AND(H94="Calendrier précoce",G94="Faible fécondité"),"4",IF(AND(H94="Calendrier précoce",G94="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="174">
+        <v>88</v>
+      </c>
+      <c r="B95" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="122">
+        <v>1.73</v>
+      </c>
+      <c r="D95" s="123">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E95" s="123">
+        <v>29.3</v>
+      </c>
+      <c r="F95" s="133">
+        <v>1381</v>
+      </c>
+      <c r="G95" s="116" t="str">
+        <f>IF(C95&gt;1.9,"Forte fécondité",IF(C95&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="H95" s="116" t="str">
+        <f>IF(E95&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I95" s="138" t="str">
+        <f>IF(AND(G95="Faible fécondité",H95="Calendrier tardif"),"1",IF(AND(G95="Forte fécondité",H95="Calendrier tardif"),"2",IF(AND(H95="Calendrier tardif",G95="Dans la moyenne"),"3",IF(AND(H95="Calendrier précoce",G95="Faible fécondité"),"4",IF(AND(H95="Calendrier précoce",G95="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="174">
+        <v>89</v>
+      </c>
+      <c r="B96" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="122">
+        <v>1.95</v>
+      </c>
+      <c r="D96" s="123">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E96" s="123">
+        <v>29.6</v>
+      </c>
+      <c r="F96" s="133">
+        <v>1954</v>
+      </c>
+      <c r="G96" s="116" t="str">
+        <f>IF(C96&gt;1.9,"Forte fécondité",IF(C96&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H96" s="116" t="str">
+        <f>IF(E96&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="I96" s="138" t="str">
+        <f>IF(AND(G96="Faible fécondité",H96="Calendrier tardif"),"1",IF(AND(G96="Forte fécondité",H96="Calendrier tardif"),"2",IF(AND(H96="Calendrier tardif",G96="Dans la moyenne"),"3",IF(AND(H96="Calendrier précoce",G96="Faible fécondité"),"4",IF(AND(H96="Calendrier précoce",G96="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="174">
+        <v>78</v>
+      </c>
+      <c r="B97" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="122">
+      <c r="C97" s="122">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C4" s="123">
+      <c r="D97" s="123">
         <v>47.6</v>
       </c>
-      <c r="D4" s="123">
+      <c r="E97" s="123">
         <v>31.7</v>
       </c>
-      <c r="E4" s="133">
+      <c r="F97" s="133">
         <v>18141</v>
       </c>
-      <c r="F4" s="116">
-        <f t="shared" si="0"/>
-        <v>181410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="122">
-        <v>2.16</v>
-      </c>
-      <c r="C5" s="123">
-        <v>55.4</v>
-      </c>
-      <c r="D5" s="123">
-        <v>31.1</v>
-      </c>
-      <c r="E5" s="133">
-        <v>18370</v>
-      </c>
-      <c r="F5" s="116">
-        <f t="shared" si="0"/>
-        <v>183700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="122">
-        <v>1.74</v>
-      </c>
-      <c r="C6" s="123">
-        <v>41.1</v>
-      </c>
-      <c r="D6" s="123">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E6" s="133">
-        <v>21439</v>
-      </c>
-      <c r="F6" s="116">
-        <f t="shared" si="0"/>
-        <v>214390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="122">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C7" s="123">
-        <v>46</v>
-      </c>
-      <c r="D7" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E7" s="133">
-        <v>27583</v>
-      </c>
-      <c r="F7" s="116">
-        <f t="shared" si="0"/>
-        <v>275830</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="122">
-        <v>1.9</v>
-      </c>
-      <c r="C8" s="123">
-        <v>48.3</v>
-      </c>
-      <c r="D8" s="123">
-        <v>32</v>
-      </c>
-      <c r="E8" s="133">
-        <v>19553</v>
-      </c>
-      <c r="F8" s="116">
-        <f t="shared" si="0"/>
-        <v>195530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="122">
-        <v>2.23</v>
-      </c>
-      <c r="C9" s="123">
-        <v>47.3</v>
-      </c>
-      <c r="D9" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E9" s="133">
-        <v>19012</v>
-      </c>
-      <c r="F9" s="116">
-        <f t="shared" si="0"/>
-        <v>190120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="122">
-        <v>1.82</v>
-      </c>
-      <c r="C10" s="123">
-        <v>71.8</v>
-      </c>
-      <c r="D10" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E10" s="133">
-        <v>2601</v>
-      </c>
-      <c r="F10" s="116">
-        <f t="shared" si="0"/>
-        <v>26010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="122">
-        <v>1.95</v>
-      </c>
-      <c r="C11" s="123">
-        <v>62.6</v>
-      </c>
-      <c r="D11" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E11" s="133">
-        <v>4439</v>
-      </c>
-      <c r="F11" s="116">
-        <f t="shared" si="0"/>
-        <v>44390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="122">
-        <v>1.79</v>
-      </c>
-      <c r="C12" s="123">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D12" s="123">
-        <v>29.8</v>
-      </c>
-      <c r="E12" s="133">
-        <v>1727</v>
-      </c>
-      <c r="F12" s="116">
-        <f t="shared" si="0"/>
-        <v>17270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="122">
-        <v>1.7</v>
-      </c>
-      <c r="C13" s="123">
-        <v>66</v>
-      </c>
-      <c r="D13" s="123">
-        <v>31</v>
-      </c>
-      <c r="E13" s="133">
-        <v>6020</v>
-      </c>
-      <c r="F13" s="116">
-        <f t="shared" si="0"/>
-        <v>60200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="122">
-        <v>1.89</v>
-      </c>
-      <c r="C14" s="123">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="D14" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E14" s="133">
-        <v>2935</v>
-      </c>
-      <c r="F14" s="116">
-        <f t="shared" si="0"/>
-        <v>29350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="122">
-        <v>1.95</v>
-      </c>
-      <c r="C15" s="123">
-        <v>62.1</v>
-      </c>
-      <c r="D15" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E15" s="133">
-        <v>7615</v>
-      </c>
-      <c r="F15" s="116">
-        <f t="shared" si="0"/>
-        <v>76150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="122">
-        <v>1.63</v>
-      </c>
-      <c r="C16" s="123">
-        <v>65.3</v>
-      </c>
-      <c r="D16" s="123">
-        <v>31</v>
-      </c>
-      <c r="E16" s="133">
-        <v>5165</v>
-      </c>
-      <c r="F16" s="116">
-        <f t="shared" si="0"/>
-        <v>51650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="122">
-        <v>1.73</v>
-      </c>
-      <c r="C17" s="123">
-        <v>61.1</v>
-      </c>
-      <c r="D17" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E17" s="133">
-        <v>1482</v>
-      </c>
-      <c r="F17" s="116">
-        <f t="shared" si="0"/>
-        <v>14820</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="122">
-        <v>1.79</v>
-      </c>
-      <c r="C18" s="123">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="D18" s="123">
-        <v>30</v>
-      </c>
-      <c r="E18" s="133">
-        <v>4655</v>
-      </c>
-      <c r="F18" s="116">
-        <f t="shared" si="0"/>
-        <v>46550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="122">
-        <v>1.74</v>
-      </c>
-      <c r="C19" s="123">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="D19" s="123">
-        <v>29.3</v>
-      </c>
-      <c r="E19" s="133">
-        <v>3104</v>
-      </c>
-      <c r="F19" s="116">
-        <f t="shared" si="0"/>
-        <v>31040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="122">
-        <v>1.76</v>
-      </c>
-      <c r="C20" s="123">
-        <v>67.5</v>
-      </c>
-      <c r="D20" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E20" s="133">
-        <v>5671</v>
-      </c>
-      <c r="F20" s="116">
-        <f t="shared" si="0"/>
-        <v>56710</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="122">
-        <v>1.84</v>
-      </c>
-      <c r="C21" s="123">
-        <v>65.7</v>
-      </c>
-      <c r="D21" s="123">
-        <v>29.8</v>
-      </c>
-      <c r="E21" s="133">
-        <v>2244</v>
-      </c>
-      <c r="F21" s="116">
-        <f t="shared" si="0"/>
-        <v>22440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="122">
-        <v>1.95</v>
-      </c>
-      <c r="C22" s="123">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D22" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E22" s="133">
-        <v>1954</v>
-      </c>
-      <c r="F22" s="116">
-        <f t="shared" si="0"/>
-        <v>19540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="122">
-        <v>1.81</v>
-      </c>
-      <c r="C23" s="123">
-        <v>54.9</v>
-      </c>
-      <c r="D23" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E23" s="133">
-        <v>1385</v>
-      </c>
-      <c r="F23" s="116">
-        <f t="shared" si="0"/>
-        <v>13850</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="122">
-        <v>1.66</v>
-      </c>
-      <c r="C24" s="123">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="D24" s="123">
-        <v>30.7</v>
-      </c>
-      <c r="E24" s="133">
-        <v>6181</v>
-      </c>
-      <c r="F24" s="116">
-        <f t="shared" si="0"/>
-        <v>61810</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="122">
-        <v>1.94</v>
-      </c>
-      <c r="C25" s="123">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D25" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E25" s="133">
-        <v>13446</v>
-      </c>
-      <c r="F25" s="116">
-        <f t="shared" si="0"/>
-        <v>134460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="122">
-        <v>1.79</v>
-      </c>
-      <c r="C26" s="123">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="D26" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E26" s="133">
-        <v>6552</v>
-      </c>
-      <c r="F26" s="116">
-        <f t="shared" si="0"/>
-        <v>65520</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="122">
-        <v>1.84</v>
-      </c>
-      <c r="C27" s="123">
-        <v>73.8</v>
-      </c>
-      <c r="D27" s="123">
-        <v>29.5</v>
-      </c>
-      <c r="E27" s="133">
-        <v>4257</v>
-      </c>
-      <c r="F27" s="116">
-        <f t="shared" si="0"/>
-        <v>42570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="121" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C28" s="123">
-        <v>66.7</v>
-      </c>
-      <c r="D28" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E28" s="133">
-        <v>2324</v>
-      </c>
-      <c r="F28" s="116">
-        <f t="shared" si="0"/>
-        <v>23240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="122">
-        <v>1.9</v>
-      </c>
-      <c r="C29" s="123">
-        <v>73.2</v>
-      </c>
-      <c r="D29" s="123">
-        <v>29.2</v>
-      </c>
-      <c r="E29" s="133">
-        <v>30145</v>
-      </c>
-      <c r="F29" s="116">
-        <f t="shared" si="0"/>
-        <v>301450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C30" s="123">
-        <v>62.2</v>
-      </c>
-      <c r="D30" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E30" s="133">
-        <v>15261</v>
-      </c>
-      <c r="F30" s="116">
-        <f t="shared" si="0"/>
-        <v>152610</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="122">
-        <v>1.91</v>
-      </c>
-      <c r="C31" s="123">
-        <v>62.8</v>
-      </c>
-      <c r="D31" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E31" s="133">
-        <v>5338</v>
-      </c>
-      <c r="F31" s="116">
-        <f t="shared" si="0"/>
-        <v>53380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="122">
-        <v>1.86</v>
-      </c>
-      <c r="C32" s="123">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="D32" s="123">
-        <v>29.3</v>
-      </c>
-      <c r="E32" s="133">
-        <v>9319</v>
-      </c>
-      <c r="F32" s="116">
-        <f t="shared" si="0"/>
-        <v>93190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="122">
-        <v>1.63</v>
-      </c>
-      <c r="C33" s="123">
-        <v>72.5</v>
-      </c>
-      <c r="D33" s="123">
-        <v>30</v>
-      </c>
-      <c r="E33" s="133">
-        <v>5433</v>
-      </c>
-      <c r="F33" s="116">
-        <f t="shared" si="0"/>
-        <v>54330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="122">
-        <v>1.79</v>
-      </c>
-      <c r="C34" s="123">
-        <v>71</v>
-      </c>
-      <c r="D34" s="123">
-        <v>29.1</v>
-      </c>
-      <c r="E34" s="133">
-        <v>6819</v>
-      </c>
-      <c r="F34" s="116">
-        <f t="shared" si="0"/>
-        <v>68190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C35" s="123">
-        <v>69.7</v>
-      </c>
-      <c r="D35" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E35" s="133">
-        <v>1512</v>
-      </c>
-      <c r="F35" s="116">
-        <f t="shared" si="0"/>
-        <v>15120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="122">
-        <v>1.7</v>
-      </c>
-      <c r="C36" s="123">
-        <v>67.2</v>
-      </c>
-      <c r="D36" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E36" s="133">
-        <v>9697</v>
-      </c>
-      <c r="F36" s="116">
-        <f t="shared" si="0"/>
-        <v>96970</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="122">
-        <v>1.7</v>
-      </c>
-      <c r="C37" s="123">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="D37" s="123">
-        <v>29.1</v>
-      </c>
-      <c r="E37" s="133">
-        <v>2998</v>
-      </c>
-      <c r="F37" s="116">
-        <f t="shared" si="0"/>
-        <v>29980</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="122">
-        <v>1.51</v>
-      </c>
-      <c r="C38" s="123">
-        <v>64.3</v>
-      </c>
-      <c r="D38" s="123">
-        <v>30.7</v>
-      </c>
-      <c r="E38" s="133">
-        <v>11797</v>
-      </c>
-      <c r="F38" s="116">
-        <f t="shared" si="0"/>
-        <v>117970</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="122">
-        <v>1.71</v>
-      </c>
-      <c r="C39" s="123">
-        <v>74.3</v>
-      </c>
-      <c r="D39" s="123">
-        <v>29.1</v>
-      </c>
-      <c r="E39" s="133">
-        <v>7536</v>
-      </c>
-      <c r="F39" s="116">
-        <f t="shared" si="0"/>
-        <v>75360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="122">
-        <v>1.58</v>
-      </c>
-      <c r="C40" s="123">
-        <v>57.3</v>
-      </c>
-      <c r="D40" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E40" s="133">
-        <v>2458</v>
-      </c>
-      <c r="F40" s="116">
-        <f t="shared" si="0"/>
-        <v>24580</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="122">
-        <v>1.6</v>
-      </c>
-      <c r="C41" s="123">
-        <v>53.7</v>
-      </c>
-      <c r="D41" s="123">
-        <v>31.1</v>
-      </c>
-      <c r="E41" s="133">
-        <v>3088</v>
-      </c>
-      <c r="F41" s="116">
-        <f t="shared" si="0"/>
-        <v>30880</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="122">
-        <v>1.73</v>
-      </c>
-      <c r="C42" s="123">
-        <v>53.1</v>
-      </c>
-      <c r="D42" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E42" s="133">
-        <v>5843</v>
-      </c>
-      <c r="F42" s="116">
-        <f t="shared" si="0"/>
-        <v>58430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="122">
-        <v>1.73</v>
-      </c>
-      <c r="C43" s="123">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D43" s="123">
-        <v>29.3</v>
-      </c>
-      <c r="E43" s="133">
-        <v>1381</v>
-      </c>
-      <c r="F43" s="116">
-        <f t="shared" si="0"/>
-        <v>13810</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C44" s="123">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D44" s="123">
-        <v>31.1</v>
-      </c>
-      <c r="E44" s="133">
-        <v>16159</v>
-      </c>
-      <c r="F44" s="116">
-        <f t="shared" si="0"/>
-        <v>161590</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="121" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="122">
-        <v>1.81</v>
-      </c>
-      <c r="C45" s="123">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D45" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E45" s="133">
-        <v>8384</v>
-      </c>
-      <c r="F45" s="116">
-        <f t="shared" si="0"/>
-        <v>83840</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="122">
-        <v>1.98</v>
-      </c>
-      <c r="C46" s="123">
-        <v>73.3</v>
-      </c>
-      <c r="D46" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E46" s="133">
-        <v>2968</v>
-      </c>
-      <c r="F46" s="116">
-        <f t="shared" si="0"/>
-        <v>29680</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="122">
-        <v>1.87</v>
-      </c>
-      <c r="C47" s="123">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D47" s="123">
-        <v>29.9</v>
-      </c>
-      <c r="E47" s="133">
-        <v>5547</v>
-      </c>
-      <c r="F47" s="116">
-        <f t="shared" si="0"/>
-        <v>55470</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="122">
-        <v>1.82</v>
-      </c>
-      <c r="C48" s="123">
-        <v>74.2</v>
-      </c>
-      <c r="D48" s="123">
-        <v>30</v>
-      </c>
-      <c r="E48" s="133">
-        <v>5916</v>
-      </c>
-      <c r="F48" s="116">
-        <f t="shared" si="0"/>
-        <v>59160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="122">
-        <v>1.87</v>
-      </c>
-      <c r="C49" s="123">
-        <v>75.2</v>
-      </c>
-      <c r="D49" s="123">
-        <v>30.1</v>
-      </c>
-      <c r="E49" s="133">
-        <v>5082</v>
-      </c>
-      <c r="F49" s="116">
-        <f t="shared" si="0"/>
-        <v>50820</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="122">
-        <v>1.7</v>
-      </c>
-      <c r="C50" s="123">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="D50" s="123">
-        <v>30.7</v>
-      </c>
-      <c r="E50" s="133">
-        <v>7885</v>
-      </c>
-      <c r="F50" s="116">
-        <f t="shared" si="0"/>
-        <v>78850</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="122">
-        <v>1.7</v>
-      </c>
-      <c r="C51" s="123">
-        <v>69</v>
-      </c>
-      <c r="D51" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E51" s="133">
-        <v>11548</v>
-      </c>
-      <c r="F51" s="116">
-        <f t="shared" si="0"/>
-        <v>115480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C52" s="123">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="D52" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E52" s="133">
-        <v>6478</v>
-      </c>
-      <c r="F52" s="116">
-        <f t="shared" si="0"/>
-        <v>64780</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="122">
-        <v>1.71</v>
-      </c>
-      <c r="C53" s="123">
-        <v>72.7</v>
-      </c>
-      <c r="D53" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E53" s="133">
-        <v>3012</v>
-      </c>
-      <c r="F53" s="116">
-        <f t="shared" si="0"/>
-        <v>30120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="122">
-        <v>1.63</v>
-      </c>
-      <c r="C54" s="123">
-        <v>75</v>
-      </c>
-      <c r="D54" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E54" s="133">
-        <v>16970</v>
-      </c>
-      <c r="F54" s="116">
-        <f t="shared" si="0"/>
-        <v>169700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="122">
-        <v>1.75</v>
-      </c>
-      <c r="C55" s="123">
-        <v>72.7</v>
-      </c>
-      <c r="D55" s="123">
-        <v>29.9</v>
-      </c>
-      <c r="E55" s="133">
-        <v>3405</v>
-      </c>
-      <c r="F55" s="116">
-        <f t="shared" si="0"/>
-        <v>34050</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="122">
-        <v>1.65</v>
-      </c>
-      <c r="C56" s="123">
-        <v>76.8</v>
-      </c>
-      <c r="D56" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E56" s="133">
-        <v>2892</v>
-      </c>
-      <c r="F56" s="116">
-        <f t="shared" si="0"/>
-        <v>28920</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="122">
-        <v>1.71</v>
-      </c>
-      <c r="C57" s="123">
-        <v>75.5</v>
-      </c>
-      <c r="D57" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E57" s="133">
-        <v>5950</v>
-      </c>
-      <c r="F57" s="116">
-        <f t="shared" si="0"/>
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="122">
-        <v>1.6</v>
-      </c>
-      <c r="C58" s="123">
-        <v>66.2</v>
-      </c>
-      <c r="D58" s="123">
-        <v>31.4</v>
-      </c>
-      <c r="E58" s="133">
-        <v>2931</v>
-      </c>
-      <c r="F58" s="116">
-        <f t="shared" si="0"/>
-        <v>29310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="122">
-        <v>1.73</v>
-      </c>
-      <c r="C59" s="123">
-        <v>74.5</v>
-      </c>
-      <c r="D59" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E59" s="133">
-        <v>4941</v>
-      </c>
-      <c r="F59" s="116">
-        <f t="shared" si="0"/>
-        <v>49410</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="122">
-        <v>1.83</v>
-      </c>
-      <c r="C60" s="123">
-        <v>68</v>
-      </c>
-      <c r="D60" s="123">
-        <v>30.1</v>
-      </c>
-      <c r="E60" s="133">
-        <v>3146</v>
-      </c>
-      <c r="F60" s="116">
-        <f t="shared" si="0"/>
-        <v>31460</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="122">
-        <v>1.62</v>
-      </c>
-      <c r="C61" s="123">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="D61" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E61" s="133">
-        <v>4039</v>
-      </c>
-      <c r="F61" s="116">
-        <f t="shared" si="0"/>
-        <v>40390</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="122">
-        <v>1.77</v>
-      </c>
-      <c r="C62" s="123">
-        <v>74.5</v>
-      </c>
-      <c r="D62" s="123">
-        <v>29.6</v>
-      </c>
-      <c r="E62" s="133">
-        <v>1864</v>
-      </c>
-      <c r="F62" s="116">
-        <f t="shared" si="0"/>
-        <v>18640</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="122">
-        <v>1.6</v>
-      </c>
-      <c r="C63" s="123">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D63" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E63" s="133">
-        <v>758</v>
-      </c>
-      <c r="F63" s="116">
-        <f t="shared" si="0"/>
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="122">
-        <v>1.65</v>
-      </c>
-      <c r="C64" s="123">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="D64" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E64" s="133">
-        <v>3288</v>
-      </c>
-      <c r="F64" s="116">
-        <f t="shared" si="0"/>
-        <v>32880</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="122">
-        <v>1.69</v>
-      </c>
-      <c r="C65" s="123">
-        <v>75.8</v>
-      </c>
-      <c r="D65" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E65" s="133">
-        <v>1196</v>
-      </c>
-      <c r="F65" s="116">
-        <f t="shared" si="0"/>
-        <v>11960</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="122">
-        <v>1.82</v>
-      </c>
-      <c r="C66" s="123">
-        <v>70.3</v>
-      </c>
-      <c r="D66" s="123">
-        <v>29.9</v>
-      </c>
-      <c r="E66" s="133">
-        <v>2178</v>
-      </c>
-      <c r="F66" s="116">
-        <f t="shared" si="0"/>
-        <v>21780</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="122">
-        <v>1.76</v>
-      </c>
-      <c r="C67" s="123">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D67" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E67" s="133">
-        <v>15825</v>
-      </c>
-      <c r="F67" s="116">
-        <f t="shared" ref="F67:F97" si="1">E67*10</f>
-        <v>158250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="122">
-        <v>1.92</v>
-      </c>
-      <c r="C68" s="123">
-        <v>63.3</v>
-      </c>
-      <c r="D68" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E68" s="133">
-        <v>1409</v>
-      </c>
-      <c r="F68" s="116">
-        <f t="shared" si="1"/>
-        <v>14090</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="122">
-        <v>1.58</v>
-      </c>
-      <c r="C69" s="123">
-        <v>62</v>
-      </c>
-      <c r="D69" s="123">
-        <v>31.8</v>
-      </c>
-      <c r="E69" s="133">
-        <v>1229</v>
-      </c>
-      <c r="F69" s="116">
-        <f t="shared" si="1"/>
-        <v>12290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="122">
-        <v>1.72</v>
-      </c>
-      <c r="C70" s="123">
-        <v>71.5</v>
-      </c>
-      <c r="D70" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E70" s="133">
-        <v>1897</v>
-      </c>
-      <c r="F70" s="116">
-        <f t="shared" si="1"/>
-        <v>18970</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="122">
-        <v>1.68</v>
-      </c>
-      <c r="C71" s="123">
-        <v>61.9</v>
-      </c>
-      <c r="D71" s="123">
-        <v>31.3</v>
-      </c>
-      <c r="E71" s="133">
-        <v>3213</v>
-      </c>
-      <c r="F71" s="116">
-        <f t="shared" si="1"/>
-        <v>32130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="122">
-        <v>1.69</v>
-      </c>
-      <c r="C72" s="123">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="D72" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E72" s="133">
-        <v>2449</v>
-      </c>
-      <c r="F72" s="116">
-        <f t="shared" si="1"/>
-        <v>24490</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="122">
-        <v>1.46</v>
-      </c>
-      <c r="C73" s="123">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="D73" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E73" s="133">
-        <v>3237</v>
-      </c>
-      <c r="F73" s="116">
-        <f t="shared" si="1"/>
-        <v>32370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="122">
-        <v>1.75</v>
-      </c>
-      <c r="C74" s="123">
-        <v>72.3</v>
-      </c>
-      <c r="D74" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E74" s="133">
-        <v>7377</v>
-      </c>
-      <c r="F74" s="116">
-        <f t="shared" si="1"/>
-        <v>73770</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="122">
-        <v>1.8</v>
-      </c>
-      <c r="C75" s="123">
-        <v>72.3</v>
-      </c>
-      <c r="D75" s="123">
-        <v>30</v>
-      </c>
-      <c r="E75" s="133">
-        <v>12411</v>
-      </c>
-      <c r="F75" s="116">
-        <f t="shared" si="1"/>
-        <v>124110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="122">
-        <v>1.72</v>
-      </c>
-      <c r="C76" s="123">
-        <v>71.3</v>
-      </c>
-      <c r="D76" s="123">
-        <v>30.4</v>
-      </c>
-      <c r="E76" s="133">
-        <v>525</v>
-      </c>
-      <c r="F76" s="116">
-        <f t="shared" si="1"/>
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="122">
-        <v>1.89</v>
-      </c>
-      <c r="C77" s="123">
-        <v>67.3</v>
-      </c>
-      <c r="D77" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E77" s="133">
-        <v>4329</v>
-      </c>
-      <c r="F77" s="116">
-        <f t="shared" si="1"/>
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="122">
-        <v>1.83</v>
-      </c>
-      <c r="C78" s="123">
-        <v>59.2</v>
-      </c>
-      <c r="D78" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E78" s="133">
-        <v>6806</v>
-      </c>
-      <c r="F78" s="116">
-        <f t="shared" si="1"/>
-        <v>68060</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="122">
-        <v>1.73</v>
-      </c>
-      <c r="C79" s="123">
-        <v>73.3</v>
-      </c>
-      <c r="D79" s="123">
-        <v>29.7</v>
-      </c>
-      <c r="E79" s="133">
-        <v>2754</v>
-      </c>
-      <c r="F79" s="116">
-        <f t="shared" si="1"/>
-        <v>27540</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="B80" s="122">
-        <v>1.82</v>
-      </c>
-      <c r="C80" s="123">
-        <v>70</v>
-      </c>
-      <c r="D80" s="123">
-        <v>30.1</v>
-      </c>
-      <c r="E80" s="133">
-        <v>5187</v>
-      </c>
-      <c r="F80" s="116">
-        <f t="shared" si="1"/>
-        <v>51870</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="122">
-        <v>1.66</v>
-      </c>
-      <c r="C81" s="123">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="D81" s="123">
-        <v>29.9</v>
-      </c>
-      <c r="E81" s="133">
-        <v>13791</v>
-      </c>
-      <c r="F81" s="116">
-        <f t="shared" si="1"/>
-        <v>137910</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="122">
-        <v>1.87</v>
-      </c>
-      <c r="C82" s="123">
-        <v>62</v>
-      </c>
-      <c r="D82" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E82" s="133">
-        <v>8050</v>
-      </c>
-      <c r="F82" s="116">
-        <f t="shared" si="1"/>
-        <v>80500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="122">
-        <v>1.83</v>
-      </c>
-      <c r="C83" s="123">
-        <v>58.3</v>
-      </c>
-      <c r="D83" s="123">
-        <v>30.8</v>
-      </c>
-      <c r="E83" s="133">
-        <v>24241</v>
-      </c>
-      <c r="F83" s="116">
-        <f t="shared" si="1"/>
-        <v>242410</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="122">
-        <v>1.94</v>
-      </c>
-      <c r="C84" s="123">
-        <v>58.1</v>
-      </c>
-      <c r="D84" s="123">
-        <v>30.3</v>
-      </c>
-      <c r="E84" s="133">
-        <v>4273</v>
-      </c>
-      <c r="F84" s="116">
-        <f t="shared" si="1"/>
-        <v>42730</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="122">
-        <v>1.81</v>
-      </c>
-      <c r="C85" s="123">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D85" s="123">
-        <v>30.1</v>
-      </c>
-      <c r="E85" s="133">
-        <v>9680</v>
-      </c>
-      <c r="F85" s="116">
-        <f t="shared" si="1"/>
-        <v>96800</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="122">
-        <v>1.62</v>
-      </c>
-      <c r="C86" s="123">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="D86" s="123">
-        <v>30.8</v>
-      </c>
-      <c r="E86" s="133">
-        <v>2594</v>
-      </c>
-      <c r="F86" s="116">
-        <f t="shared" si="1"/>
-        <v>25940</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="122">
-        <v>1.81</v>
-      </c>
-      <c r="C87" s="123">
-        <v>50</v>
-      </c>
-      <c r="D87" s="123">
-        <v>31.9</v>
-      </c>
-      <c r="E87" s="133">
-        <v>1029</v>
-      </c>
-      <c r="F87" s="116">
-        <f t="shared" si="1"/>
-        <v>10290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="121" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="122">
-        <v>1.72</v>
-      </c>
-      <c r="C88" s="123">
-        <v>62.6</v>
-      </c>
-      <c r="D88" s="123">
-        <v>30.9</v>
-      </c>
-      <c r="E88" s="133">
-        <v>1893</v>
-      </c>
-      <c r="F88" s="116">
-        <f t="shared" si="1"/>
-        <v>18930</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="122">
-        <v>1.78</v>
-      </c>
-      <c r="C89" s="123">
-        <v>57.3</v>
-      </c>
-      <c r="D89" s="123">
-        <v>30.9</v>
-      </c>
-      <c r="E89" s="133">
-        <v>6175</v>
-      </c>
-      <c r="F89" s="116">
-        <f t="shared" si="1"/>
-        <v>61750</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="122">
-        <v>1.75</v>
-      </c>
-      <c r="C90" s="123">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D90" s="123">
-        <v>30.1</v>
-      </c>
-      <c r="E90" s="133">
-        <v>1329</v>
-      </c>
-      <c r="F90" s="116">
-        <f t="shared" si="1"/>
-        <v>13290</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="122">
-        <v>1.71</v>
-      </c>
-      <c r="C91" s="123">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="D91" s="123">
-        <v>30.6</v>
-      </c>
-      <c r="E91" s="133">
-        <v>1157</v>
-      </c>
-      <c r="F91" s="116">
-        <f t="shared" si="1"/>
-        <v>11570</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="122">
-        <v>1.82</v>
-      </c>
-      <c r="C92" s="123">
-        <v>55.6</v>
-      </c>
-      <c r="D92" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E92" s="133">
-        <v>11216</v>
-      </c>
-      <c r="F92" s="116">
-        <f t="shared" si="1"/>
-        <v>112160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" s="122">
-        <v>1.95</v>
-      </c>
-      <c r="C93" s="123">
-        <v>60.6</v>
-      </c>
-      <c r="D93" s="123">
-        <v>31.1</v>
-      </c>
-      <c r="E93" s="133">
-        <v>24670</v>
-      </c>
-      <c r="F93" s="116">
-        <f t="shared" si="1"/>
-        <v>246700</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="122">
-        <v>1.87</v>
-      </c>
-      <c r="C94" s="123">
-        <v>63</v>
-      </c>
-      <c r="D94" s="123">
-        <v>30.5</v>
-      </c>
-      <c r="E94" s="133">
-        <v>10282</v>
-      </c>
-      <c r="F94" s="116">
-        <f t="shared" si="1"/>
-        <v>102820</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" s="122">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C95" s="123">
-        <v>55.7</v>
-      </c>
-      <c r="D95" s="123">
-        <v>30.2</v>
-      </c>
-      <c r="E95" s="133">
-        <v>6231</v>
-      </c>
-      <c r="F95" s="116">
-        <f t="shared" si="1"/>
-        <v>62310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="B96" s="122">
-        <v>1.41</v>
-      </c>
-      <c r="C96" s="123">
-        <v>62.5</v>
-      </c>
-      <c r="D96" s="123">
-        <v>30.7</v>
-      </c>
-      <c r="E96" s="133">
-        <v>1286</v>
-      </c>
-      <c r="F96" s="116">
-        <f t="shared" si="1"/>
-        <v>12860</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="122">
-        <v>1.3</v>
-      </c>
-      <c r="C97" s="123">
-        <v>59.7</v>
-      </c>
-      <c r="D97" s="123">
-        <v>31.2</v>
-      </c>
-      <c r="E97" s="133">
-        <v>1401</v>
-      </c>
-      <c r="F97" s="116">
-        <f t="shared" si="1"/>
-        <v>14010</v>
-      </c>
+      <c r="G97" s="116" t="str">
+        <f>IF(C97&gt;1.9,"Forte fécondité",IF(C97&gt;1.65,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="H97" s="116" t="str">
+        <f>IF(E97&gt;30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="I97" s="138" t="str">
+        <f>IF(AND(G97="Faible fécondité",H97="Calendrier tardif"),"1",IF(AND(G97="Forte fécondité",H97="Calendrier tardif"),"2",IF(AND(H97="Calendrier tardif",G97="Dans la moyenne"),"3",IF(AND(H97="Calendrier précoce",G97="Faible fécondité"),"4",IF(AND(H97="Calendrier précoce",G97="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E98" s="136"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition ref="B1:B98"/>
+  </sortState>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -71142,20 +70665,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -73759,20 +73282,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -76424,14 +75947,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -76524,20 +76047,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -79189,14 +78712,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -79289,20 +78812,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -81954,14 +81477,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -82054,20 +81577,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -84719,14 +84242,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -84819,20 +84342,20 @@
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="135"/>
+      <c r="F5" s="141"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="141"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -87484,14 +87007,14 @@
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="136" t="s">
+      <c r="A146" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="137"/>
-      <c r="C146" s="137"/>
-      <c r="D146" s="137"/>
-      <c r="E146" s="137"/>
-      <c r="F146" s="137"/>
+      <c r="B146" s="143"/>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/p3d.xlsx
+++ b/data/p3d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2965933B-C9F9-4E6B-BA43-4F1B206FB391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{960EC020-D8E0-46A6-A2D9-991BEEE0262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'2019'!$B$1:$B$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'2020'!$A$1:$I$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -810,10 +810,17 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1430,90 +1437,81 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1524,55 +1522,52 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1586,29 +1581,35 @@
     <xf numFmtId="166" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1616,17 +1617,17 @@
     <xf numFmtId="166" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1634,26 +1635,23 @@
     <xf numFmtId="166" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="15" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1664,44 +1662,41 @@
     <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1715,47 +1710,47 @@
     <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1769,181 +1764,199 @@
     <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="3" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -63658,7 +63671,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:J97"/>
+      <selection pane="bottomRight" activeCell="M110" sqref="M10:M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63713,422 +63726,420 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="121">
-        <v>1.4</v>
+        <v>101</v>
+      </c>
+      <c r="C2" s="170">
+        <v>1.85</v>
       </c>
       <c r="D2" s="122">
-        <v>58.7</v>
+        <v>56.4</v>
       </c>
       <c r="E2" s="122">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="F2" s="122">
-        <v>81.099999999999994</v>
+        <v>81.3</v>
       </c>
       <c r="G2" s="123">
-        <v>86</v>
+        <v>85.9</v>
       </c>
       <c r="H2" s="142">
-        <v>1286</v>
+        <v>6806</v>
       </c>
       <c r="I2" s="115" t="str">
         <f>IF(C2&gt;=1.9,"Forte fécondité",IF(C2&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
-        <v>Faible fécondité</v>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J2" s="115" t="str">
         <f>IF(E2&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
-        <v>Calendrier tardif</v>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K2" s="129" t="str">
-        <f t="shared" ref="K2:K33" si="0">IF(AND(I2="Faible fécondité",J2="Calendrier tardif"),"1",IF(AND(I2="Forte fécondité",J2="Calendrier tardif"),"4",IF(AND(J2="Calendrier tardif",I2="Dans la moyenne"),"3",IF(AND(J2="Calendrier précoce",I2="Faible fécondité"),"2",IF(AND(J2="Calendrier précoce",I2="Forte fécondité"),"5","3")))))</f>
-        <v>1</v>
+        <f>IF(AND(I2="Faible fécondité",J2="Calendrier tardif"),"1",IF(AND(I2="Forte fécondité",J2="Calendrier tardif"),"4",IF(AND(J2="Calendrier tardif",I2="Dans la moyenne"),"3",IF(AND(J2="Calendrier précoce",I2="Faible fécondité"),"2",IF(AND(J2="Calendrier précoce",I2="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="132" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="121">
-        <v>1.47</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="170">
+        <v>1.9</v>
       </c>
       <c r="D3" s="122">
-        <v>65.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E3" s="122">
-        <v>30.8</v>
+        <v>29.2</v>
       </c>
       <c r="F3" s="122">
-        <v>80.5</v>
+        <v>77</v>
       </c>
       <c r="G3" s="123">
-        <v>85.4</v>
+        <v>83.3</v>
       </c>
       <c r="H3" s="142">
-        <v>1401</v>
+        <v>5338</v>
       </c>
       <c r="I3" s="115" t="str">
-        <f t="shared" ref="I3:I66" si="1">IF(C3&gt;=1.9,"Forte fécondité",IF(C3&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
-        <v>Faible fécondité</v>
+        <f>IF(C3&gt;=1.9,"Forte fécondité",IF(C3&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J3" s="115" t="str">
-        <f t="shared" ref="J3:J66" si="2">IF(E3&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
-        <v>Calendrier tardif</v>
+        <f>IF(E3&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K3" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I3="Faible fécondité",J3="Calendrier tardif"),"1",IF(AND(I3="Forte fécondité",J3="Calendrier tardif"),"4",IF(AND(J3="Calendrier tardif",I3="Dans la moyenne"),"3",IF(AND(J3="Calendrier précoce",I3="Faible fécondité"),"2",IF(AND(J3="Calendrier précoce",I3="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="133">
-        <v>75</v>
+      <c r="A4" s="132" t="s">
+        <v>232</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="121">
-        <v>1.51</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="170">
+        <v>1.83</v>
       </c>
       <c r="D4" s="122">
-        <v>48.5</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E4" s="122">
-        <v>33.9</v>
+        <v>29.6</v>
       </c>
       <c r="F4" s="122">
-        <v>81.900000000000006</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G4" s="123">
-        <v>86.9</v>
+        <v>85.2</v>
       </c>
       <c r="H4" s="142">
-        <v>26157</v>
+        <v>2594</v>
       </c>
       <c r="I4" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C4&gt;=1.9,"Forte fécondité",IF(C4&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J4" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E4&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K4" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I4="Faible fécondité",J4="Calendrier tardif"),"1",IF(AND(I4="Forte fécondité",J4="Calendrier tardif"),"4",IF(AND(J4="Calendrier tardif",I4="Dans la moyenne"),"3",IF(AND(J4="Calendrier précoce",I4="Faible fécondité"),"2",IF(AND(J4="Calendrier précoce",I4="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="133">
-        <v>54</v>
+      <c r="A5" s="132" t="s">
+        <v>233</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="121">
-        <v>1.54</v>
+        <v>121</v>
+      </c>
+      <c r="C5" s="170">
+        <v>1.8</v>
       </c>
       <c r="D5" s="122">
-        <v>62.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E5" s="122">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="F5" s="122">
         <v>79.400000000000006</v>
       </c>
       <c r="G5" s="123">
-        <v>84.8</v>
+        <v>85.3</v>
       </c>
       <c r="H5" s="142">
-        <v>6819</v>
+        <v>1329</v>
       </c>
       <c r="I5" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C5&gt;=1.9,"Forte fécondité",IF(C5&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J5" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E5&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K5" s="129" t="str">
+        <f>IF(AND(I5="Faible fécondité",J5="Calendrier tardif"),"1",IF(AND(I5="Forte fécondité",J5="Calendrier tardif"),"4",IF(AND(J5="Calendrier tardif",I5="Dans la moyenne"),"3",IF(AND(J5="Calendrier précoce",I5="Faible fécondité"),"2",IF(AND(J5="Calendrier précoce",I5="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="132" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="170">
+        <v>1.87</v>
+      </c>
+      <c r="D6" s="122">
+        <v>53.3</v>
+      </c>
+      <c r="E6" s="122">
+        <v>31.2</v>
+      </c>
+      <c r="F6" s="122">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G6" s="123">
+        <v>85.8</v>
+      </c>
+      <c r="H6" s="142">
+        <v>11216</v>
+      </c>
+      <c r="I6" s="115" t="str">
+        <f>IF(C6&gt;=1.9,"Forte fécondité",IF(C6&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="J6" s="115" t="str">
+        <f>IF(E6&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K5" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="133">
-        <v>21</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="121">
-        <v>1.59</v>
-      </c>
-      <c r="D6" s="122">
-        <v>63.7</v>
-      </c>
-      <c r="E6" s="122">
-        <v>31</v>
-      </c>
-      <c r="F6" s="122">
-        <v>80.5</v>
-      </c>
-      <c r="G6" s="123">
-        <v>86</v>
-      </c>
-      <c r="H6" s="142">
-        <v>5165</v>
-      </c>
-      <c r="I6" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
-      </c>
-      <c r="J6" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
-      </c>
       <c r="K6" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I6="Faible fécondité",J6="Calendrier tardif"),"1",IF(AND(I6="Forte fécondité",J6="Calendrier tardif"),"4",IF(AND(J6="Calendrier tardif",I6="Dans la moyenne"),"3",IF(AND(J6="Calendrier précoce",I6="Faible fécondité"),"2",IF(AND(J6="Calendrier précoce",I6="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="133">
-        <v>48</v>
+      <c r="A7" s="132" t="s">
+        <v>238</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="121">
-        <v>1.59</v>
+        <v>102</v>
+      </c>
+      <c r="C7" s="170">
+        <v>1.97</v>
       </c>
       <c r="D7" s="122">
-        <v>71.8</v>
+        <v>68.5</v>
       </c>
       <c r="E7" s="122">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F7" s="122">
-        <v>78.5</v>
+        <v>79.3</v>
       </c>
       <c r="G7" s="123">
-        <v>84.5</v>
+        <v>85.3</v>
       </c>
       <c r="H7" s="142">
-        <v>525</v>
+        <v>2754</v>
       </c>
       <c r="I7" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C7&gt;=1.9,"Forte fécondité",IF(C7&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J7" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E7&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K7" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I7="Faible fécondité",J7="Calendrier tardif"),"1",IF(AND(I7="Forte fécondité",J7="Calendrier tardif"),"4",IF(AND(J7="Calendrier tardif",I7="Dans la moyenne"),"3",IF(AND(J7="Calendrier précoce",I7="Faible fécondité"),"2",IF(AND(J7="Calendrier précoce",I7="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="133">
-        <v>64</v>
+      <c r="A8" s="132" t="s">
+        <v>236</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="121">
-        <v>1.6</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="170">
+        <v>1.85</v>
       </c>
       <c r="D8" s="122">
-        <v>69.7</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E8" s="122">
-        <v>31.3</v>
+        <v>28.9</v>
       </c>
       <c r="F8" s="122">
-        <v>80.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G8" s="123">
-        <v>85.9</v>
+        <v>84.2</v>
       </c>
       <c r="H8" s="142">
-        <v>5950</v>
+        <v>2458</v>
       </c>
       <c r="I8" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C8&gt;=1.9,"Forte fécondité",IF(C8&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J8" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E8&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K8" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I8="Faible fécondité",J8="Calendrier tardif"),"1",IF(AND(I8="Forte fécondité",J8="Calendrier tardif"),"4",IF(AND(J8="Calendrier tardif",I8="Dans la moyenne"),"3",IF(AND(J8="Calendrier précoce",I8="Faible fécondité"),"2",IF(AND(J8="Calendrier précoce",I8="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="133">
-        <f>A8+1</f>
-        <v>65</v>
+      <c r="A9" s="132" t="s">
+        <v>237</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="121">
-        <v>1.61</v>
+        <v>88</v>
+      </c>
+      <c r="C9" s="170">
+        <v>1.72</v>
       </c>
       <c r="D9" s="122">
-        <v>64</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E9" s="122">
-        <v>31.4</v>
+        <v>29.8</v>
       </c>
       <c r="F9" s="122">
-        <v>80.2</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G9" s="123">
-        <v>85.9</v>
+        <v>85.4</v>
       </c>
       <c r="H9" s="142">
-        <v>16970</v>
+        <v>1196</v>
       </c>
       <c r="I9" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C9&gt;=1.9,"Forte fécondité",IF(C9&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J9" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E9&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K9" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I9="Faible fécondité",J9="Calendrier tardif"),"1",IF(AND(I9="Forte fécondité",J9="Calendrier tardif"),"4",IF(AND(J9="Calendrier tardif",I9="Dans la moyenne"),"3",IF(AND(J9="Calendrier précoce",I9="Faible fécondité"),"2",IF(AND(J9="Calendrier précoce",I9="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="132">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="121">
-        <v>1.61</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="170">
+        <v>1.8</v>
       </c>
       <c r="D10" s="122">
-        <v>60.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E10" s="122">
-        <v>31.7</v>
+        <v>29.8</v>
       </c>
       <c r="F10" s="122">
-        <v>81.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="G10" s="123">
-        <v>86.3</v>
+        <v>84.5</v>
       </c>
       <c r="H10" s="142">
-        <v>15825</v>
+        <v>3088</v>
       </c>
       <c r="I10" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C10&gt;=1.9,"Forte fécondité",IF(C10&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J10" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E10&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K10" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I10="Faible fécondité",J10="Calendrier tardif"),"1",IF(AND(I10="Forte fécondité",J10="Calendrier tardif"),"4",IF(AND(J10="Calendrier tardif",I10="Dans la moyenne"),"3",IF(AND(J10="Calendrier précoce",I10="Faible fécondité"),"2",IF(AND(J10="Calendrier précoce",I10="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="133">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="121">
-        <v>1.62</v>
+        <v>115</v>
+      </c>
+      <c r="C11" s="170">
+        <v>1.8</v>
       </c>
       <c r="D11" s="122">
-        <v>72.599999999999994</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E11" s="122">
-        <v>30.6</v>
+        <v>29.7</v>
       </c>
       <c r="F11" s="122">
-        <v>80</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="G11" s="123">
-        <v>86</v>
+        <v>85.2</v>
       </c>
       <c r="H11" s="142">
-        <v>4039</v>
+        <v>3237</v>
       </c>
       <c r="I11" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C11&gt;=1.9,"Forte fécondité",IF(C11&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J11" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E11&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K11" s="129" t="str">
+        <f>IF(AND(I11="Faible fécondité",J11="Calendrier tardif"),"1",IF(AND(I11="Forte fécondité",J11="Calendrier tardif"),"4",IF(AND(J11="Calendrier tardif",I11="Dans la moyenne"),"3",IF(AND(J11="Calendrier précoce",I11="Faible fécondité"),"2",IF(AND(J11="Calendrier précoce",I11="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="171">
+        <v>12</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="170">
+        <v>1.74</v>
+      </c>
+      <c r="D12" s="122">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E12" s="122">
+        <v>30.4</v>
+      </c>
+      <c r="F12" s="122">
+        <v>81.3</v>
+      </c>
+      <c r="G12" s="123">
+        <v>85.9</v>
+      </c>
+      <c r="H12" s="142">
+        <v>2178</v>
+      </c>
+      <c r="I12" s="115" t="str">
+        <f>IF(C12&gt;=1.9,"Forte fécondité",IF(C12&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="J12" s="115" t="str">
+        <f>IF(E12&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K11" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="133">
-        <f>A11+1</f>
-        <v>87</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="121">
-        <v>1.63</v>
-      </c>
-      <c r="D12" s="122">
-        <v>76.7</v>
-      </c>
-      <c r="E12" s="122">
-        <v>29.7</v>
-      </c>
-      <c r="F12" s="122">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="G12" s="123">
-        <v>84.9</v>
-      </c>
-      <c r="H12" s="142">
-        <v>1029</v>
-      </c>
-      <c r="I12" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
-      </c>
-      <c r="J12" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
       <c r="K12" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(AND(I12="Faible fécondité",J12="Calendrier tardif"),"1",IF(AND(I12="Forte fécondité",J12="Calendrier tardif"),"4",IF(AND(J12="Calendrier tardif",I12="Dans la moyenne"),"3",IF(AND(J12="Calendrier précoce",I12="Faible fécondité"),"2",IF(AND(J12="Calendrier précoce",I12="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -64138,7 +64149,7 @@
       <c r="B13" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="170">
         <v>1.64</v>
       </c>
       <c r="D13" s="122">
@@ -64157,3225 +64168,3213 @@
         <v>11797</v>
       </c>
       <c r="I13" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C13&gt;=1.9,"Forte fécondité",IF(C13&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Faible fécondité</v>
       </c>
       <c r="J13" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E13&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K13" s="129" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I13="Faible fécondité",J13="Calendrier tardif"),"1",IF(AND(I13="Forte fécondité",J13="Calendrier tardif"),"4",IF(AND(J13="Calendrier tardif",I13="Dans la moyenne"),"3",IF(AND(J13="Calendrier précoce",I13="Faible fécondité"),"2",IF(AND(J13="Calendrier précoce",I13="Forte fécondité"),"5","3")))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="133">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="121">
-        <v>1.66</v>
+        <v>124</v>
+      </c>
+      <c r="C14" s="170">
+        <v>2</v>
       </c>
       <c r="D14" s="122">
-        <v>56.7</v>
+        <v>57.8</v>
       </c>
       <c r="E14" s="122">
-        <v>30.1</v>
+        <v>31</v>
       </c>
       <c r="F14" s="122">
-        <v>78.900000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G14" s="123">
-        <v>83.9</v>
+        <v>85.7</v>
       </c>
       <c r="H14" s="142">
-        <v>9697</v>
+        <v>24670</v>
       </c>
       <c r="I14" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C14&gt;=1.9,"Forte fécondité",IF(C14&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J14" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E14&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K14" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(AND(I14="Faible fécondité",J14="Calendrier tardif"),"1",IF(AND(I14="Forte fécondité",J14="Calendrier tardif"),"4",IF(AND(J14="Calendrier tardif",I14="Dans la moyenne"),"3",IF(AND(J14="Calendrier précoce",I14="Faible fécondité"),"2",IF(AND(J14="Calendrier précoce",I14="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="133">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="121">
-        <v>1.66</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="170">
+        <v>1.67</v>
       </c>
       <c r="D15" s="122">
-        <v>70.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E15" s="122">
-        <v>30.1</v>
+        <v>30.6</v>
       </c>
       <c r="F15" s="122">
-        <v>77.7</v>
+        <v>79</v>
       </c>
       <c r="G15" s="123">
-        <v>83.8</v>
+        <v>85.2</v>
       </c>
       <c r="H15" s="142">
-        <v>5433</v>
+        <v>6552</v>
       </c>
       <c r="I15" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C15&gt;=1.9,"Forte fécondité",IF(C15&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Faible fécondité</v>
       </c>
       <c r="J15" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E15&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K15" s="129" t="str">
+        <f>IF(AND(I15="Faible fécondité",J15="Calendrier tardif"),"1",IF(AND(I15="Forte fécondité",J15="Calendrier tardif"),"4",IF(AND(J15="Calendrier tardif",I15="Dans la moyenne"),"3",IF(AND(J15="Calendrier précoce",I15="Faible fécondité"),"2",IF(AND(J15="Calendrier précoce",I15="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="171">
+        <v>15</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="170">
+        <v>1.63</v>
+      </c>
+      <c r="D16" s="122">
+        <v>76.7</v>
+      </c>
+      <c r="E16" s="122">
+        <v>29.7</v>
+      </c>
+      <c r="F16" s="122">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="G16" s="123">
+        <v>84.9</v>
+      </c>
+      <c r="H16" s="142">
+        <v>1029</v>
+      </c>
+      <c r="I16" s="115" t="str">
+        <f>IF(C16&gt;=1.9,"Forte fécondité",IF(C16&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J16" s="115" t="str">
+        <f>IF(E16&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
-      <c r="K15" s="129" t="str">
-        <f t="shared" si="0"/>
+      <c r="K16" s="129" t="str">
+        <f>IF(AND(I16="Faible fécondité",J16="Calendrier tardif"),"1",IF(AND(I16="Forte fécondité",J16="Calendrier tardif"),"4",IF(AND(J16="Calendrier tardif",I16="Dans la moyenne"),"3",IF(AND(J16="Calendrier précoce",I16="Faible fécondité"),"2",IF(AND(J16="Calendrier précoce",I16="Forte fécondité"),"5","3")))))</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="133">
-        <v>14</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="121">
-        <v>1.67</v>
-      </c>
-      <c r="D16" s="122">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E16" s="122">
-        <v>30.6</v>
-      </c>
-      <c r="F16" s="122">
-        <v>79</v>
-      </c>
-      <c r="G16" s="123">
-        <v>85.2</v>
-      </c>
-      <c r="H16" s="142">
-        <v>6552</v>
-      </c>
-      <c r="I16" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
-      </c>
-      <c r="J16" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
-      </c>
-      <c r="K16" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="133">
-        <f>A16+1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="121">
-        <v>1.68</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="170">
+        <v>1.74</v>
       </c>
       <c r="D17" s="122">
-        <v>78.400000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E17" s="122">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="F17" s="122">
-        <v>76.400000000000006</v>
+        <v>79</v>
       </c>
       <c r="G17" s="123">
-        <v>84.3</v>
+        <v>84.9</v>
       </c>
       <c r="H17" s="142">
-        <v>758</v>
+        <v>2931</v>
       </c>
       <c r="I17" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C17&gt;=1.9,"Forte fécondité",IF(C17&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J17" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E17&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K17" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(AND(I17="Faible fécondité",J17="Calendrier tardif"),"1",IF(AND(I17="Forte fécondité",J17="Calendrier tardif"),"4",IF(AND(J17="Calendrier tardif",I17="Dans la moyenne"),"3",IF(AND(J17="Calendrier précoce",I17="Faible fécondité"),"2",IF(AND(J17="Calendrier précoce",I17="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="133">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="121">
-        <v>1.68</v>
+        <v>78</v>
+      </c>
+      <c r="C18" s="170">
+        <v>1.7</v>
       </c>
       <c r="D18" s="122">
-        <v>73.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="E18" s="122">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F18" s="122">
         <v>79</v>
       </c>
       <c r="G18" s="123">
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="H18" s="142">
-        <v>3012</v>
+        <v>4941</v>
       </c>
       <c r="I18" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C18&gt;=1.9,"Forte fécondité",IF(C18&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J18" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E18&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K18" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(AND(I18="Faible fécondité",J18="Calendrier tardif"),"1",IF(AND(I18="Forte fécondité",J18="Calendrier tardif"),"4",IF(AND(J18="Calendrier tardif",I18="Dans la moyenne"),"3",IF(AND(J18="Calendrier précoce",I18="Faible fécondité"),"2",IF(AND(J18="Calendrier précoce",I18="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="133">
-        <v>32</v>
+      <c r="A19" s="171">
+        <v>18</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="121">
-        <v>1.68</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="170">
+        <v>1.92</v>
       </c>
       <c r="D19" s="122">
-        <v>70.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E19" s="122">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="F19" s="122">
-        <v>79.599999999999994</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="G19" s="123">
-        <v>85.8</v>
+        <v>84.8</v>
       </c>
       <c r="H19" s="142">
-        <v>1409</v>
+        <v>2601</v>
       </c>
       <c r="I19" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C19&gt;=1.9,"Forte fécondité",IF(C19&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J19" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E19&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K19" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I19="Faible fécondité",J19="Calendrier tardif"),"1",IF(AND(I19="Forte fécondité",J19="Calendrier tardif"),"4",IF(AND(J19="Calendrier tardif",I19="Dans la moyenne"),"3",IF(AND(J19="Calendrier précoce",I19="Faible fécondité"),"2",IF(AND(J19="Calendrier précoce",I19="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="133">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="121">
-        <v>1.68</v>
+        <v>97</v>
+      </c>
+      <c r="C20" s="170">
+        <v>1.7</v>
       </c>
       <c r="D20" s="122">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="E20" s="122">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="F20" s="122">
         <v>79.3</v>
       </c>
       <c r="G20" s="123">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="H20" s="142">
-        <v>6175</v>
+        <v>1864</v>
       </c>
       <c r="I20" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Faible fécondité</v>
+        <f>IF(C20&gt;=1.9,"Forte fécondité",IF(C20&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J20" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E20&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K20" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(AND(I20="Faible fécondité",J20="Calendrier tardif"),"1",IF(AND(I20="Forte fécondité",J20="Calendrier tardif"),"4",IF(AND(J20="Calendrier tardif",I20="Dans la moyenne"),"3",IF(AND(J20="Calendrier précoce",I20="Faible fécondité"),"2",IF(AND(J20="Calendrier précoce",I20="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="133">
-        <v>37</v>
+      <c r="A21" s="132" t="s">
+        <v>228</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="121">
-        <v>1.69</v>
+        <v>128</v>
+      </c>
+      <c r="C21" s="170">
+        <v>1.47</v>
       </c>
       <c r="D21" s="122">
-        <v>66.599999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="E21" s="122">
         <v>30.8</v>
       </c>
       <c r="F21" s="122">
-        <v>80.2</v>
+        <v>80.5</v>
       </c>
       <c r="G21" s="123">
-        <v>85.8</v>
+        <v>85.4</v>
       </c>
       <c r="H21" s="142">
-        <v>6020</v>
+        <v>1401</v>
       </c>
       <c r="I21" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C21&gt;=1.9,"Forte fécondité",IF(C21&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Faible fécondité</v>
       </c>
       <c r="J21" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E21&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K21" s="129" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I21="Faible fécondité",J21="Calendrier tardif"),"1",IF(AND(I21="Forte fécondité",J21="Calendrier tardif"),"4",IF(AND(J21="Calendrier tardif",I21="Dans la moyenne"),"3",IF(AND(J21="Calendrier précoce",I21="Faible fécondité"),"2",IF(AND(J21="Calendrier précoce",I21="Forte fécondité"),"5","3")))))</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="133">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="121">
-        <v>1.69</v>
+        <v>184</v>
+      </c>
+      <c r="C22" s="170">
+        <v>1.59</v>
       </c>
       <c r="D22" s="122">
-        <v>74.599999999999994</v>
+        <v>63.7</v>
       </c>
       <c r="E22" s="122">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="F22" s="122">
-        <v>79.7</v>
+        <v>80.5</v>
       </c>
       <c r="G22" s="123">
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="H22" s="142">
-        <v>1229</v>
+        <v>5165</v>
       </c>
       <c r="I22" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C22&gt;=1.9,"Forte fécondité",IF(C22&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Faible fécondité</v>
       </c>
       <c r="J22" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E22&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K22" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(AND(I22="Faible fécondité",J22="Calendrier tardif"),"1",IF(AND(I22="Forte fécondité",J22="Calendrier tardif"),"4",IF(AND(J22="Calendrier tardif",I22="Dans la moyenne"),"3",IF(AND(J22="Calendrier précoce",I22="Faible fécondité"),"2",IF(AND(J22="Calendrier précoce",I22="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="133">
-        <f>A22+1</f>
-        <v>47</v>
+      <c r="A23" s="171">
+        <v>22</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="121">
-        <v>1.7</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="170">
+        <v>1.9</v>
       </c>
       <c r="D23" s="122">
         <v>75.2</v>
       </c>
       <c r="E23" s="122">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F23" s="122">
-        <v>79</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G23" s="123">
-        <v>85.3</v>
+        <v>84.9</v>
       </c>
       <c r="H23" s="142">
-        <v>4941</v>
+        <v>5082</v>
       </c>
       <c r="I23" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C23&gt;=1.9,"Forte fécondité",IF(C23&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J23" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E23&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K23" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I23="Faible fécondité",J23="Calendrier tardif"),"1",IF(AND(I23="Forte fécondité",J23="Calendrier tardif"),"4",IF(AND(J23="Calendrier tardif",I23="Dans la moyenne"),"3",IF(AND(J23="Calendrier précoce",I23="Faible fécondité"),"2",IF(AND(J23="Calendrier précoce",I23="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="133">
-        <f>A23+1</f>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="121">
-        <v>1.7</v>
+        <v>98</v>
+      </c>
+      <c r="C24" s="170">
+        <v>1.68</v>
       </c>
       <c r="D24" s="122">
-        <v>69</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E24" s="122">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="F24" s="122">
-        <v>79.3</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="G24" s="123">
-        <v>85</v>
+        <v>84.3</v>
       </c>
       <c r="H24" s="142">
-        <v>1864</v>
+        <v>758</v>
       </c>
       <c r="I24" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C24&gt;=1.9,"Forte fécondité",IF(C24&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J24" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E24&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K24" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I24="Faible fécondité",J24="Calendrier tardif"),"1",IF(AND(I24="Forte fécondité",J24="Calendrier tardif"),"4",IF(AND(J24="Calendrier tardif",I24="Dans la moyenne"),"3",IF(AND(J24="Calendrier précoce",I24="Faible fécondité"),"2",IF(AND(J24="Calendrier précoce",I24="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="133">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="121">
-        <v>1.71</v>
+        <v>79</v>
+      </c>
+      <c r="C25" s="170">
+        <v>1.86</v>
       </c>
       <c r="D25" s="122">
-        <v>73.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E25" s="122">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="F25" s="122">
-        <v>80.3</v>
+        <v>79.8</v>
       </c>
       <c r="G25" s="123">
-        <v>85.6</v>
+        <v>85.2</v>
       </c>
       <c r="H25" s="142">
-        <v>1897</v>
+        <v>3146</v>
       </c>
       <c r="I25" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C25&gt;=1.9,"Forte fécondité",IF(C25&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J25" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E25&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K25" s="129" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I25="Faible fécondité",J25="Calendrier tardif"),"1",IF(AND(I25="Forte fécondité",J25="Calendrier tardif"),"4",IF(AND(J25="Calendrier tardif",I25="Dans la moyenne"),"3",IF(AND(J25="Calendrier précoce",I25="Faible fécondité"),"2",IF(AND(J25="Calendrier précoce",I25="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="133">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="121">
-        <v>1.71</v>
+        <v>82</v>
+      </c>
+      <c r="C26" s="170">
+        <v>1.68</v>
       </c>
       <c r="D26" s="122">
-        <v>69.599999999999994</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E26" s="122">
-        <v>30.4</v>
+        <v>29.8</v>
       </c>
       <c r="F26" s="122">
-        <v>79.400000000000006</v>
+        <v>79</v>
       </c>
       <c r="G26" s="123">
-        <v>85.7</v>
+        <v>85</v>
       </c>
       <c r="H26" s="142">
-        <v>3288</v>
+        <v>3012</v>
       </c>
       <c r="I26" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C26&gt;=1.9,"Forte fécondité",IF(C26&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J26" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E26&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K26" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I26="Faible fécondité",J26="Calendrier tardif"),"1",IF(AND(I26="Forte fécondité",J26="Calendrier tardif"),"4",IF(AND(J26="Calendrier tardif",I26="Dans la moyenne"),"3",IF(AND(J26="Calendrier précoce",I26="Faible fécondité"),"2",IF(AND(J26="Calendrier précoce",I26="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="133">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="121">
-        <v>1.71</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="170">
+        <v>1.75</v>
       </c>
       <c r="D27" s="122">
-        <v>60.4</v>
+        <v>59.4</v>
       </c>
       <c r="E27" s="122">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="F27" s="122">
-        <v>80.400000000000006</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="G27" s="123">
-        <v>85.7</v>
+        <v>85.1</v>
       </c>
       <c r="H27" s="142">
-        <v>12411</v>
+        <v>5671</v>
       </c>
       <c r="I27" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C27&gt;=1.9,"Forte fécondité",IF(C27&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J27" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E27&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K27" s="129" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I27="Faible fécondité",J27="Calendrier tardif"),"1",IF(AND(I27="Forte fécondité",J27="Calendrier tardif"),"4",IF(AND(J27="Calendrier tardif",I27="Dans la moyenne"),"3",IF(AND(J27="Calendrier précoce",I27="Faible fécondité"),"2",IF(AND(J27="Calendrier précoce",I27="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="132" t="s">
-        <v>237</v>
+      <c r="A28" s="171">
+        <v>26</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="121">
-        <v>1.72</v>
+        <v>103</v>
+      </c>
+      <c r="C28" s="170">
+        <v>1.98</v>
       </c>
       <c r="D28" s="122">
-        <v>73.099999999999994</v>
+        <v>60.9</v>
       </c>
       <c r="E28" s="122">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="F28" s="122">
-        <v>78.900000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="G28" s="123">
-        <v>85.4</v>
+        <v>85.6</v>
       </c>
       <c r="H28" s="142">
-        <v>1196</v>
+        <v>5187</v>
       </c>
       <c r="I28" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C28&gt;=1.9,"Forte fécondité",IF(C28&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J28" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E28&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K28" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I28="Faible fécondité",J28="Calendrier tardif"),"1",IF(AND(I28="Forte fécondité",J28="Calendrier tardif"),"4",IF(AND(J28="Calendrier tardif",I28="Dans la moyenne"),"3",IF(AND(J28="Calendrier précoce",I28="Faible fécondité"),"2",IF(AND(J28="Calendrier précoce",I28="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="133">
-        <f>A28+1</f>
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="121">
-        <v>1.72</v>
+        <v>16</v>
+      </c>
+      <c r="C29" s="170">
+        <v>2.17</v>
       </c>
       <c r="D29" s="122">
-        <v>71.8</v>
+        <v>54.9</v>
       </c>
       <c r="E29" s="122">
-        <v>30.6</v>
+        <v>31</v>
       </c>
       <c r="F29" s="122">
-        <v>78.3</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G29" s="123">
-        <v>85</v>
+        <v>86.2</v>
       </c>
       <c r="H29" s="142">
-        <v>7885</v>
+        <v>18370</v>
       </c>
       <c r="I29" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C29&gt;=1.9,"Forte fécondité",IF(C29&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J29" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E29&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K29" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I29="Faible fécondité",J29="Calendrier tardif"),"1",IF(AND(I29="Forte fécondité",J29="Calendrier tardif"),"4",IF(AND(J29="Calendrier tardif",I29="Dans la moyenne"),"3",IF(AND(J29="Calendrier précoce",I29="Faible fécondité"),"2",IF(AND(J29="Calendrier précoce",I29="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="133">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="121">
-        <v>1.72</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="170">
+        <v>1.92</v>
       </c>
       <c r="D30" s="122">
-        <v>72.5</v>
+        <v>68.8</v>
       </c>
       <c r="E30" s="122">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="F30" s="122">
-        <v>77.900000000000006</v>
+        <v>78.2</v>
       </c>
       <c r="G30" s="123">
         <v>84.4</v>
       </c>
       <c r="H30" s="142">
-        <v>1381</v>
+        <v>6181</v>
       </c>
       <c r="I30" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C30&gt;=1.9,"Forte fécondité",IF(C30&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="J30" s="115" t="str">
+        <f>IF(E30&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K30" s="129" t="str">
+        <f>IF(AND(I30="Faible fécondité",J30="Calendrier tardif"),"1",IF(AND(I30="Forte fécondité",J30="Calendrier tardif"),"4",IF(AND(J30="Calendrier tardif",I30="Dans la moyenne"),"3",IF(AND(J30="Calendrier précoce",I30="Faible fécondité"),"2",IF(AND(J30="Calendrier précoce",I30="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="171">
+        <v>28</v>
+      </c>
+      <c r="B31" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="170">
+        <v>2</v>
+      </c>
+      <c r="D31" s="122">
+        <v>63.5</v>
+      </c>
+      <c r="E31" s="122">
+        <v>30.1</v>
+      </c>
+      <c r="F31" s="122">
+        <v>79</v>
+      </c>
+      <c r="G31" s="123">
+        <v>84.9</v>
+      </c>
+      <c r="H31" s="142">
+        <v>4439</v>
+      </c>
+      <c r="I31" s="115" t="str">
+        <f>IF(C31&gt;=1.9,"Forte fécondité",IF(C31&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="J31" s="115" t="str">
+        <f>IF(E31&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K31" s="129" t="str">
+        <f>IF(AND(I31="Faible fécondité",J31="Calendrier tardif"),"1",IF(AND(I31="Forte fécondité",J31="Calendrier tardif"),"4",IF(AND(J31="Calendrier tardif",I31="Dans la moyenne"),"3",IF(AND(J31="Calendrier précoce",I31="Faible fécondité"),"2",IF(AND(J31="Calendrier précoce",I31="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="171">
+        <v>29</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="170">
+        <v>1.72</v>
+      </c>
+      <c r="D32" s="122">
+        <v>71.8</v>
+      </c>
+      <c r="E32" s="122">
+        <v>30.6</v>
+      </c>
+      <c r="F32" s="122">
+        <v>78.3</v>
+      </c>
+      <c r="G32" s="123">
+        <v>85</v>
+      </c>
+      <c r="H32" s="142">
+        <v>7885</v>
+      </c>
+      <c r="I32" s="115" t="str">
+        <f>IF(C32&gt;=1.9,"Forte fécondité",IF(C32&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J30" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
-      <c r="K30" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="133">
-        <v>35</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="121">
-        <v>1.73</v>
-      </c>
-      <c r="D31" s="122">
-        <v>67.5</v>
-      </c>
-      <c r="E31" s="122">
-        <v>31.1</v>
-      </c>
-      <c r="F31" s="122">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="G31" s="123">
-        <v>86.2</v>
-      </c>
-      <c r="H31" s="142">
-        <v>11548</v>
-      </c>
-      <c r="I31" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J31" s="115" t="str">
-        <f t="shared" si="2"/>
+      <c r="J32" s="115" t="str">
+        <f>IF(E32&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K31" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="133">
-        <v>55</v>
-      </c>
-      <c r="B32" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="121">
-        <v>1.73</v>
-      </c>
-      <c r="D32" s="122">
-        <v>73.8</v>
-      </c>
-      <c r="E32" s="122">
-        <v>29.1</v>
-      </c>
-      <c r="F32" s="122">
-        <v>78.2</v>
-      </c>
-      <c r="G32" s="123">
-        <v>84.4</v>
-      </c>
-      <c r="H32" s="142">
-        <v>1512</v>
-      </c>
-      <c r="I32" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J32" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
       <c r="K32" s="129" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(I32="Faible fécondité",J32="Calendrier tardif"),"1",IF(AND(I32="Forte fécondité",J32="Calendrier tardif"),"4",IF(AND(J32="Calendrier tardif",I32="Dans la moyenne"),"3",IF(AND(J32="Calendrier précoce",I32="Faible fécondité"),"2",IF(AND(J32="Calendrier précoce",I32="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="133">
-        <f>A32+1</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="121">
-        <v>1.74</v>
+        <v>116</v>
+      </c>
+      <c r="C33" s="170">
+        <v>1.93</v>
       </c>
       <c r="D33" s="122">
-        <v>69.400000000000006</v>
+        <v>60.9</v>
       </c>
       <c r="E33" s="122">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F33" s="122">
-        <v>81.3</v>
+        <v>79.7</v>
       </c>
       <c r="G33" s="123">
-        <v>85.9</v>
+        <v>85.4</v>
       </c>
       <c r="H33" s="142">
-        <v>2178</v>
+        <v>7377</v>
       </c>
       <c r="I33" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C33&gt;=1.9,"Forte fécondité",IF(C33&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J33" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E33&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K33" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(AND(I33="Faible fécondité",J33="Calendrier tardif"),"1",IF(AND(I33="Forte fécondité",J33="Calendrier tardif"),"4",IF(AND(J33="Calendrier tardif",I33="Dans la moyenne"),"3",IF(AND(J33="Calendrier précoce",I33="Faible fécondité"),"2",IF(AND(J33="Calendrier précoce",I33="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="133">
-        <f>A33+1</f>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="121">
-        <v>1.74</v>
+        <v>91</v>
+      </c>
+      <c r="C34" s="170">
+        <v>1.68</v>
       </c>
       <c r="D34" s="122">
-        <v>72.099999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="E34" s="122">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="F34" s="122">
-        <v>79</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G34" s="123">
-        <v>84.9</v>
+        <v>85.8</v>
       </c>
       <c r="H34" s="142">
-        <v>2931</v>
+        <v>1409</v>
       </c>
       <c r="I34" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C34&gt;=1.9,"Forte fécondité",IF(C34&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J34" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E34&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K34" s="129" t="str">
-        <f t="shared" ref="K34:K65" si="3">IF(AND(I34="Faible fécondité",J34="Calendrier tardif"),"1",IF(AND(I34="Forte fécondité",J34="Calendrier tardif"),"4",IF(AND(J34="Calendrier tardif",I34="Dans la moyenne"),"3",IF(AND(J34="Calendrier précoce",I34="Faible fécondité"),"2",IF(AND(J34="Calendrier précoce",I34="Forte fécondité"),"5","3")))))</f>
-        <v>3</v>
+        <f>IF(AND(I34="Faible fécondité",J34="Calendrier tardif"),"1",IF(AND(I34="Forte fécondité",J34="Calendrier tardif"),"4",IF(AND(J34="Calendrier tardif",I34="Dans la moyenne"),"3",IF(AND(J34="Calendrier précoce",I34="Faible fécondité"),"2",IF(AND(J34="Calendrier précoce",I34="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="133">
-        <f>A34+1</f>
-        <v>58</v>
+      <c r="A35" s="171">
+        <v>33</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="121">
-        <v>1.75</v>
+        <v>83</v>
+      </c>
+      <c r="C35" s="170">
+        <v>1.61</v>
       </c>
       <c r="D35" s="122">
-        <v>59.4</v>
+        <v>64</v>
       </c>
       <c r="E35" s="122">
-        <v>30.5</v>
+        <v>31.4</v>
       </c>
       <c r="F35" s="122">
-        <v>80.099999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="G35" s="123">
-        <v>85.1</v>
+        <v>85.9</v>
       </c>
       <c r="H35" s="142">
-        <v>5671</v>
+        <v>16970</v>
       </c>
       <c r="I35" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C35&gt;=1.9,"Forte fécondité",IF(C35&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J35" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E35&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K35" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I35="Faible fécondité",J35="Calendrier tardif"),"1",IF(AND(I35="Forte fécondité",J35="Calendrier tardif"),"4",IF(AND(J35="Calendrier tardif",I35="Dans la moyenne"),"3",IF(AND(J35="Calendrier précoce",I35="Faible fécondité"),"2",IF(AND(J35="Calendrier précoce",I35="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133">
-        <v>58</v>
+      <c r="A36" s="132" t="s">
+        <v>229</v>
       </c>
       <c r="B36" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="121">
-        <v>1.75</v>
+        <v>129</v>
+      </c>
+      <c r="C36" s="170">
+        <v>1.4</v>
       </c>
       <c r="D36" s="122">
-        <v>71.5</v>
+        <v>58.7</v>
       </c>
       <c r="E36" s="122">
-        <v>29.7</v>
+        <v>31</v>
       </c>
       <c r="F36" s="122">
-        <v>77.900000000000006</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="G36" s="123">
-        <v>84</v>
-      </c>
-      <c r="H36" s="143">
-        <v>1482</v>
+        <v>86</v>
+      </c>
+      <c r="H36" s="142">
+        <v>1286</v>
       </c>
       <c r="I36" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C36&gt;=1.9,"Forte fécondité",IF(C36&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J36" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E36&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K36" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I36="Faible fécondité",J36="Calendrier tardif"),"1",IF(AND(I36="Forte fécondité",J36="Calendrier tardif"),"4",IF(AND(J36="Calendrier tardif",I36="Dans la moyenne"),"3",IF(AND(J36="Calendrier précoce",I36="Faible fécondité"),"2",IF(AND(J36="Calendrier précoce",I36="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="133">
-        <v>68</v>
+      <c r="A37" s="132">
+        <v>31</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="121">
-        <v>1.76</v>
+        <v>90</v>
+      </c>
+      <c r="C37" s="170">
+        <v>1.61</v>
       </c>
       <c r="D37" s="122">
-        <v>52.6</v>
+        <v>60.6</v>
       </c>
       <c r="E37" s="122">
-        <v>30.3</v>
+        <v>31.7</v>
       </c>
       <c r="F37" s="122">
-        <v>80.3</v>
+        <v>81.3</v>
       </c>
       <c r="G37" s="123">
-        <v>85.1</v>
+        <v>86.3</v>
       </c>
       <c r="H37" s="142">
-        <v>7536</v>
+        <v>15825</v>
       </c>
       <c r="I37" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C37&gt;=1.9,"Forte fécondité",IF(C37&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J37" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E37&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K37" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I37="Faible fécondité",J37="Calendrier tardif"),"1",IF(AND(I37="Forte fécondité",J37="Calendrier tardif"),"4",IF(AND(J37="Calendrier tardif",I37="Dans la moyenne"),"3",IF(AND(J37="Calendrier précoce",I37="Faible fécondité"),"2",IF(AND(J37="Calendrier précoce",I37="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="133">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="121">
-        <v>1.77</v>
+        <v>112</v>
+      </c>
+      <c r="C38" s="170">
+        <v>1.85</v>
       </c>
       <c r="D38" s="122">
-        <v>73.2</v>
+        <v>69.3</v>
       </c>
       <c r="E38" s="122">
         <v>30.2</v>
       </c>
       <c r="F38" s="122">
-        <v>80.400000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="G38" s="123">
-        <v>85.4</v>
+        <v>85.8</v>
       </c>
       <c r="H38" s="142">
-        <v>3405</v>
+        <v>1893</v>
       </c>
       <c r="I38" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C38&gt;=1.9,"Forte fécondité",IF(C38&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J38" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E38&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K38" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I38="Faible fécondité",J38="Calendrier tardif"),"1",IF(AND(I38="Forte fécondité",J38="Calendrier tardif"),"4",IF(AND(J38="Calendrier tardif",I38="Dans la moyenne"),"3",IF(AND(J38="Calendrier précoce",I38="Faible fécondité"),"2",IF(AND(J38="Calendrier précoce",I38="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="133">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="121">
-        <v>1.77</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="170">
+        <v>1.72</v>
       </c>
       <c r="D39" s="122">
-        <v>65.2</v>
+        <v>72.5</v>
       </c>
       <c r="E39" s="122">
-        <v>30.3</v>
+        <v>29.1</v>
       </c>
       <c r="F39" s="122">
-        <v>78.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G39" s="123">
-        <v>85</v>
+        <v>84.4</v>
       </c>
       <c r="H39" s="142">
-        <v>5843</v>
+        <v>1381</v>
       </c>
       <c r="I39" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C39&gt;=1.9,"Forte fécondité",IF(C39&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J39" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E39&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K39" s="129" t="str">
+        <f>IF(AND(I39="Faible fécondité",J39="Calendrier tardif"),"1",IF(AND(I39="Forte fécondité",J39="Calendrier tardif"),"4",IF(AND(J39="Calendrier tardif",I39="Dans la moyenne"),"3",IF(AND(J39="Calendrier précoce",I39="Faible fécondité"),"2",IF(AND(J39="Calendrier précoce",I39="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="170">
+        <v>1.79</v>
+      </c>
+      <c r="D40" s="122">
+        <v>71.2</v>
+      </c>
+      <c r="E40" s="122">
+        <v>30.4</v>
+      </c>
+      <c r="F40" s="122">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G40" s="123">
+        <v>85.6</v>
+      </c>
+      <c r="H40" s="142">
+        <v>1157</v>
+      </c>
+      <c r="I40" s="115" t="str">
+        <f>IF(C40&gt;=1.9,"Forte fécondité",IF(C40&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="J40" s="115" t="str">
+        <f>IF(E40&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K39" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="133">
-        <v>73</v>
-      </c>
-      <c r="B40" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="121">
-        <v>1.77</v>
-      </c>
-      <c r="D40" s="122">
-        <v>61.5</v>
-      </c>
-      <c r="E40" s="122">
-        <v>30.9</v>
-      </c>
-      <c r="F40" s="122">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="G40" s="123">
-        <v>86.1</v>
-      </c>
-      <c r="H40" s="142">
-        <v>4273</v>
-      </c>
-      <c r="I40" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J40" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
-      </c>
       <c r="K40" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I40="Faible fécondité",J40="Calendrier tardif"),"1",IF(AND(I40="Forte fécondité",J40="Calendrier tardif"),"4",IF(AND(J40="Calendrier tardif",I40="Dans la moyenne"),"3",IF(AND(J40="Calendrier précoce",I40="Faible fécondité"),"2",IF(AND(J40="Calendrier précoce",I40="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="133">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="121">
-        <v>1.78</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="170">
+        <v>1.82</v>
       </c>
       <c r="D41" s="122">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E41" s="122">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F41" s="122">
-        <v>77.900000000000006</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G41" s="123">
-        <v>85.1</v>
+        <v>85.5</v>
       </c>
       <c r="H41" s="142">
-        <v>2998</v>
+        <v>1954</v>
       </c>
       <c r="I41" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C41&gt;=1.9,"Forte fécondité",IF(C41&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J41" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E41&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K41" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I41="Faible fécondité",J41="Calendrier tardif"),"1",IF(AND(I41="Forte fécondité",J41="Calendrier tardif"),"4",IF(AND(J41="Calendrier tardif",I41="Dans la moyenne"),"3",IF(AND(J41="Calendrier précoce",I41="Faible fécondité"),"2",IF(AND(J41="Calendrier précoce",I41="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="132" t="s">
-        <v>234</v>
+      <c r="A42" s="133">
+        <v>74</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="121">
-        <v>1.79</v>
+        <v>108</v>
+      </c>
+      <c r="C42" s="170">
+        <v>1.83</v>
       </c>
       <c r="D42" s="122">
-        <v>71.2</v>
+        <v>55.8</v>
       </c>
       <c r="E42" s="122">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="F42" s="122">
-        <v>80.400000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G42" s="123">
-        <v>85.6</v>
+        <v>86.6</v>
       </c>
       <c r="H42" s="142">
-        <v>1157</v>
+        <v>9680</v>
       </c>
       <c r="I42" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C42&gt;=1.9,"Forte fécondité",IF(C42&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J42" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E42&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K42" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I42="Faible fécondité",J42="Calendrier tardif"),"1",IF(AND(I42="Forte fécondité",J42="Calendrier tardif"),"4",IF(AND(J42="Calendrier tardif",I42="Dans la moyenne"),"3",IF(AND(J42="Calendrier précoce",I42="Faible fécondité"),"2",IF(AND(J42="Calendrier précoce",I42="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="133">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="121">
-        <v>1.79</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="170">
+        <v>1.71</v>
       </c>
       <c r="D43" s="122">
-        <v>68.7</v>
+        <v>73.5</v>
       </c>
       <c r="E43" s="122">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F43" s="122">
-        <v>78.599999999999994</v>
+        <v>80.3</v>
       </c>
       <c r="G43" s="123">
-        <v>85.2</v>
+        <v>85.6</v>
       </c>
       <c r="H43" s="142">
-        <v>4329</v>
+        <v>1897</v>
       </c>
       <c r="I43" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C43&gt;=1.9,"Forte fécondité",IF(C43&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J43" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E43&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K43" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I43="Faible fécondité",J43="Calendrier tardif"),"1",IF(AND(I43="Forte fécondité",J43="Calendrier tardif"),"4",IF(AND(J43="Calendrier tardif",I43="Dans la moyenne"),"3",IF(AND(J43="Calendrier précoce",I43="Faible fécondité"),"2",IF(AND(J43="Calendrier précoce",I43="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="133">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="121">
-        <v>1.79</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="170">
+        <v>1.71</v>
       </c>
       <c r="D44" s="122">
-        <v>70.400000000000006</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="E44" s="122">
+        <v>30.4</v>
+      </c>
+      <c r="F44" s="122">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G44" s="123">
+        <v>85.7</v>
+      </c>
+      <c r="H44" s="142">
+        <v>3288</v>
+      </c>
+      <c r="I44" s="115" t="str">
+        <f>IF(C44&gt;=1.9,"Forte fécondité",IF(C44&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="J44" s="115" t="str">
+        <f>IF(E44&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K44" s="129" t="str">
+        <f>IF(AND(I44="Faible fécondité",J44="Calendrier tardif"),"1",IF(AND(I44="Forte fécondité",J44="Calendrier tardif"),"4",IF(AND(J44="Calendrier tardif",I44="Dans la moyenne"),"3",IF(AND(J44="Calendrier précoce",I44="Faible fécondité"),"2",IF(AND(J44="Calendrier précoce",I44="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="133">
+        <v>68</v>
+      </c>
+      <c r="B45" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="170">
+        <v>1.76</v>
+      </c>
+      <c r="D45" s="122">
+        <v>52.6</v>
+      </c>
+      <c r="E45" s="122">
         <v>30.3</v>
       </c>
-      <c r="F44" s="122">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="G44" s="123">
-        <v>86.1</v>
-      </c>
-      <c r="H44" s="142">
-        <v>3213</v>
-      </c>
-      <c r="I44" s="115" t="str">
-        <f t="shared" si="1"/>
+      <c r="F45" s="122">
+        <v>80.3</v>
+      </c>
+      <c r="G45" s="123">
+        <v>85.1</v>
+      </c>
+      <c r="H45" s="142">
+        <v>7536</v>
+      </c>
+      <c r="I45" s="115" t="str">
+        <f>IF(C45&gt;=1.9,"Forte fécondité",IF(C45&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J44" s="115" t="str">
-        <f t="shared" si="2"/>
+      <c r="J45" s="115" t="str">
+        <f>IF(E45&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K44" s="129" t="str">
-        <f t="shared" si="3"/>
+      <c r="K45" s="129" t="str">
+        <f>IF(AND(I45="Faible fécondité",J45="Calendrier tardif"),"1",IF(AND(I45="Forte fécondité",J45="Calendrier tardif"),"4",IF(AND(J45="Calendrier tardif",I45="Dans la moyenne"),"3",IF(AND(J45="Calendrier précoce",I45="Faible fécondité"),"2",IF(AND(J45="Calendrier précoce",I45="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="132" t="s">
-        <v>233</v>
-      </c>
-      <c r="B45" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="121">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="133">
+        <v>92</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="170">
         <v>1.8</v>
       </c>
-      <c r="D45" s="122">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="E45" s="122">
-        <v>30</v>
-      </c>
-      <c r="F45" s="122">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="G45" s="123">
-        <v>85.3</v>
-      </c>
-      <c r="H45" s="142">
-        <v>1329</v>
-      </c>
-      <c r="I45" s="115" t="str">
-        <f t="shared" si="1"/>
+      <c r="D46" s="122">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E46" s="122">
+        <v>32.6</v>
+      </c>
+      <c r="F46" s="122">
+        <v>82.4</v>
+      </c>
+      <c r="G46" s="123">
+        <v>86.8</v>
+      </c>
+      <c r="H46" s="142">
+        <v>21439</v>
+      </c>
+      <c r="I46" s="115" t="str">
+        <f>IF(C46&gt;=1.9,"Forte fécondité",IF(C46&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J45" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
-      <c r="K45" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="132">
-        <v>10</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="121">
-        <v>1.8</v>
-      </c>
-      <c r="D46" s="122">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="E46" s="122">
-        <v>29.8</v>
-      </c>
-      <c r="F46" s="122">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="G46" s="123">
-        <v>84.5</v>
-      </c>
-      <c r="H46" s="142">
-        <v>3088</v>
-      </c>
-      <c r="I46" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
       <c r="J46" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E46&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K46" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I46="Faible fécondité",J46="Calendrier tardif"),"1",IF(AND(I46="Forte fécondité",J46="Calendrier tardif"),"4",IF(AND(J46="Calendrier tardif",I46="Dans la moyenne"),"3",IF(AND(J46="Calendrier précoce",I46="Faible fécondité"),"2",IF(AND(J46="Calendrier précoce",I46="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="133">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="121">
-        <v>1.8</v>
+        <v>117</v>
+      </c>
+      <c r="C47" s="170">
+        <v>1.71</v>
       </c>
       <c r="D47" s="122">
-        <v>69.400000000000006</v>
+        <v>60.4</v>
       </c>
       <c r="E47" s="122">
-        <v>29.7</v>
+        <v>31.1</v>
       </c>
       <c r="F47" s="122">
-        <v>79.900000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G47" s="123">
-        <v>85.2</v>
+        <v>85.7</v>
       </c>
       <c r="H47" s="142">
-        <v>3237</v>
+        <v>12411</v>
       </c>
       <c r="I47" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C47&gt;=1.9,"Forte fécondité",IF(C47&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J47" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E47&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K47" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I47="Faible fécondité",J47="Calendrier tardif"),"1",IF(AND(I47="Forte fécondité",J47="Calendrier tardif"),"4",IF(AND(J47="Calendrier tardif",I47="Dans la moyenne"),"3",IF(AND(J47="Calendrier précoce",I47="Faible fécondité"),"2",IF(AND(J47="Calendrier précoce",I47="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="133">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="121">
-        <v>1.8</v>
+        <v>74</v>
+      </c>
+      <c r="C48" s="170">
+        <v>1.73</v>
       </c>
       <c r="D48" s="122">
-        <v>40.299999999999997</v>
+        <v>67.5</v>
       </c>
       <c r="E48" s="122">
-        <v>32.6</v>
+        <v>31.1</v>
       </c>
       <c r="F48" s="122">
-        <v>82.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G48" s="123">
-        <v>86.8</v>
+        <v>86.2</v>
       </c>
       <c r="H48" s="142">
-        <v>21439</v>
+        <v>11548</v>
       </c>
       <c r="I48" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C48&gt;=1.9,"Forte fécondité",IF(C48&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J48" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E48&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K48" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I48="Faible fécondité",J48="Calendrier tardif"),"1",IF(AND(I48="Forte fécondité",J48="Calendrier tardif"),"4",IF(AND(J48="Calendrier tardif",I48="Dans la moyenne"),"3",IF(AND(J48="Calendrier précoce",I48="Faible fécondité"),"2",IF(AND(J48="Calendrier précoce",I48="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="133">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="121">
+        <v>36</v>
+      </c>
+      <c r="C49" s="170">
         <v>1.82</v>
       </c>
       <c r="D49" s="122">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E49" s="122">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F49" s="122">
-        <v>78.400000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G49" s="123">
-        <v>85.5</v>
+        <v>84.3</v>
       </c>
       <c r="H49" s="142">
-        <v>1954</v>
+        <v>1727</v>
       </c>
       <c r="I49" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C49&gt;=1.9,"Forte fécondité",IF(C49&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J49" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E49&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K49" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I49="Faible fécondité",J49="Calendrier tardif"),"1",IF(AND(I49="Forte fécondité",J49="Calendrier tardif"),"4",IF(AND(J49="Calendrier tardif",I49="Dans la moyenne"),"3",IF(AND(J49="Calendrier précoce",I49="Faible fécondité"),"2",IF(AND(J49="Calendrier précoce",I49="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="133">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="121">
-        <v>1.82</v>
+        <v>37</v>
+      </c>
+      <c r="C50" s="170">
+        <v>1.69</v>
       </c>
       <c r="D50" s="122">
-        <v>72</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="E50" s="122">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="F50" s="122">
-        <v>78.900000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="G50" s="123">
-        <v>84.3</v>
+        <v>85.8</v>
       </c>
       <c r="H50" s="142">
-        <v>1727</v>
+        <v>6020</v>
       </c>
       <c r="I50" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C50&gt;=1.9,"Forte fécondité",IF(C50&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J50" s="115" t="str">
+        <f>IF(E50&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K50" s="129" t="str">
+        <f>IF(AND(I50="Faible fécondité",J50="Calendrier tardif"),"1",IF(AND(I50="Forte fécondité",J50="Calendrier tardif"),"4",IF(AND(J50="Calendrier tardif",I50="Dans la moyenne"),"3",IF(AND(J50="Calendrier précoce",I50="Faible fécondité"),"2",IF(AND(J50="Calendrier précoce",I50="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="133">
+        <v>38</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="170">
+        <v>1.85</v>
+      </c>
+      <c r="D51" s="122">
+        <v>57.6</v>
+      </c>
+      <c r="E51" s="122">
+        <v>30.7</v>
+      </c>
+      <c r="F51" s="122">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G51" s="123">
+        <v>86.2</v>
+      </c>
+      <c r="H51" s="142">
+        <v>13791</v>
+      </c>
+      <c r="I51" s="115" t="str">
+        <f>IF(C51&gt;=1.9,"Forte fécondité",IF(C51&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J50" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
-      <c r="K50" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="132" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="121">
-        <v>1.83</v>
-      </c>
-      <c r="D51" s="122">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E51" s="122">
-        <v>29.6</v>
-      </c>
-      <c r="F51" s="122">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="G51" s="123">
-        <v>85.2</v>
-      </c>
-      <c r="H51" s="142">
-        <v>2594</v>
-      </c>
-      <c r="I51" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
       <c r="J51" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E51&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K51" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I51="Faible fécondité",J51="Calendrier tardif"),"1",IF(AND(I51="Forte fécondité",J51="Calendrier tardif"),"4",IF(AND(J51="Calendrier tardif",I51="Dans la moyenne"),"3",IF(AND(J51="Calendrier précoce",I51="Faible fécondité"),"2",IF(AND(J51="Calendrier précoce",I51="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="133">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="121">
-        <v>1.83</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="170">
+        <v>1.88</v>
       </c>
       <c r="D52" s="122">
-        <v>55.8</v>
+        <v>66.8</v>
       </c>
       <c r="E52" s="122">
-        <v>30.8</v>
+        <v>29.8</v>
       </c>
       <c r="F52" s="122">
-        <v>80.900000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="G52" s="123">
-        <v>86.6</v>
+        <v>85.6</v>
       </c>
       <c r="H52" s="142">
-        <v>9680</v>
+        <v>2244</v>
       </c>
       <c r="I52" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C52&gt;=1.9,"Forte fécondité",IF(C52&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J52" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E52&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K52" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I52="Faible fécondité",J52="Calendrier tardif"),"1",IF(AND(I52="Forte fécondité",J52="Calendrier tardif"),"4",IF(AND(J52="Calendrier tardif",I52="Dans la moyenne"),"3",IF(AND(J52="Calendrier précoce",I52="Faible fécondité"),"2",IF(AND(J52="Calendrier précoce",I52="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="133">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="121">
-        <v>1.83</v>
+        <v>84</v>
+      </c>
+      <c r="C53" s="170">
+        <v>1.77</v>
       </c>
       <c r="D53" s="122">
-        <v>65.400000000000006</v>
+        <v>73.2</v>
       </c>
       <c r="E53" s="122">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="F53" s="122">
-        <v>79.599999999999994</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G53" s="123">
-        <v>85.9</v>
+        <v>85.4</v>
       </c>
       <c r="H53" s="142">
-        <v>16159</v>
+        <v>3405</v>
       </c>
       <c r="I53" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C53&gt;=1.9,"Forte fécondité",IF(C53&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J53" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E53&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K53" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I53="Faible fécondité",J53="Calendrier tardif"),"1",IF(AND(I53="Forte fécondité",J53="Calendrier tardif"),"4",IF(AND(J53="Calendrier tardif",I53="Dans la moyenne"),"3",IF(AND(J53="Calendrier précoce",I53="Faible fécondité"),"2",IF(AND(J53="Calendrier précoce",I53="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="133">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="121">
-        <v>1.83</v>
+        <v>105</v>
+      </c>
+      <c r="C54" s="170">
+        <v>2.0099999999999998</v>
       </c>
       <c r="D54" s="122">
-        <v>67.3</v>
+        <v>56.1</v>
       </c>
       <c r="E54" s="122">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="F54" s="122">
-        <v>80.5</v>
+        <v>80.2</v>
       </c>
       <c r="G54" s="123">
-        <v>86.5</v>
+        <v>85.4</v>
       </c>
       <c r="H54" s="142">
-        <v>8384</v>
+        <v>8050</v>
       </c>
       <c r="I54" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C54&gt;=1.9,"Forte fécondité",IF(C54&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J54" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E54&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K54" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I54="Faible fécondité",J54="Calendrier tardif"),"1",IF(AND(I54="Forte fécondité",J54="Calendrier tardif"),"4",IF(AND(J54="Calendrier tardif",I54="Dans la moyenne"),"3",IF(AND(J54="Calendrier précoce",I54="Faible fécondité"),"2",IF(AND(J54="Calendrier précoce",I54="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="133">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="121">
+        <v>66</v>
+      </c>
+      <c r="C55" s="170">
         <v>1.83</v>
       </c>
       <c r="D55" s="122">
-        <v>72.8</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E55" s="122">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="F55" s="122">
-        <v>79.400000000000006</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G55" s="123">
-        <v>85.6</v>
+        <v>85.9</v>
       </c>
       <c r="H55" s="142">
-        <v>5916</v>
+        <v>16159</v>
       </c>
       <c r="I55" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C55&gt;=1.9,"Forte fécondité",IF(C55&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J55" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E55&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K55" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I55="Faible fécondité",J55="Calendrier tardif"),"1",IF(AND(I55="Forte fécondité",J55="Calendrier tardif"),"4",IF(AND(J55="Calendrier tardif",I55="Dans la moyenne"),"3",IF(AND(J55="Calendrier précoce",I55="Faible fécondité"),"2",IF(AND(J55="Calendrier précoce",I55="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="133">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="121">
-        <v>1.84</v>
+        <v>39</v>
+      </c>
+      <c r="C56" s="170">
+        <v>2</v>
       </c>
       <c r="D56" s="122">
-        <v>60.9</v>
+        <v>61.8</v>
       </c>
       <c r="E56" s="122">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="F56" s="122">
-        <v>77.8</v>
+        <v>79.7</v>
       </c>
       <c r="G56" s="123">
-        <v>84.1</v>
+        <v>85.3</v>
       </c>
       <c r="H56" s="142">
-        <v>30145</v>
+        <v>7615</v>
       </c>
       <c r="I56" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C56&gt;=1.9,"Forte fécondité",IF(C56&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J56" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E56&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K56" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I56="Faible fécondité",J56="Calendrier tardif"),"1",IF(AND(I56="Forte fécondité",J56="Calendrier tardif"),"4",IF(AND(J56="Calendrier tardif",I56="Dans la moyenne"),"3",IF(AND(J56="Calendrier précoce",I56="Faible fécondité"),"2",IF(AND(J56="Calendrier précoce",I56="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="133">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="121">
-        <v>1.84</v>
+        <v>38</v>
+      </c>
+      <c r="C57" s="170">
+        <v>1.87</v>
       </c>
       <c r="D57" s="122">
-        <v>72</v>
+        <v>67.8</v>
       </c>
       <c r="E57" s="122">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F57" s="122">
-        <v>78.599999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="G57" s="123">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="H57" s="142">
-        <v>2324</v>
+        <v>2935</v>
       </c>
       <c r="I57" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C57&gt;=1.9,"Forte fécondité",IF(C57&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J57" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E57&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K57" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I57="Faible fécondité",J57="Calendrier tardif"),"1",IF(AND(I57="Forte fécondité",J57="Calendrier tardif"),"4",IF(AND(J57="Calendrier tardif",I57="Dans la moyenne"),"3",IF(AND(J57="Calendrier précoce",I57="Faible fécondité"),"2",IF(AND(J57="Calendrier précoce",I57="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="133">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="121">
-        <v>1.84</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="170">
+        <v>1.69</v>
       </c>
       <c r="D58" s="122">
-        <v>55.3</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E58" s="122">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="F58" s="122">
-        <v>78.599999999999994</v>
+        <v>79.7</v>
       </c>
       <c r="G58" s="123">
+        <v>85.5</v>
+      </c>
+      <c r="H58" s="142">
+        <v>1229</v>
+      </c>
+      <c r="I58" s="115" t="str">
+        <f>IF(C58&gt;=1.9,"Forte fécondité",IF(C58&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J58" s="115" t="str">
+        <f>IF(E58&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K58" s="129" t="str">
+        <f>IF(AND(I58="Faible fécondité",J58="Calendrier tardif"),"1",IF(AND(I58="Forte fécondité",J58="Calendrier tardif"),"4",IF(AND(J58="Calendrier tardif",I58="Dans la moyenne"),"3",IF(AND(J58="Calendrier précoce",I58="Faible fécondité"),"2",IF(AND(J58="Calendrier précoce",I58="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="133">
+        <v>47</v>
+      </c>
+      <c r="B59" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="H58" s="142">
-        <v>1385</v>
-      </c>
-      <c r="I58" s="115" t="str">
-        <f t="shared" si="1"/>
+      <c r="C59" s="170">
+        <v>1.87</v>
+      </c>
+      <c r="D59" s="122">
+        <v>63.2</v>
+      </c>
+      <c r="E59" s="122">
+        <v>30</v>
+      </c>
+      <c r="F59" s="122">
+        <v>79.5</v>
+      </c>
+      <c r="G59" s="123">
+        <v>85.8</v>
+      </c>
+      <c r="H59" s="142">
+        <v>2892</v>
+      </c>
+      <c r="I59" s="115" t="str">
+        <f>IF(C59&gt;=1.9,"Forte fécondité",IF(C59&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J58" s="115" t="str">
-        <f t="shared" si="2"/>
+      <c r="J59" s="115" t="str">
+        <f>IF(E59&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
+      </c>
+      <c r="K59" s="129" t="str">
+        <f>IF(AND(I59="Faible fécondité",J59="Calendrier tardif"),"1",IF(AND(I59="Forte fécondité",J59="Calendrier tardif"),"4",IF(AND(J59="Calendrier tardif",I59="Dans la moyenne"),"3",IF(AND(J59="Calendrier précoce",I59="Faible fécondité"),"2",IF(AND(J59="Calendrier précoce",I59="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="133">
+        <v>48</v>
+      </c>
+      <c r="B60" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="170">
+        <v>1.59</v>
+      </c>
+      <c r="D60" s="122">
+        <v>71.8</v>
+      </c>
+      <c r="E60" s="122">
+        <v>30.5</v>
+      </c>
+      <c r="F60" s="122">
+        <v>78.5</v>
+      </c>
+      <c r="G60" s="123">
+        <v>84.5</v>
+      </c>
+      <c r="H60" s="142">
+        <v>525</v>
+      </c>
+      <c r="I60" s="115" t="str">
+        <f>IF(C60&gt;=1.9,"Forte fécondité",IF(C60&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J60" s="115" t="str">
+        <f>IF(E60&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
-      <c r="K58" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="121">
-        <v>1.85</v>
-      </c>
-      <c r="D59" s="122">
-        <v>56.4</v>
-      </c>
-      <c r="E59" s="122">
-        <v>30.2</v>
-      </c>
-      <c r="F59" s="122">
-        <v>81.3</v>
-      </c>
-      <c r="G59" s="123">
-        <v>85.9</v>
-      </c>
-      <c r="H59" s="142">
-        <v>6806</v>
-      </c>
-      <c r="I59" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J59" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
-      <c r="K59" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="121">
-        <v>1.85</v>
-      </c>
-      <c r="D60" s="122">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="E60" s="122">
-        <v>28.9</v>
-      </c>
-      <c r="F60" s="122">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="G60" s="123">
-        <v>84.2</v>
-      </c>
-      <c r="H60" s="142">
-        <v>2458</v>
-      </c>
-      <c r="I60" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J60" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
-      </c>
       <c r="K60" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I60="Faible fécondité",J60="Calendrier tardif"),"1",IF(AND(I60="Forte fécondité",J60="Calendrier tardif"),"4",IF(AND(J60="Calendrier tardif",I60="Dans la moyenne"),"3",IF(AND(J60="Calendrier précoce",I60="Faible fécondité"),"2",IF(AND(J60="Calendrier précoce",I60="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="133">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="121">
-        <v>1.85</v>
+        <v>67</v>
+      </c>
+      <c r="C61" s="170">
+        <v>1.83</v>
       </c>
       <c r="D61" s="122">
-        <v>69.3</v>
+        <v>67.3</v>
       </c>
       <c r="E61" s="122">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F61" s="122">
-        <v>79.2</v>
+        <v>80.5</v>
       </c>
       <c r="G61" s="123">
-        <v>85.8</v>
+        <v>86.5</v>
       </c>
       <c r="H61" s="142">
-        <v>1893</v>
+        <v>8384</v>
       </c>
       <c r="I61" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C61&gt;=1.9,"Forte fécondité",IF(C61&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J61" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E61&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K61" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I61="Faible fécondité",J61="Calendrier tardif"),"1",IF(AND(I61="Forte fécondité",J61="Calendrier tardif"),"4",IF(AND(J61="Calendrier tardif",I61="Dans la moyenne"),"3",IF(AND(J61="Calendrier précoce",I61="Faible fécondité"),"2",IF(AND(J61="Calendrier précoce",I61="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="133">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="121">
+        <v>42</v>
+      </c>
+      <c r="C62" s="170">
         <v>1.85</v>
       </c>
       <c r="D62" s="122">
-        <v>57.6</v>
+        <v>74</v>
       </c>
       <c r="E62" s="122">
-        <v>30.7</v>
+        <v>29.7</v>
       </c>
       <c r="F62" s="122">
-        <v>81.099999999999994</v>
+        <v>78.7</v>
       </c>
       <c r="G62" s="123">
-        <v>86.2</v>
+        <v>85.4</v>
       </c>
       <c r="H62" s="142">
-        <v>13791</v>
+        <v>4257</v>
       </c>
       <c r="I62" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C62&gt;=1.9,"Forte fécondité",IF(C62&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J62" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E62&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K62" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I62="Faible fécondité",J62="Calendrier tardif"),"1",IF(AND(I62="Forte fécondité",J62="Calendrier tardif"),"4",IF(AND(J62="Calendrier tardif",I62="Dans la moyenne"),"3",IF(AND(J62="Calendrier précoce",I62="Faible fécondité"),"2",IF(AND(J62="Calendrier précoce",I62="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="133">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="121">
-        <v>1.85</v>
+        <v>24</v>
+      </c>
+      <c r="C63" s="170">
+        <v>1.77</v>
       </c>
       <c r="D63" s="122">
-        <v>74</v>
+        <v>65.2</v>
       </c>
       <c r="E63" s="122">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="F63" s="122">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="G63" s="123">
-        <v>85.4</v>
+        <v>85</v>
       </c>
       <c r="H63" s="142">
-        <v>4257</v>
+        <v>5843</v>
       </c>
       <c r="I63" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C63&gt;=1.9,"Forte fécondité",IF(C63&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J63" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E63&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K63" s="129" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(I63="Faible fécondité",J63="Calendrier tardif"),"1",IF(AND(I63="Forte fécondité",J63="Calendrier tardif"),"4",IF(AND(J63="Calendrier tardif",I63="Dans la moyenne"),"3",IF(AND(J63="Calendrier précoce",I63="Faible fécondité"),"2",IF(AND(J63="Calendrier précoce",I63="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="133">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="121">
-        <v>1.85</v>
+        <v>68</v>
+      </c>
+      <c r="C64" s="170">
+        <v>1.99</v>
       </c>
       <c r="D64" s="122">
-        <v>72.8</v>
+        <v>71.2</v>
       </c>
       <c r="E64" s="122">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="F64" s="122">
-        <v>78.400000000000006</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G64" s="123">
-        <v>85.2</v>
+        <v>86.3</v>
       </c>
       <c r="H64" s="142">
-        <v>6478</v>
+        <v>2968</v>
       </c>
       <c r="I64" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C64&gt;=1.9,"Forte fécondité",IF(C64&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J64" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E64&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K64" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I64="Faible fécondité",J64="Calendrier tardif"),"1",IF(AND(I64="Forte fécondité",J64="Calendrier tardif"),"4",IF(AND(J64="Calendrier tardif",I64="Dans la moyenne"),"3",IF(AND(J64="Calendrier précoce",I64="Faible fécondité"),"2",IF(AND(J64="Calendrier précoce",I64="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="133">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="121">
-        <v>1.85</v>
+        <v>53</v>
+      </c>
+      <c r="C65" s="170">
+        <v>1.54</v>
       </c>
       <c r="D65" s="122">
-        <v>63.2</v>
+        <v>62.3</v>
       </c>
       <c r="E65" s="122">
-        <v>29.8</v>
+        <v>30.7</v>
       </c>
       <c r="F65" s="122">
-        <v>78.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G65" s="123">
-        <v>85.6</v>
-      </c>
-      <c r="H65" s="143">
-        <v>4655</v>
+        <v>84.8</v>
+      </c>
+      <c r="H65" s="142">
+        <v>6819</v>
       </c>
       <c r="I65" s="115" t="str">
-        <f t="shared" si="1"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C65&gt;=1.9,"Forte fécondité",IF(C65&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J65" s="115" t="str">
-        <f t="shared" si="2"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E65&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K65" s="129" t="str">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(AND(I65="Faible fécondité",J65="Calendrier tardif"),"1",IF(AND(I65="Forte fécondité",J65="Calendrier tardif"),"4",IF(AND(J65="Calendrier tardif",I65="Dans la moyenne"),"3",IF(AND(J65="Calendrier précoce",I65="Faible fécondité"),"2",IF(AND(J65="Calendrier précoce",I65="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="133">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="121">
-        <v>1.86</v>
+        <v>54</v>
+      </c>
+      <c r="C66" s="170">
+        <v>1.73</v>
       </c>
       <c r="D66" s="122">
-        <v>73.599999999999994</v>
+        <v>73.8</v>
       </c>
       <c r="E66" s="122">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="F66" s="122">
-        <v>79.8</v>
+        <v>78.2</v>
       </c>
       <c r="G66" s="123">
-        <v>85.2</v>
+        <v>84.4</v>
       </c>
       <c r="H66" s="142">
-        <v>3146</v>
+        <v>1512</v>
       </c>
       <c r="I66" s="115" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C66&gt;=1.9,"Forte fécondité",IF(C66&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J66" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(E66&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K66" s="129" t="str">
-        <f t="shared" ref="K66:K97" si="4">IF(AND(I66="Faible fécondité",J66="Calendrier tardif"),"1",IF(AND(I66="Forte fécondité",J66="Calendrier tardif"),"4",IF(AND(J66="Calendrier tardif",I66="Dans la moyenne"),"3",IF(AND(J66="Calendrier précoce",I66="Faible fécondité"),"2",IF(AND(J66="Calendrier précoce",I66="Forte fécondité"),"5","3")))))</f>
+        <f>IF(AND(I66="Faible fécondité",J66="Calendrier tardif"),"1",IF(AND(I66="Forte fécondité",J66="Calendrier tardif"),"4",IF(AND(J66="Calendrier tardif",I66="Dans la moyenne"),"3",IF(AND(J66="Calendrier précoce",I66="Faible fécondité"),"2",IF(AND(J66="Calendrier précoce",I66="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="133">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="121">
-        <v>1.86</v>
+        <v>75</v>
+      </c>
+      <c r="C67" s="170">
+        <v>1.85</v>
       </c>
       <c r="D67" s="122">
-        <v>65.5</v>
+        <v>72.8</v>
       </c>
       <c r="E67" s="122">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F67" s="122">
-        <v>78.3</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G67" s="123">
-        <v>84.6</v>
+        <v>85.2</v>
       </c>
       <c r="H67" s="142">
-        <v>13446</v>
+        <v>6478</v>
       </c>
       <c r="I67" s="115" t="str">
-        <f t="shared" ref="I67:I97" si="5">IF(C67&gt;=1.9,"Forte fécondité",IF(C67&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <f>IF(C67&gt;=1.9,"Forte fécondité",IF(C67&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J67" s="115" t="str">
-        <f t="shared" ref="J67:J97" si="6">IF(E67&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <f>IF(E67&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K67" s="129" t="str">
+        <f>IF(AND(I67="Faible fécondité",J67="Calendrier tardif"),"1",IF(AND(I67="Forte fécondité",J67="Calendrier tardif"),"4",IF(AND(J67="Calendrier tardif",I67="Dans la moyenne"),"3",IF(AND(J67="Calendrier précoce",I67="Faible fécondité"),"2",IF(AND(J67="Calendrier précoce",I67="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="133">
+        <v>57</v>
+      </c>
+      <c r="B68" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="170">
+        <v>1.66</v>
+      </c>
+      <c r="D68" s="122">
+        <v>56.7</v>
+      </c>
+      <c r="E68" s="122">
+        <v>30.1</v>
+      </c>
+      <c r="F68" s="122">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G68" s="123">
+        <v>83.9</v>
+      </c>
+      <c r="H68" s="142">
+        <v>9697</v>
+      </c>
+      <c r="I68" s="115" t="str">
+        <f>IF(C68&gt;=1.9,"Forte fécondité",IF(C68&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J68" s="115" t="str">
+        <f>IF(E68&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
-      <c r="K67" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="132" t="s">
-        <v>235</v>
-      </c>
-      <c r="B68" s="120" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="121">
-        <v>1.87</v>
-      </c>
-      <c r="D68" s="122">
-        <v>53.3</v>
-      </c>
-      <c r="E68" s="122">
-        <v>31.2</v>
-      </c>
-      <c r="F68" s="122">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="G68" s="123">
-        <v>85.8</v>
-      </c>
-      <c r="H68" s="142">
-        <v>11216</v>
-      </c>
-      <c r="I68" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Dans la moyenne</v>
-      </c>
-      <c r="J68" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
-      </c>
       <c r="K68" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF(AND(I68="Faible fécondité",J68="Calendrier tardif"),"1",IF(AND(I68="Forte fécondité",J68="Calendrier tardif"),"4",IF(AND(J68="Calendrier tardif",I68="Dans la moyenne"),"3",IF(AND(J68="Calendrier précoce",I68="Faible fécondité"),"2",IF(AND(J68="Calendrier précoce",I68="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="133">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="121">
-        <v>1.87</v>
+        <v>46</v>
+      </c>
+      <c r="C69" s="170">
+        <v>1.75</v>
       </c>
       <c r="D69" s="122">
-        <v>67.8</v>
+        <v>71.5</v>
       </c>
       <c r="E69" s="122">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="F69" s="122">
-        <v>79.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G69" s="123">
-        <v>85.5</v>
-      </c>
-      <c r="H69" s="142">
-        <v>2935</v>
+        <v>84</v>
+      </c>
+      <c r="H69" s="143">
+        <v>1482</v>
       </c>
       <c r="I69" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C69&gt;=1.9,"Forte fécondité",IF(C69&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J69" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E69&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K69" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I69="Faible fécondité",J69="Calendrier tardif"),"1",IF(AND(I69="Forte fécondité",J69="Calendrier tardif"),"4",IF(AND(J69="Calendrier tardif",I69="Dans la moyenne"),"3",IF(AND(J69="Calendrier précoce",I69="Faible fécondité"),"2",IF(AND(J69="Calendrier précoce",I69="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="133">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="121">
-        <v>1.87</v>
+        <v>50</v>
+      </c>
+      <c r="C70" s="170">
+        <v>1.84</v>
       </c>
       <c r="D70" s="122">
-        <v>63.2</v>
+        <v>60.9</v>
       </c>
       <c r="E70" s="122">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="F70" s="122">
-        <v>79.5</v>
+        <v>77.8</v>
       </c>
       <c r="G70" s="123">
-        <v>85.8</v>
+        <v>84.1</v>
       </c>
       <c r="H70" s="142">
-        <v>2892</v>
+        <v>30145</v>
       </c>
       <c r="I70" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C70&gt;=1.9,"Forte fécondité",IF(C70&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J70" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E70&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K70" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I70="Faible fécondité",J70="Calendrier tardif"),"1",IF(AND(I70="Forte fécondité",J70="Calendrier tardif"),"4",IF(AND(J70="Calendrier tardif",I70="Dans la moyenne"),"3",IF(AND(J70="Calendrier précoce",I70="Faible fécondité"),"2",IF(AND(J70="Calendrier précoce",I70="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="133">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="121">
-        <v>1.88</v>
+        <v>28</v>
+      </c>
+      <c r="C71" s="170">
+        <v>1.93</v>
       </c>
       <c r="D71" s="122">
-        <v>66.8</v>
+        <v>62.2</v>
       </c>
       <c r="E71" s="122">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="F71" s="122">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="G71" s="123">
-        <v>85.6</v>
+        <v>84.6</v>
       </c>
       <c r="H71" s="142">
-        <v>2244</v>
+        <v>9319</v>
       </c>
       <c r="I71" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Dans la moyenne</v>
+        <f>IF(C71&gt;=1.9,"Forte fécondité",IF(C71&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
       </c>
       <c r="J71" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E71&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K71" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>IF(AND(I71="Faible fécondité",J71="Calendrier tardif"),"1",IF(AND(I71="Forte fécondité",J71="Calendrier tardif"),"4",IF(AND(J71="Calendrier tardif",I71="Dans la moyenne"),"3",IF(AND(J71="Calendrier précoce",I71="Faible fécondité"),"2",IF(AND(J71="Calendrier précoce",I71="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="133">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B72" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="121">
-        <v>1.88</v>
+        <v>43</v>
+      </c>
+      <c r="C72" s="170">
+        <v>1.84</v>
       </c>
       <c r="D72" s="122">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E72" s="122">
-        <v>31.8</v>
+        <v>29.4</v>
       </c>
       <c r="F72" s="122">
-        <v>81.400000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G72" s="123">
-        <v>86.5</v>
+        <v>85.3</v>
       </c>
       <c r="H72" s="142">
-        <v>24241</v>
+        <v>2324</v>
       </c>
       <c r="I72" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C72&gt;=1.9,"Forte fécondité",IF(C72&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
       <c r="J72" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E72&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K72" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I72="Faible fécondité",J72="Calendrier tardif"),"1",IF(AND(I72="Forte fécondité",J72="Calendrier tardif"),"4",IF(AND(J72="Calendrier tardif",I72="Dans la moyenne"),"3",IF(AND(J72="Calendrier précoce",I72="Faible fécondité"),"2",IF(AND(J72="Calendrier précoce",I72="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="133">
+        <v>75</v>
+      </c>
+      <c r="B73" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="170">
+        <v>1.51</v>
+      </c>
+      <c r="D73" s="122">
+        <v>48.5</v>
+      </c>
+      <c r="E73" s="122">
+        <v>33.9</v>
+      </c>
+      <c r="F73" s="122">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G73" s="123">
+        <v>86.9</v>
+      </c>
+      <c r="H73" s="142">
+        <v>26157</v>
+      </c>
+      <c r="I73" s="115" t="str">
+        <f>IF(C73&gt;=1.9,"Forte fécondité",IF(C73&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
+      </c>
+      <c r="J73" s="115" t="str">
+        <f>IF(E73&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K73" s="129" t="str">
+        <f>IF(AND(I73="Faible fécondité",J73="Calendrier tardif"),"1",IF(AND(I73="Forte fécondité",J73="Calendrier tardif"),"4",IF(AND(J73="Calendrier tardif",I73="Dans la moyenne"),"3",IF(AND(J73="Calendrier précoce",I73="Faible fécondité"),"2",IF(AND(J73="Calendrier précoce",I73="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="133">
         <v>62</v>
       </c>
-      <c r="B73" s="120" t="s">
+      <c r="B74" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="121">
+      <c r="C74" s="170">
         <v>1.89</v>
       </c>
-      <c r="D73" s="122">
+      <c r="D74" s="122">
         <v>72.3</v>
       </c>
-      <c r="E73" s="122">
+      <c r="E74" s="122">
         <v>29.1</v>
       </c>
-      <c r="F73" s="122">
+      <c r="F74" s="122">
         <v>77.099999999999994</v>
       </c>
-      <c r="G73" s="123">
+      <c r="G74" s="123">
         <v>83.6</v>
       </c>
-      <c r="H73" s="142">
+      <c r="H74" s="142">
         <v>15261</v>
       </c>
-      <c r="I73" s="115" t="str">
-        <f t="shared" si="5"/>
+      <c r="I74" s="115" t="str">
+        <f>IF(C74&gt;=1.9,"Forte fécondité",IF(C74&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Dans la moyenne</v>
       </c>
-      <c r="J73" s="115" t="str">
-        <f t="shared" si="6"/>
+      <c r="J74" s="115" t="str">
+        <f>IF(E74&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
-      <c r="K73" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="K74" s="129" t="str">
+        <f>IF(AND(I74="Faible fécondité",J74="Calendrier tardif"),"1",IF(AND(I74="Forte fécondité",J74="Calendrier tardif"),"4",IF(AND(J74="Calendrier tardif",I74="Dans la moyenne"),"3",IF(AND(J74="Calendrier précoce",I74="Faible fécondité"),"2",IF(AND(J74="Calendrier précoce",I74="Forte fécondité"),"5","3")))))</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="121">
-        <v>1.9</v>
-      </c>
-      <c r="D74" s="122">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="E74" s="122">
-        <v>29.2</v>
-      </c>
-      <c r="F74" s="122">
-        <v>77</v>
-      </c>
-      <c r="G74" s="123">
-        <v>83.3</v>
-      </c>
-      <c r="H74" s="142">
-        <v>5338</v>
-      </c>
-      <c r="I74" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
-      </c>
-      <c r="J74" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
-      </c>
-      <c r="K74" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="133">
-        <f>A74+1</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B75" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="121">
-        <v>1.9</v>
+        <v>113</v>
+      </c>
+      <c r="C75" s="170">
+        <v>1.68</v>
       </c>
       <c r="D75" s="122">
-        <v>75.2</v>
+        <v>66.7</v>
       </c>
       <c r="E75" s="122">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="F75" s="122">
-        <v>77.900000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="G75" s="123">
-        <v>84.9</v>
+        <v>85.1</v>
       </c>
       <c r="H75" s="142">
-        <v>5082</v>
+        <v>6175</v>
       </c>
       <c r="I75" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C75&gt;=1.9,"Forte fécondité",IF(C75&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J75" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E75&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K75" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I75="Faible fécondité",J75="Calendrier tardif"),"1",IF(AND(I75="Forte fécondité",J75="Calendrier tardif"),"4",IF(AND(J75="Calendrier tardif",I75="Dans la moyenne"),"3",IF(AND(J75="Calendrier précoce",I75="Faible fécondité"),"2",IF(AND(J75="Calendrier précoce",I75="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="133">
-        <f>A75+1</f>
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B76" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="121">
-        <v>1.92</v>
+        <v>86</v>
+      </c>
+      <c r="C76" s="170">
+        <v>1.6</v>
       </c>
       <c r="D76" s="122">
-        <v>70.400000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="E76" s="122">
-        <v>29.7</v>
+        <v>31.3</v>
       </c>
       <c r="F76" s="122">
-        <v>77.599999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G76" s="123">
-        <v>84.8</v>
+        <v>85.9</v>
       </c>
       <c r="H76" s="142">
-        <v>2601</v>
+        <v>5950</v>
       </c>
       <c r="I76" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C76&gt;=1.9,"Forte fécondité",IF(C76&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J76" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E76&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K76" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I76="Faible fécondité",J76="Calendrier tardif"),"1",IF(AND(I76="Forte fécondité",J76="Calendrier tardif"),"4",IF(AND(J76="Calendrier tardif",I76="Dans la moyenne"),"3",IF(AND(J76="Calendrier précoce",I76="Faible fécondité"),"2",IF(AND(J76="Calendrier précoce",I76="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="133">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B77" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="121">
-        <v>1.92</v>
+        <v>119</v>
+      </c>
+      <c r="C77" s="170">
+        <v>1.79</v>
       </c>
       <c r="D77" s="122">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="E77" s="122">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="F77" s="122">
-        <v>78.2</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G77" s="123">
-        <v>84.4</v>
+        <v>85.2</v>
       </c>
       <c r="H77" s="142">
-        <v>6181</v>
+        <v>4329</v>
       </c>
       <c r="I77" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C77&gt;=1.9,"Forte fécondité",IF(C77&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J77" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E77&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K77" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I77="Faible fécondité",J77="Calendrier tardif"),"1",IF(AND(I77="Forte fécondité",J77="Calendrier tardif"),"4",IF(AND(J77="Calendrier tardif",I77="Dans la moyenne"),"3",IF(AND(J77="Calendrier précoce",I77="Faible fécondité"),"2",IF(AND(J77="Calendrier précoce",I77="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="133">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B78" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="121">
-        <v>1.92</v>
+        <v>106</v>
+      </c>
+      <c r="C78" s="170">
+        <v>1.88</v>
       </c>
       <c r="D78" s="122">
-        <v>60.4</v>
+        <v>49</v>
       </c>
       <c r="E78" s="122">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="F78" s="122">
-        <v>80.2</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="G78" s="123">
-        <v>85.6</v>
+        <v>86.5</v>
       </c>
       <c r="H78" s="142">
-        <v>10282</v>
+        <v>24241</v>
       </c>
       <c r="I78" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C78&gt;=1.9,"Forte fécondité",IF(C78&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J78" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E78&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K78" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I78="Faible fécondité",J78="Calendrier tardif"),"1",IF(AND(I78="Forte fécondité",J78="Calendrier tardif"),"4",IF(AND(J78="Calendrier tardif",I78="Dans la moyenne"),"3",IF(AND(J78="Calendrier précoce",I78="Faible fécondité"),"2",IF(AND(J78="Calendrier précoce",I78="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="133">
-        <f>A78+1</f>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B79" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="121">
-        <v>1.93</v>
+        <v>47</v>
+      </c>
+      <c r="C79" s="170">
+        <v>1.85</v>
       </c>
       <c r="D79" s="122">
-        <v>60.9</v>
+        <v>63.2</v>
       </c>
       <c r="E79" s="122">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="F79" s="122">
-        <v>79.7</v>
+        <v>78.8</v>
       </c>
       <c r="G79" s="123">
-        <v>85.4</v>
-      </c>
-      <c r="H79" s="142">
-        <v>7377</v>
+        <v>85.6</v>
+      </c>
+      <c r="H79" s="143">
+        <v>4655</v>
       </c>
       <c r="I79" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C79&gt;=1.9,"Forte fécondité",IF(C79&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J79" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E79&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K79" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I79="Faible fécondité",J79="Calendrier tardif"),"1",IF(AND(I79="Forte fécondité",J79="Calendrier tardif"),"4",IF(AND(J79="Calendrier tardif",I79="Dans la moyenne"),"3",IF(AND(J79="Calendrier précoce",I79="Faible fécondité"),"2",IF(AND(J79="Calendrier précoce",I79="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="133">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B80" s="120" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="121">
+        <v>69</v>
+      </c>
+      <c r="C80" s="170">
         <v>1.93</v>
       </c>
       <c r="D80" s="122">
-        <v>62.2</v>
+        <v>70.7</v>
       </c>
       <c r="E80" s="122">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F80" s="122">
-        <v>79.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G80" s="123">
-        <v>84.6</v>
+        <v>85.6</v>
       </c>
       <c r="H80" s="142">
-        <v>9319</v>
+        <v>5547</v>
       </c>
       <c r="I80" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C80&gt;=1.9,"Forte fécondité",IF(C80&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J80" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E80&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K80" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I80="Faible fécondité",J80="Calendrier tardif"),"1",IF(AND(I80="Forte fécondité",J80="Calendrier tardif"),"4",IF(AND(J80="Calendrier tardif",I80="Dans la moyenne"),"3",IF(AND(J80="Calendrier précoce",I80="Faible fécondité"),"2",IF(AND(J80="Calendrier précoce",I80="Forte fécondité"),"5","3")))))</f>
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="133">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="121">
-        <v>1.93</v>
+        <v>107</v>
+      </c>
+      <c r="C81" s="170">
+        <v>1.77</v>
       </c>
       <c r="D81" s="122">
-        <v>70.7</v>
+        <v>61.5</v>
       </c>
       <c r="E81" s="122">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="F81" s="122">
-        <v>79.599999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G81" s="123">
-        <v>85.6</v>
+        <v>86.1</v>
       </c>
       <c r="H81" s="142">
-        <v>5547</v>
+        <v>4273</v>
       </c>
       <c r="I81" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C81&gt;=1.9,"Forte fécondité",IF(C81&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J81" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E81&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K81" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I81="Faible fécondité",J81="Calendrier tardif"),"1",IF(AND(I81="Forte fécondité",J81="Calendrier tardif"),"4",IF(AND(J81="Calendrier tardif",I81="Dans la moyenne"),"3",IF(AND(J81="Calendrier précoce",I81="Faible fécondité"),"2",IF(AND(J81="Calendrier précoce",I81="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="133">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B82" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="121">
-        <v>1.96</v>
+        <v>14</v>
+      </c>
+      <c r="C82" s="170">
+        <v>2</v>
       </c>
       <c r="D82" s="122">
-        <v>66.5</v>
+        <v>59</v>
       </c>
       <c r="E82" s="122">
-        <v>29.6</v>
+        <v>30.9</v>
       </c>
       <c r="F82" s="122">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G82" s="123">
+        <v>85.3</v>
+      </c>
+      <c r="H82" s="142">
+        <v>18212</v>
+      </c>
+      <c r="I82" s="115" t="str">
+        <f>IF(C82&gt;=1.9,"Forte fécondité",IF(C82&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Forte fécondité</v>
+      </c>
+      <c r="J82" s="115" t="str">
+        <f>IF(E82&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
+      </c>
+      <c r="K82" s="129" t="str">
+        <f>IF(AND(I82="Faible fécondité",J82="Calendrier tardif"),"1",IF(AND(I82="Forte fécondité",J82="Calendrier tardif"),"4",IF(AND(J82="Calendrier tardif",I82="Dans la moyenne"),"3",IF(AND(J82="Calendrier précoce",I82="Faible fécondité"),"2",IF(AND(J82="Calendrier précoce",I82="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="133">
+        <v>76</v>
+      </c>
+      <c r="B83" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="170">
+        <v>1.86</v>
+      </c>
+      <c r="D83" s="122">
+        <v>65.5</v>
+      </c>
+      <c r="E83" s="122">
+        <v>30.2</v>
+      </c>
+      <c r="F83" s="122">
         <v>78.3</v>
       </c>
-      <c r="G82" s="123">
-        <v>83.4</v>
-      </c>
-      <c r="H82" s="143">
-        <v>3104</v>
-      </c>
-      <c r="I82" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
-      </c>
-      <c r="J82" s="115" t="str">
-        <f t="shared" si="6"/>
+      <c r="G83" s="123">
+        <v>84.6</v>
+      </c>
+      <c r="H83" s="142">
+        <v>13446</v>
+      </c>
+      <c r="I83" s="115" t="str">
+        <f>IF(C83&gt;=1.9,"Forte fécondité",IF(C83&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
+      </c>
+      <c r="J83" s="115" t="str">
+        <f>IF(E83&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
-      <c r="K82" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="B83" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="121">
-        <v>1.97</v>
-      </c>
-      <c r="D83" s="122">
-        <v>68.5</v>
-      </c>
-      <c r="E83" s="122">
-        <v>29.9</v>
-      </c>
-      <c r="F83" s="122">
-        <v>79.3</v>
-      </c>
-      <c r="G83" s="123">
-        <v>85.3</v>
-      </c>
-      <c r="H83" s="142">
-        <v>2754</v>
-      </c>
-      <c r="I83" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
-      </c>
-      <c r="J83" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
-      </c>
       <c r="K83" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I83="Faible fécondité",J83="Calendrier tardif"),"1",IF(AND(I83="Forte fécondité",J83="Calendrier tardif"),"4",IF(AND(J83="Calendrier tardif",I83="Dans la moyenne"),"3",IF(AND(J83="Calendrier précoce",I83="Faible fécondité"),"2",IF(AND(J83="Calendrier précoce",I83="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="133">
-        <f>A83+1</f>
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B84" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="121">
-        <v>1.98</v>
+        <v>18</v>
+      </c>
+      <c r="C84" s="170">
+        <v>2.34</v>
       </c>
       <c r="D84" s="122">
-        <v>60.9</v>
+        <v>44.7</v>
       </c>
       <c r="E84" s="122">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="F84" s="122">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="G84" s="123">
-        <v>85.6</v>
+        <v>85.1</v>
       </c>
       <c r="H84" s="142">
-        <v>5187</v>
+        <v>27583</v>
       </c>
       <c r="I84" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C84&gt;=1.9,"Forte fécondité",IF(C84&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J84" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E84&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K84" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I84="Faible fécondité",J84="Calendrier tardif"),"1",IF(AND(I84="Forte fécondité",J84="Calendrier tardif"),"4",IF(AND(J84="Calendrier tardif",I84="Dans la moyenne"),"3",IF(AND(J84="Calendrier précoce",I84="Faible fécondité"),"2",IF(AND(J84="Calendrier précoce",I84="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="133">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="121">
-        <v>1.98</v>
+        <v>29</v>
+      </c>
+      <c r="C85" s="170">
+        <v>1.66</v>
       </c>
       <c r="D85" s="122">
-        <v>66.099999999999994</v>
+        <v>70.5</v>
       </c>
       <c r="E85" s="122">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="F85" s="122">
-        <v>79.8</v>
+        <v>77.7</v>
       </c>
       <c r="G85" s="123">
-        <v>85.5</v>
+        <v>83.8</v>
       </c>
       <c r="H85" s="142">
-        <v>2449</v>
+        <v>5433</v>
       </c>
       <c r="I85" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C85&gt;=1.9,"Forte fécondité",IF(C85&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J85" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E85&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K85" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I85="Faible fécondité",J85="Calendrier tardif"),"1",IF(AND(I85="Forte fécondité",J85="Calendrier tardif"),"4",IF(AND(J85="Calendrier tardif",I85="Dans la moyenne"),"3",IF(AND(J85="Calendrier précoce",I85="Faible fécondité"),"2",IF(AND(J85="Calendrier précoce",I85="Forte fécondité"),"5","3")))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="133">
+        <v>81</v>
+      </c>
+      <c r="B86" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="121">
-        <v>1.98</v>
+      <c r="C86" s="170">
+        <v>1.79</v>
       </c>
       <c r="D86" s="122">
-        <v>47.2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E86" s="122">
-        <v>31.9</v>
+        <v>30.3</v>
       </c>
       <c r="F86" s="122">
-        <v>81.2</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G86" s="123">
-        <v>86.3</v>
+        <v>86.1</v>
       </c>
       <c r="H86" s="142">
-        <v>19553</v>
+        <v>3213</v>
       </c>
       <c r="I86" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C86&gt;=1.9,"Forte fécondité",IF(C86&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J86" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E86&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K86" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I86="Faible fécondité",J86="Calendrier tardif"),"1",IF(AND(I86="Forte fécondité",J86="Calendrier tardif"),"4",IF(AND(J86="Calendrier tardif",I86="Dans la moyenne"),"3",IF(AND(J86="Calendrier précoce",I86="Faible fécondité"),"2",IF(AND(J86="Calendrier précoce",I86="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="133">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B87" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" s="121">
-        <v>1.99</v>
+        <v>95</v>
+      </c>
+      <c r="C87" s="170">
+        <v>1.98</v>
       </c>
       <c r="D87" s="122">
-        <v>71.2</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E87" s="122">
         <v>29.6</v>
       </c>
       <c r="F87" s="122">
-        <v>80.400000000000006</v>
+        <v>79.8</v>
       </c>
       <c r="G87" s="123">
-        <v>86.3</v>
+        <v>85.5</v>
       </c>
       <c r="H87" s="142">
-        <v>2968</v>
+        <v>2449</v>
       </c>
       <c r="I87" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C87&gt;=1.9,"Forte fécondité",IF(C87&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J87" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E87&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K87" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I87="Faible fécondité",J87="Calendrier tardif"),"1",IF(AND(I87="Forte fécondité",J87="Calendrier tardif"),"4",IF(AND(J87="Calendrier tardif",I87="Dans la moyenne"),"3",IF(AND(J87="Calendrier précoce",I87="Faible fécondité"),"2",IF(AND(J87="Calendrier précoce",I87="Forte fécondité"),"5","3")))))</f>
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="133">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B88" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="121">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="C88" s="170">
+        <v>1.84</v>
       </c>
       <c r="D88" s="122">
-        <v>57.8</v>
+        <v>55.3</v>
       </c>
       <c r="E88" s="122">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="F88" s="122">
-        <v>80.400000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="G88" s="123">
-        <v>85.7</v>
+        <v>85</v>
       </c>
       <c r="H88" s="142">
-        <v>24670</v>
+        <v>1385</v>
       </c>
       <c r="I88" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C88&gt;=1.9,"Forte fécondité",IF(C88&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J88" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E88&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K88" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I88="Faible fécondité",J88="Calendrier tardif"),"1",IF(AND(I88="Forte fécondité",J88="Calendrier tardif"),"4",IF(AND(J88="Calendrier tardif",I88="Dans la moyenne"),"3",IF(AND(J88="Calendrier précoce",I88="Faible fécondité"),"2",IF(AND(J88="Calendrier précoce",I88="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="133">
-        <f>A88+1</f>
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B89" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="121">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C89" s="170">
+        <v>1.98</v>
       </c>
       <c r="D89" s="122">
-        <v>63.5</v>
+        <v>47.2</v>
       </c>
       <c r="E89" s="122">
-        <v>30.1</v>
+        <v>31.9</v>
       </c>
       <c r="F89" s="122">
-        <v>79</v>
+        <v>81.2</v>
       </c>
       <c r="G89" s="123">
-        <v>84.9</v>
+        <v>86.3</v>
       </c>
       <c r="H89" s="142">
-        <v>4439</v>
+        <v>19553</v>
       </c>
       <c r="I89" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C89&gt;=1.9,"Forte fécondité",IF(C89&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J89" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E89&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K89" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I89="Faible fécondité",J89="Calendrier tardif"),"1",IF(AND(I89="Forte fécondité",J89="Calendrier tardif"),"4",IF(AND(J89="Calendrier tardif",I89="Dans la moyenne"),"3",IF(AND(J89="Calendrier précoce",I89="Faible fécondité"),"2",IF(AND(J89="Calendrier précoce",I89="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="133">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B90" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="121">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C90" s="170">
+        <v>2.31</v>
       </c>
       <c r="D90" s="122">
-        <v>61.8</v>
+        <v>46.6</v>
       </c>
       <c r="E90" s="122">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="F90" s="122">
-        <v>79.7</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="G90" s="123">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="H90" s="142">
-        <v>7615</v>
+        <v>19012</v>
       </c>
       <c r="I90" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C90&gt;=1.9,"Forte fécondité",IF(C90&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J90" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier précoce</v>
+        <f>IF(E90&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier tardif</v>
       </c>
       <c r="K90" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I90="Faible fécondité",J90="Calendrier tardif"),"1",IF(AND(I90="Forte fécondité",J90="Calendrier tardif"),"4",IF(AND(J90="Calendrier tardif",I90="Dans la moyenne"),"3",IF(AND(J90="Calendrier précoce",I90="Faible fécondité"),"2",IF(AND(J90="Calendrier précoce",I90="Forte fécondité"),"5","3")))))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="133">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B91" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="121">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="C91" s="170">
+        <v>1.92</v>
       </c>
       <c r="D91" s="122">
-        <v>59</v>
+        <v>60.4</v>
       </c>
       <c r="E91" s="122">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="F91" s="122">
-        <v>80.400000000000006</v>
+        <v>80.2</v>
       </c>
       <c r="G91" s="123">
-        <v>85.3</v>
+        <v>85.6</v>
       </c>
       <c r="H91" s="142">
-        <v>18212</v>
+        <v>10282</v>
       </c>
       <c r="I91" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C91&gt;=1.9,"Forte fécondité",IF(C91&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J91" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E91&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K91" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I91="Faible fécondité",J91="Calendrier tardif"),"1",IF(AND(I91="Forte fécondité",J91="Calendrier tardif"),"4",IF(AND(J91="Calendrier tardif",I91="Dans la moyenne"),"3",IF(AND(J91="Calendrier précoce",I91="Faible fécondité"),"2",IF(AND(J91="Calendrier précoce",I91="Forte fécondité"),"5","3")))))</f>
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="133">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B92" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C92" s="121">
-        <v>2.0099999999999998</v>
+        <v>126</v>
+      </c>
+      <c r="C92" s="170">
+        <v>2.0699999999999998</v>
       </c>
       <c r="D92" s="122">
-        <v>56.1</v>
+        <v>54.9</v>
       </c>
       <c r="E92" s="122">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F92" s="122">
-        <v>80.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G92" s="123">
-        <v>85.4</v>
+        <v>85.2</v>
       </c>
       <c r="H92" s="142">
-        <v>8050</v>
+        <v>6231</v>
       </c>
       <c r="I92" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C92&gt;=1.9,"Forte fécondité",IF(C92&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J92" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E92&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K92" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I92="Faible fécondité",J92="Calendrier tardif"),"1",IF(AND(I92="Forte fécondité",J92="Calendrier tardif"),"4",IF(AND(J92="Calendrier tardif",I92="Dans la moyenne"),"3",IF(AND(J92="Calendrier précoce",I92="Faible fécondité"),"2",IF(AND(J92="Calendrier précoce",I92="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="133">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B93" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="121">
-        <v>2.0699999999999998</v>
+        <v>70</v>
+      </c>
+      <c r="C93" s="170">
+        <v>1.83</v>
       </c>
       <c r="D93" s="122">
-        <v>54.9</v>
+        <v>72.8</v>
       </c>
       <c r="E93" s="122">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="F93" s="122">
-        <v>79.599999999999994</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G93" s="123">
-        <v>85.2</v>
+        <v>85.6</v>
       </c>
       <c r="H93" s="142">
-        <v>6231</v>
+        <v>5916</v>
       </c>
       <c r="I93" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C93&gt;=1.9,"Forte fécondité",IF(C93&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J93" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E93&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier précoce</v>
       </c>
       <c r="K93" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>IF(AND(I93="Faible fécondité",J93="Calendrier tardif"),"1",IF(AND(I93="Forte fécondité",J93="Calendrier tardif"),"4",IF(AND(J93="Calendrier tardif",I93="Dans la moyenne"),"3",IF(AND(J93="Calendrier précoce",I93="Faible fécondité"),"2",IF(AND(J93="Calendrier précoce",I93="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="133">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B94" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="121">
-        <v>2.0699999999999998</v>
+        <v>80</v>
+      </c>
+      <c r="C94" s="170">
+        <v>1.62</v>
       </c>
       <c r="D94" s="122">
-        <v>48</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="E94" s="122">
-        <v>31.7</v>
+        <v>30.6</v>
       </c>
       <c r="F94" s="122">
-        <v>82.1</v>
+        <v>80</v>
       </c>
       <c r="G94" s="123">
-        <v>86.5</v>
+        <v>86</v>
       </c>
       <c r="H94" s="142">
-        <v>18141</v>
+        <v>4039</v>
       </c>
       <c r="I94" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C94&gt;=1.9,"Forte fécondité",IF(C94&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Faible fécondité</v>
       </c>
       <c r="J94" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E94&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K94" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I94="Faible fécondité",J94="Calendrier tardif"),"1",IF(AND(I94="Forte fécondité",J94="Calendrier tardif"),"4",IF(AND(J94="Calendrier tardif",I94="Dans la moyenne"),"3",IF(AND(J94="Calendrier précoce",I94="Faible fécondité"),"2",IF(AND(J94="Calendrier précoce",I94="Forte fécondité"),"5","3")))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="133">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B95" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="121">
-        <v>2.17</v>
+        <v>56</v>
+      </c>
+      <c r="C95" s="170">
+        <v>1.78</v>
       </c>
       <c r="D95" s="122">
-        <v>54.9</v>
+        <v>72</v>
       </c>
       <c r="E95" s="122">
-        <v>31</v>
+        <v>29.4</v>
       </c>
       <c r="F95" s="122">
-        <v>81.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="G95" s="123">
-        <v>86.2</v>
+        <v>85.1</v>
       </c>
       <c r="H95" s="142">
-        <v>18370</v>
+        <v>2998</v>
       </c>
       <c r="I95" s="115" t="str">
-        <f t="shared" si="5"/>
-        <v>Forte fécondité</v>
+        <f>IF(C95&gt;=1.9,"Forte fécondité",IF(C95&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
+        <v>Dans la moyenne</v>
       </c>
       <c r="J95" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E95&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K95" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I95="Faible fécondité",J95="Calendrier tardif"),"1",IF(AND(I95="Forte fécondité",J95="Calendrier tardif"),"4",IF(AND(J95="Calendrier tardif",I95="Dans la moyenne"),"3",IF(AND(J95="Calendrier précoce",I95="Faible fécondité"),"2",IF(AND(J95="Calendrier précoce",I95="Forte fécondité"),"5","3")))))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="133">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B96" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="121">
-        <v>2.31</v>
+        <v>48</v>
+      </c>
+      <c r="C96" s="170">
+        <v>1.96</v>
       </c>
       <c r="D96" s="122">
-        <v>46.6</v>
+        <v>66.5</v>
       </c>
       <c r="E96" s="122">
-        <v>31.1</v>
+        <v>29.6</v>
       </c>
       <c r="F96" s="122">
-        <v>80.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="G96" s="123">
-        <v>85.4</v>
-      </c>
-      <c r="H96" s="142">
-        <v>19012</v>
+        <v>83.4</v>
+      </c>
+      <c r="H96" s="143">
+        <v>3104</v>
       </c>
       <c r="I96" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C96&gt;=1.9,"Forte fécondité",IF(C96&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J96" s="115" t="str">
-        <f t="shared" si="6"/>
-        <v>Calendrier tardif</v>
+        <f>IF(E96&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
+        <v>Calendrier précoce</v>
       </c>
       <c r="K96" s="129" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>IF(AND(I96="Faible fécondité",J96="Calendrier tardif"),"1",IF(AND(I96="Forte fécondité",J96="Calendrier tardif"),"4",IF(AND(J96="Calendrier tardif",I96="Dans la moyenne"),"3",IF(AND(J96="Calendrier précoce",I96="Faible fécondité"),"2",IF(AND(J96="Calendrier précoce",I96="Forte fécondité"),"5","3")))))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="133">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B97" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="121">
-        <v>2.34</v>
+        <v>15</v>
+      </c>
+      <c r="C97" s="170">
+        <v>2.0699999999999998</v>
       </c>
       <c r="D97" s="122">
-        <v>44.7</v>
+        <v>48</v>
       </c>
       <c r="E97" s="122">
-        <v>31.1</v>
+        <v>31.7</v>
       </c>
       <c r="F97" s="122">
-        <v>80</v>
+        <v>82.1</v>
       </c>
       <c r="G97" s="123">
-        <v>85.1</v>
+        <v>86.5</v>
       </c>
       <c r="H97" s="142">
-        <v>27583</v>
+        <v>18141</v>
       </c>
       <c r="I97" s="115" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C97&gt;=1.9,"Forte fécondité",IF(C97&gt;=1.7,"Dans la moyenne","Faible fécondité"))</f>
         <v>Forte fécondité</v>
       </c>
       <c r="J97" s="115" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(E97&gt;=30.3,"Calendrier tardif","Calendrier précoce")</f>
         <v>Calendrier tardif</v>
       </c>
       <c r="K97" s="129" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(I97="Faible fécondité",J97="Calendrier tardif"),"1",IF(AND(I97="Forte fécondité",J97="Calendrier tardif"),"4",IF(AND(J97="Calendrier tardif",I97="Dans la moyenne"),"3",IF(AND(J97="Calendrier précoce",I97="Faible fécondité"),"2",IF(AND(J97="Calendrier précoce",I97="Forte fécondité"),"5","3")))))</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K97">
-    <sortCondition ref="C1:C97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K99">
+    <sortCondition ref="B1:B99"/>
   </sortState>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -67390,11 +67389,11 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
